--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2EF8CF-B9BE-4983-B70F-67BC5EEA535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697A0B1-5842-4920-B2E5-AA10BC8A73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="597">
   <si>
     <t>Tag</t>
   </si>
@@ -2912,14 +2912,1229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABF0A0-878B-4426-BEED-9AC76AA007A9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1005</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1588</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1900</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1903</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1904</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1905</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2515</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2523</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2536</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2537</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2538</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" t="s">
+        <v>341</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2539</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>340</v>
+      </c>
+      <c r="J13" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2540</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>340</v>
+      </c>
+      <c r="J14" t="s">
+        <v>341</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2550</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>346</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>340</v>
+      </c>
+      <c r="J15" t="s">
+        <v>341</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2551</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2552</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2553</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" t="s">
+        <v>341</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2554</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>340</v>
+      </c>
+      <c r="J19" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3000</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>303</v>
+      </c>
+      <c r="J20" t="s">
+        <v>353</v>
+      </c>
+      <c r="K20" t="s">
+        <v>354</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>9560</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L21">
+        <v>16</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>30020</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22">
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2928,11 +4143,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3759C77C-4993-4FB9-8950-D5421D09C285}">
   <dimension ref="A1:R879"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:R879"/>
+    <sheetView topLeftCell="A852" workbookViewId="0">
+      <selection activeCell="A874" sqref="A874:XFD874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="32.06640625" customWidth="1"/>
+    <col min="10" max="10" width="28.265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1697A0B1-5842-4920-B2E5-AA10BC8A73F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9B21C-FEB7-4522-A25D-A63816A5257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="-23148" yWindow="12840" windowWidth="23256" windowHeight="12576" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="664">
   <si>
     <t>Tag</t>
   </si>
@@ -1829,6 +1829,207 @@
   </si>
   <si>
     <t>Bact. aér. revivifiables à  37°C</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>vilaine_barrage</t>
+  </si>
+  <si>
+    <t>mer_barrage</t>
+  </si>
+  <si>
+    <t>aucfer</t>
+  </si>
+  <si>
+    <t>molac</t>
+  </si>
+  <si>
+    <t>legueslin</t>
+  </si>
+  <si>
+    <t>sixtsuraff</t>
+  </si>
+  <si>
+    <t>conquereuil</t>
+  </si>
+  <si>
+    <t>derval</t>
+  </si>
+  <si>
+    <t>bohal</t>
+  </si>
+  <si>
+    <t>bezon</t>
+  </si>
+  <si>
+    <t>malestroit</t>
+  </si>
+  <si>
+    <t>trevelo</t>
+  </si>
+  <si>
+    <t>redon_port</t>
+  </si>
+  <si>
+    <t>redon_amont</t>
+  </si>
+  <si>
+    <t>lapotinais</t>
+  </si>
+  <si>
+    <t>pontdecran</t>
+  </si>
+  <si>
+    <t>redon_ecluse</t>
+  </si>
+  <si>
+    <t>guerouet</t>
+  </si>
+  <si>
+    <t>larochebernard</t>
+  </si>
+  <si>
+    <t>isacaval</t>
+  </si>
+  <si>
+    <t>isacamont</t>
+  </si>
+  <si>
+    <t>isacaval2</t>
+  </si>
+  <si>
+    <t>isacamont2</t>
+  </si>
+  <si>
+    <t>painfault</t>
+  </si>
+  <si>
+    <t>langon</t>
+  </si>
+  <si>
+    <t>malon</t>
+  </si>
+  <si>
+    <t>siphon_amont1</t>
+  </si>
+  <si>
+    <t>siphon_aval1</t>
+  </si>
+  <si>
+    <t>siphon_amont2</t>
+  </si>
+  <si>
+    <t>siphon_aval2</t>
+  </si>
+  <si>
+    <t>sas</t>
+  </si>
+  <si>
+    <t>vilaine_passe</t>
+  </si>
+  <si>
+    <t>mer_passe</t>
+  </si>
+  <si>
+    <t>Vilaine à Arzal</t>
+  </si>
+  <si>
+    <t>Vilaine à l'écluse de Redon</t>
+  </si>
+  <si>
+    <t>Oust à Aucfer</t>
+  </si>
+  <si>
+    <t>Vilaine historique (redon port) ( &lt; 03/2014 )</t>
+  </si>
+  <si>
+    <t>Vilaine à l'amont de Redon</t>
+  </si>
+  <si>
+    <t>Arz à Molac</t>
+  </si>
+  <si>
+    <t>Oust à La Potinais</t>
+  </si>
+  <si>
+    <t>Oust au Gueslin</t>
+  </si>
+  <si>
+    <t>Aff à Sixt sur Aff</t>
+  </si>
+  <si>
+    <t>Don à Conquereuil</t>
+  </si>
+  <si>
+    <t>Chère à Derval</t>
+  </si>
+  <si>
+    <t>Vilaine au Pont de Cran</t>
+  </si>
+  <si>
+    <t>Vilaine à La Roche Bernard</t>
+  </si>
+  <si>
+    <t>Claie à Bohal</t>
+  </si>
+  <si>
+    <t>Yvel à Bezon</t>
+  </si>
+  <si>
+    <t>Trévelo aval</t>
+  </si>
+  <si>
+    <t>Vilaine Painfault</t>
+  </si>
+  <si>
+    <t>Vilaine Langon</t>
+  </si>
+  <si>
+    <t>SAS passe</t>
+  </si>
+  <si>
+    <t>Vilaine passe</t>
+  </si>
+  <si>
+    <t>Mer à Arzal</t>
+  </si>
+  <si>
+    <t>Isac à Guenrouët</t>
+  </si>
+  <si>
+    <t>Oustà à Malestroit</t>
+  </si>
+  <si>
+    <t>Isac amont Thénot (2)</t>
+  </si>
+  <si>
+    <t>Vilaine au Thénot (Isac 1)</t>
+  </si>
+  <si>
+    <t>Vilaine au Thénot (Isac 2)</t>
+  </si>
+  <si>
+    <t>Isac amont Thénot (1)</t>
+  </si>
+  <si>
+    <t>Vilaine Malon</t>
+  </si>
+  <si>
+    <t>Siphon amont barrage</t>
+  </si>
+  <si>
+    <t>Siphon aval barrage</t>
+  </si>
+  <si>
+    <t>Siphon amont barrage (1)</t>
+  </si>
+  <si>
+    <t>Siphon aval barrage (2)</t>
+  </si>
+  <si>
+    <t>Mer passe</t>
   </si>
 </sst>
 </file>
@@ -2188,723 +2389,825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA739E-2EAF-4ABF-84DA-7ADC6778B8E6}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="A1:E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="10.06640625" customWidth="1"/>
-    <col min="5" max="5" width="21.265625" customWidth="1"/>
-    <col min="6" max="8" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" customWidth="1"/>
+    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="7" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2">
+        <v>2507</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3">
+        <v>2508</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4">
+        <v>2100</v>
+      </c>
+      <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>634</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>635</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B8">
+        <v>1100</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>636</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>637</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10">
+        <v>1300</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>638</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B11">
+        <v>1400</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B12">
+        <v>1600</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B13">
+        <v>1700</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>641</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14">
+        <v>1902</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>642</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>652</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>616</v>
+      </c>
+      <c r="B16">
         <v>200</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>643</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F16" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B17">
+        <v>2600</v>
+      </c>
+      <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>644</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1100</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18">
+        <v>2700</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1200</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>608</v>
+      </c>
+      <c r="B19">
+        <v>2900</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>653</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1300</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" s="1">
+        <v>370</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1400</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>618</v>
+      </c>
+      <c r="B21" s="1">
+        <v>371</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="F21" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>619</v>
+      </c>
+      <c r="B22" s="1">
+        <v>372</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23">
+        <v>417</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>657</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>609</v>
+      </c>
+      <c r="B24">
+        <v>418</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>646</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>621</v>
+      </c>
+      <c r="B25">
+        <v>700</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>647</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>622</v>
+      </c>
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>648</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27">
+        <v>900</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>624</v>
+      </c>
+      <c r="B28">
         <v>1525</v>
       </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F28" t="s">
         <v>54</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>625</v>
+      </c>
+      <c r="B29">
         <v>1526</v>
       </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>660</v>
+      </c>
+      <c r="E29" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F29" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30">
         <v>1587</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F30" t="s">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>626</v>
+      </c>
+      <c r="B31">
         <v>1589</v>
       </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>662</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F31" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>1600</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>1700</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>1902</v>
-      </c>
-      <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>2000</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>2100</v>
-      </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>2507</v>
-      </c>
-      <c r="B17">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>628</v>
+      </c>
+      <c r="B32">
+        <v>2518</v>
+      </c>
+      <c r="C32">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D32" t="s">
+        <v>649</v>
+      </c>
+      <c r="E32" t="s">
         <v>98</v>
       </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>2508</v>
-      </c>
-      <c r="B18">
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>629</v>
+      </c>
+      <c r="B33">
+        <v>2519</v>
+      </c>
+      <c r="C33">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D33" t="s">
+        <v>650</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
       </c>
-      <c r="E18" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>2518</v>
-      </c>
-      <c r="B19">
+      <c r="F33" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>630</v>
+      </c>
+      <c r="B34">
+        <v>2520</v>
+      </c>
+      <c r="C34">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D34" t="s">
+        <v>663</v>
+      </c>
+      <c r="E34" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>2519</v>
-      </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>2520</v>
-      </c>
-      <c r="B21">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F34" t="s">
         <v>125</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G34" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>2600</v>
-      </c>
-      <c r="B22">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>2700</v>
-      </c>
-      <c r="B23">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F23" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>2900</v>
-      </c>
-      <c r="B24">
-        <v>29</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="1">
-        <v>370</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="1">
-        <v>371</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="1">
-        <v>372</v>
-      </c>
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>417</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>418</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>500</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>600</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>259</v>
-      </c>
-      <c r="F31" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>700</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>261</v>
-      </c>
-      <c r="F32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>800</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>263</v>
-      </c>
-      <c r="F33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>900</v>
-      </c>
-      <c r="B34">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" t="s">
-        <v>266</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N320">
-    <sortCondition ref="A2:A320"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:O316">
+    <sortCondition ref="B5:B316"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2914,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABF0A0-878B-4426-BEED-9AC76AA007A9}">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9B21C-FEB7-4522-A25D-A63816A5257E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289625C-FCAB-40CB-A141-1C22FD494E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="12840" windowWidth="23256" windowHeight="12576" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="-20268" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="667">
   <si>
     <t>Tag</t>
   </si>
@@ -1789,9 +1789,6 @@
     <t>Entérocoques</t>
   </si>
   <si>
-    <t>dÃ©bit total</t>
-  </si>
-  <si>
     <t>b_soudan_ecret1</t>
   </si>
   <si>
@@ -2030,13 +2027,25 @@
   </si>
   <si>
     <t>Mer passe</t>
+  </si>
+  <si>
+    <t>calc_barrage_debit</t>
+  </si>
+  <si>
+    <t>m3/s</t>
+  </si>
+  <si>
+    <t>Débit total</t>
+  </si>
+  <si>
+    <t>Débit recalculé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2047,6 +2056,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2072,9 +2088,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2391,20 +2408,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA739E-2EAF-4ABF-84DA-7ADC6778B8E6}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.06640625" customWidth="1"/>
-    <col min="6" max="6" width="21.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="9" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2425,9 +2442,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B2">
         <v>2507</v>
@@ -2436,7 +2453,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E2" t="s">
         <v>98</v>
@@ -2448,9 +2465,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B3">
         <v>2508</v>
@@ -2459,7 +2476,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E3" t="s">
         <v>98</v>
@@ -2471,9 +2488,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B4">
         <v>2100</v>
@@ -2482,7 +2499,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -2494,9 +2511,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B5">
         <v>1000</v>
@@ -2505,7 +2522,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -2517,9 +2534,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -2528,7 +2545,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -2540,9 +2557,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B7">
         <v>600</v>
@@ -2551,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -2563,9 +2580,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B8">
         <v>1100</v>
@@ -2574,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -2586,32 +2603,32 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>612</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B9" s="2">
         <v>1200</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>637</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10">
         <v>1300</v>
@@ -2620,7 +2637,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -2632,9 +2649,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11">
         <v>1400</v>
@@ -2643,7 +2660,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -2655,9 +2672,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B12">
         <v>1600</v>
@@ -2666,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
@@ -2678,9 +2695,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B13">
         <v>1700</v>
@@ -2689,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -2701,9 +2718,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B14">
         <v>1902</v>
@@ -2712,7 +2729,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -2724,9 +2741,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B15">
         <v>2000</v>
@@ -2735,7 +2752,7 @@
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -2747,78 +2764,78 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>616</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B16" s="2">
         <v>200</v>
       </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C17" s="2">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B17">
-        <v>2600</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C18" s="2">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="F18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>607</v>
-      </c>
-      <c r="B18">
-        <v>2700</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>645</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>608</v>
       </c>
       <c r="B19">
         <v>2900</v>
@@ -2827,7 +2844,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -2839,9 +2856,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B20" s="1">
         <v>370</v>
@@ -2850,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>19</v>
@@ -2862,9 +2879,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B21" s="1">
         <v>371</v>
@@ -2873,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
@@ -2892,9 +2909,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B22" s="1">
         <v>372</v>
@@ -2903,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
@@ -2922,9 +2939,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B23">
         <v>417</v>
@@ -2933,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -2952,9 +2969,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B24">
         <v>418</v>
@@ -2963,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -2975,9 +2992,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B25">
         <v>700</v>
@@ -2986,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -2998,9 +3015,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B26">
         <v>800</v>
@@ -3009,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -3021,9 +3038,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B27">
         <v>900</v>
@@ -3032,7 +3049,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -3044,9 +3061,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B28">
         <v>1525</v>
@@ -3055,7 +3072,7 @@
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E28" t="s">
         <v>19</v>
@@ -3067,9 +3084,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B29">
         <v>1526</v>
@@ -3078,7 +3095,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
@@ -3090,9 +3107,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B30">
         <v>1587</v>
@@ -3101,7 +3118,7 @@
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -3113,9 +3130,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B31">
         <v>1589</v>
@@ -3124,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
@@ -3136,9 +3153,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B32">
         <v>2518</v>
@@ -3147,7 +3164,7 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E32" t="s">
         <v>98</v>
@@ -3159,9 +3176,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B33">
         <v>2519</v>
@@ -3170,7 +3187,7 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E33" t="s">
         <v>98</v>
@@ -3182,9 +3199,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B34">
         <v>2520</v>
@@ -3193,7 +3210,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E34" t="s">
         <v>98</v>
@@ -3210,6 +3227,7 @@
     <sortCondition ref="B5:B316"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3218,12 +3236,15 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1005</v>
       </c>
@@ -3332,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1588</v>
       </c>
@@ -3388,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1900</v>
       </c>
@@ -3444,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1903</v>
       </c>
@@ -3497,7 +3518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1904</v>
       </c>
@@ -3550,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1905</v>
       </c>
@@ -3603,7 +3624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2515</v>
       </c>
@@ -3659,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2523</v>
       </c>
@@ -3715,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2536</v>
       </c>
@@ -3771,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2537</v>
       </c>
@@ -3827,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2538</v>
       </c>
@@ -3883,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2539</v>
       </c>
@@ -3939,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2540</v>
       </c>
@@ -3995,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2550</v>
       </c>
@@ -4051,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2551</v>
       </c>
@@ -4107,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2552</v>
       </c>
@@ -4163,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2553</v>
       </c>
@@ -4219,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2554</v>
       </c>
@@ -4275,7 +4296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -4331,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9560</v>
       </c>
@@ -4384,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30020</v>
       </c>
@@ -4444,19 +4465,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3759C77C-4993-4FB9-8950-D5421D09C285}">
-  <dimension ref="A1:R879"/>
+  <dimension ref="A1:R880"/>
   <sheetViews>
-    <sheetView topLeftCell="A852" workbookViewId="0">
-      <selection activeCell="A874" sqref="A874:XFD874"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.06640625" customWidth="1"/>
-    <col min="10" max="10" width="28.265625" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4568,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4624,7 +4645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>206</v>
       </c>
@@ -4680,7 +4701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>207</v>
       </c>
@@ -4736,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>208</v>
       </c>
@@ -4792,7 +4813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>209</v>
       </c>
@@ -4848,7 +4869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210</v>
       </c>
@@ -4904,7 +4925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>211</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>212</v>
       </c>
@@ -5016,7 +5037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>213</v>
       </c>
@@ -5072,7 +5093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>214</v>
       </c>
@@ -5128,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>215</v>
       </c>
@@ -5184,7 +5205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>216</v>
       </c>
@@ -5240,7 +5261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>217</v>
       </c>
@@ -5296,7 +5317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>218</v>
       </c>
@@ -5352,7 +5373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>334</v>
       </c>
@@ -5408,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>358</v>
       </c>
@@ -5464,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>369</v>
       </c>
@@ -5520,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>370</v>
       </c>
@@ -5576,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>371</v>
       </c>
@@ -5632,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>372</v>
       </c>
@@ -5688,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>400</v>
       </c>
@@ -5744,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>406</v>
       </c>
@@ -5800,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>417</v>
       </c>
@@ -5856,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>418</v>
       </c>
@@ -5912,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>419</v>
       </c>
@@ -5968,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>429</v>
       </c>
@@ -6024,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>500</v>
       </c>
@@ -6080,7 +6101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>600</v>
       </c>
@@ -6136,7 +6157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>700</v>
       </c>
@@ -6192,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>800</v>
       </c>
@@ -6248,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>900</v>
       </c>
@@ -6304,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -6360,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1005</v>
       </c>
@@ -6413,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1006</v>
       </c>
@@ -6466,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1007</v>
       </c>
@@ -6519,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1008</v>
       </c>
@@ -6572,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1009</v>
       </c>
@@ -6625,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1010</v>
       </c>
@@ -6678,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1012</v>
       </c>
@@ -6734,7 +6755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1013</v>
       </c>
@@ -6790,7 +6811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1014</v>
       </c>
@@ -6846,7 +6867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1015</v>
       </c>
@@ -6902,7 +6923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1016</v>
       </c>
@@ -6958,7 +6979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1017</v>
       </c>
@@ -7014,7 +7035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1018</v>
       </c>
@@ -7070,7 +7091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1019</v>
       </c>
@@ -7126,7 +7147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1020</v>
       </c>
@@ -7182,7 +7203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1021</v>
       </c>
@@ -7238,7 +7259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1022</v>
       </c>
@@ -7294,7 +7315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1023</v>
       </c>
@@ -7350,7 +7371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1024</v>
       </c>
@@ -7406,7 +7427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1025</v>
       </c>
@@ -7462,7 +7483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1026</v>
       </c>
@@ -7518,7 +7539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1027</v>
       </c>
@@ -7574,7 +7595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1028</v>
       </c>
@@ -7630,7 +7651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1029</v>
       </c>
@@ -7686,7 +7707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1030</v>
       </c>
@@ -7742,7 +7763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1031</v>
       </c>
@@ -7798,7 +7819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1032</v>
       </c>
@@ -7854,7 +7875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1033</v>
       </c>
@@ -7910,7 +7931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1034</v>
       </c>
@@ -7966,7 +7987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1035</v>
       </c>
@@ -8022,7 +8043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1036</v>
       </c>
@@ -8078,7 +8099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1100</v>
       </c>
@@ -8134,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1200</v>
       </c>
@@ -8190,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1300</v>
       </c>
@@ -8246,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1400</v>
       </c>
@@ -8302,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1519</v>
       </c>
@@ -8355,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1520</v>
       </c>
@@ -8408,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1523</v>
       </c>
@@ -8461,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1524</v>
       </c>
@@ -8514,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1525</v>
       </c>
@@ -8570,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1526</v>
       </c>
@@ -8626,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1527</v>
       </c>
@@ -8682,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1528</v>
       </c>
@@ -8738,7 +8759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1565</v>
       </c>
@@ -8794,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1585</v>
       </c>
@@ -8847,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1586</v>
       </c>
@@ -8900,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1587</v>
       </c>
@@ -8956,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1588</v>
       </c>
@@ -9012,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1589</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1600</v>
       </c>
@@ -9124,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1700</v>
       </c>
@@ -9180,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1800</v>
       </c>
@@ -9236,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1900</v>
       </c>
@@ -9292,7 +9313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1901</v>
       </c>
@@ -9345,7 +9366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -9401,7 +9422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1903</v>
       </c>
@@ -9454,7 +9475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1904</v>
       </c>
@@ -9507,7 +9528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1905</v>
       </c>
@@ -9560,7 +9581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -9613,7 +9634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -9666,7 +9687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1908</v>
       </c>
@@ -9719,7 +9740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -9775,7 +9796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1910</v>
       </c>
@@ -9828,7 +9849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -9881,7 +9902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -9934,7 +9955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -9990,7 +10011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -10046,7 +10067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1918</v>
       </c>
@@ -10102,7 +10123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -10158,7 +10179,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1920</v>
       </c>
@@ -10214,7 +10235,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1921</v>
       </c>
@@ -10270,7 +10291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1922</v>
       </c>
@@ -10326,7 +10347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1923</v>
       </c>
@@ -10382,7 +10403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1924</v>
       </c>
@@ -10438,7 +10459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1925</v>
       </c>
@@ -10494,7 +10515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1926</v>
       </c>
@@ -10550,7 +10571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1927</v>
       </c>
@@ -10606,7 +10627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1928</v>
       </c>
@@ -10662,7 +10683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1929</v>
       </c>
@@ -10718,7 +10739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1930</v>
       </c>
@@ -10774,7 +10795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2000</v>
       </c>
@@ -10830,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2100</v>
       </c>
@@ -10886,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2500</v>
       </c>
@@ -10933,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2501</v>
       </c>
@@ -10980,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2502</v>
       </c>
@@ -11027,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2503</v>
       </c>
@@ -11074,7 +11095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2504</v>
       </c>
@@ -11121,7 +11142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2505</v>
       </c>
@@ -11168,7 +11189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2507</v>
       </c>
@@ -11224,7 +11245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2508</v>
       </c>
@@ -11280,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2509</v>
       </c>
@@ -11336,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2510</v>
       </c>
@@ -11392,7 +11413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2511</v>
       </c>
@@ -11448,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2512</v>
       </c>
@@ -11504,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2513</v>
       </c>
@@ -11560,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2515</v>
       </c>
@@ -11616,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2518</v>
       </c>
@@ -11672,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2519</v>
       </c>
@@ -11728,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2520</v>
       </c>
@@ -11784,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2521</v>
       </c>
@@ -11840,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2522</v>
       </c>
@@ -11896,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2523</v>
       </c>
@@ -11952,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2524</v>
       </c>
@@ -12008,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2525</v>
       </c>
@@ -12064,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2526</v>
       </c>
@@ -12120,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2534</v>
       </c>
@@ -12176,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2535</v>
       </c>
@@ -12232,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2536</v>
       </c>
@@ -12288,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2537</v>
       </c>
@@ -12344,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2538</v>
       </c>
@@ -12400,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2539</v>
       </c>
@@ -12456,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2540</v>
       </c>
@@ -12512,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2550</v>
       </c>
@@ -12568,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2551</v>
       </c>
@@ -12624,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2552</v>
       </c>
@@ -12680,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2553</v>
       </c>
@@ -12736,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2554</v>
       </c>
@@ -12792,7 +12813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2555</v>
       </c>
@@ -12848,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2556</v>
       </c>
@@ -12904,7 +12925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2557</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2558</v>
       </c>
@@ -13016,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2559</v>
       </c>
@@ -13072,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2560</v>
       </c>
@@ -13128,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2562</v>
       </c>
@@ -13181,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2563</v>
       </c>
@@ -13234,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2564</v>
       </c>
@@ -13287,7 +13308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2600</v>
       </c>
@@ -13343,7 +13364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2700</v>
       </c>
@@ -13399,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2900</v>
       </c>
@@ -13455,7 +13476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3000</v>
       </c>
@@ -13511,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3005</v>
       </c>
@@ -13567,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3008</v>
       </c>
@@ -13623,7 +13644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3009</v>
       </c>
@@ -13679,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3010</v>
       </c>
@@ -13735,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3011</v>
       </c>
@@ -13791,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3012</v>
       </c>
@@ -13847,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3013</v>
       </c>
@@ -13903,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3014</v>
       </c>
@@ -13959,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3015</v>
       </c>
@@ -14015,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3016</v>
       </c>
@@ -14071,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3017</v>
       </c>
@@ -14127,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3018</v>
       </c>
@@ -14183,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3019</v>
       </c>
@@ -14239,7 +14260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3020</v>
       </c>
@@ -14295,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3021</v>
       </c>
@@ -14351,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3022</v>
       </c>
@@ -14407,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3023</v>
       </c>
@@ -14463,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3024</v>
       </c>
@@ -14519,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3025</v>
       </c>
@@ -14575,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3026</v>
       </c>
@@ -14631,7 +14652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3027</v>
       </c>
@@ -14687,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3100</v>
       </c>
@@ -14743,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3102</v>
       </c>
@@ -14799,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3105</v>
       </c>
@@ -14855,7 +14876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3200</v>
       </c>
@@ -14911,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3201</v>
       </c>
@@ -14967,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3202</v>
       </c>
@@ -15023,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3203</v>
       </c>
@@ -15079,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3204</v>
       </c>
@@ -15135,7 +15156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3205</v>
       </c>
@@ -15191,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3206</v>
       </c>
@@ -15247,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3207</v>
       </c>
@@ -15303,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3208</v>
       </c>
@@ -15359,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3209</v>
       </c>
@@ -15415,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3210</v>
       </c>
@@ -15471,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3211</v>
       </c>
@@ -15527,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3212</v>
       </c>
@@ -15583,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3213</v>
       </c>
@@ -15639,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3214</v>
       </c>
@@ -15695,7 +15716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3215</v>
       </c>
@@ -15751,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3216</v>
       </c>
@@ -15807,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3217</v>
       </c>
@@ -15863,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3218</v>
       </c>
@@ -15916,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3219</v>
       </c>
@@ -15969,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3220</v>
       </c>
@@ -16022,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3221</v>
       </c>
@@ -16075,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3222</v>
       </c>
@@ -16128,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3223</v>
       </c>
@@ -16181,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3224</v>
       </c>
@@ -16237,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3225</v>
       </c>
@@ -16293,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3226</v>
       </c>
@@ -16349,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3227</v>
       </c>
@@ -16405,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3300</v>
       </c>
@@ -16461,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3301</v>
       </c>
@@ -16517,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3302</v>
       </c>
@@ -16573,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3303</v>
       </c>
@@ -16629,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3304</v>
       </c>
@@ -16685,7 +16706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3305</v>
       </c>
@@ -16741,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3306</v>
       </c>
@@ -16797,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3307</v>
       </c>
@@ -16853,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3308</v>
       </c>
@@ -16909,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3309</v>
       </c>
@@ -16965,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3310</v>
       </c>
@@ -17021,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3311</v>
       </c>
@@ -17077,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3312</v>
       </c>
@@ -17133,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3313</v>
       </c>
@@ -17189,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3314</v>
       </c>
@@ -17245,7 +17266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3315</v>
       </c>
@@ -17301,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3316</v>
       </c>
@@ -17357,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3317</v>
       </c>
@@ -17413,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3318</v>
       </c>
@@ -17466,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3319</v>
       </c>
@@ -17519,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3320</v>
       </c>
@@ -17572,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3321</v>
       </c>
@@ -17625,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3322</v>
       </c>
@@ -17678,7 +17699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3323</v>
       </c>
@@ -17731,7 +17752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3324</v>
       </c>
@@ -17787,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3325</v>
       </c>
@@ -17843,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3326</v>
       </c>
@@ -17899,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3327</v>
       </c>
@@ -17955,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3328</v>
       </c>
@@ -18011,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3333</v>
       </c>
@@ -18067,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3400</v>
       </c>
@@ -18120,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3401</v>
       </c>
@@ -18173,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3402</v>
       </c>
@@ -18226,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3403</v>
       </c>
@@ -18279,7 +18300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3404</v>
       </c>
@@ -18332,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3405</v>
       </c>
@@ -18385,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3500</v>
       </c>
@@ -18441,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3501</v>
       </c>
@@ -18497,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3502</v>
       </c>
@@ -18550,7 +18571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3503</v>
       </c>
@@ -18603,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3504</v>
       </c>
@@ -18656,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3505</v>
       </c>
@@ -18709,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3506</v>
       </c>
@@ -18762,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3507</v>
       </c>
@@ -18818,7 +18839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3508</v>
       </c>
@@ -18874,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3509</v>
       </c>
@@ -18930,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3510</v>
       </c>
@@ -18986,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3511</v>
       </c>
@@ -19042,7 +19063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3512</v>
       </c>
@@ -19098,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3602</v>
       </c>
@@ -19154,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3603</v>
       </c>
@@ -19210,7 +19231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3616</v>
       </c>
@@ -19263,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3617</v>
       </c>
@@ -19316,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3618</v>
       </c>
@@ -19369,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3619</v>
       </c>
@@ -19422,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3620</v>
       </c>
@@ -19475,7 +19496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3621</v>
       </c>
@@ -19528,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3622</v>
       </c>
@@ -19581,7 +19602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3623</v>
       </c>
@@ -19634,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3624</v>
       </c>
@@ -19687,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3625</v>
       </c>
@@ -19740,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3626</v>
       </c>
@@ -19793,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3627</v>
       </c>
@@ -19846,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3702</v>
       </c>
@@ -19899,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3703</v>
       </c>
@@ -19952,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3704</v>
       </c>
@@ -20005,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3705</v>
       </c>
@@ -20058,7 +20079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>3706</v>
       </c>
@@ -20111,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>3707</v>
       </c>
@@ -20164,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3708</v>
       </c>
@@ -20217,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3709</v>
       </c>
@@ -20270,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3710</v>
       </c>
@@ -20323,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>3711</v>
       </c>
@@ -20376,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>3900</v>
       </c>
@@ -20432,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3901</v>
       </c>
@@ -20488,7 +20509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3902</v>
       </c>
@@ -20544,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3903</v>
       </c>
@@ -20600,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3904</v>
       </c>
@@ -20656,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3905</v>
       </c>
@@ -20712,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3906</v>
       </c>
@@ -20768,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3907</v>
       </c>
@@ -20824,7 +20845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3908</v>
       </c>
@@ -20880,7 +20901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3909</v>
       </c>
@@ -20936,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3910</v>
       </c>
@@ -20992,7 +21013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>3911</v>
       </c>
@@ -21048,7 +21069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3912</v>
       </c>
@@ -21104,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3913</v>
       </c>
@@ -21160,7 +21181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3914</v>
       </c>
@@ -21216,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3915</v>
       </c>
@@ -21272,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3916</v>
       </c>
@@ -21328,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3917</v>
       </c>
@@ -21384,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>3918</v>
       </c>
@@ -21437,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>3919</v>
       </c>
@@ -21490,7 +21511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>3920</v>
       </c>
@@ -21543,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3921</v>
       </c>
@@ -21596,7 +21617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3923</v>
       </c>
@@ -21649,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>3924</v>
       </c>
@@ -21702,7 +21723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>3925</v>
       </c>
@@ -21755,7 +21776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3926</v>
       </c>
@@ -21808,7 +21829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3927</v>
       </c>
@@ -21864,7 +21885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>3928</v>
       </c>
@@ -21920,7 +21941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>3929</v>
       </c>
@@ -21976,7 +21997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3930</v>
       </c>
@@ -22032,7 +22053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3931</v>
       </c>
@@ -22088,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3932</v>
       </c>
@@ -22144,7 +22165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3933</v>
       </c>
@@ -22200,7 +22221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3934</v>
       </c>
@@ -22256,7 +22277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>4000</v>
       </c>
@@ -22309,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>4001</v>
       </c>
@@ -22362,7 +22383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>4002</v>
       </c>
@@ -22415,7 +22436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>4003</v>
       </c>
@@ -22468,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>4004</v>
       </c>
@@ -22521,7 +22542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>4005</v>
       </c>
@@ -22574,7 +22595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>4006</v>
       </c>
@@ -22627,7 +22648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>4007</v>
       </c>
@@ -22680,7 +22701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>4100</v>
       </c>
@@ -22736,7 +22757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>4101</v>
       </c>
@@ -22792,7 +22813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>4102</v>
       </c>
@@ -22848,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>4103</v>
       </c>
@@ -22904,7 +22925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>4104</v>
       </c>
@@ -22960,7 +22981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>4105</v>
       </c>
@@ -23016,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>4106</v>
       </c>
@@ -23072,7 +23093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>4107</v>
       </c>
@@ -23128,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>4108</v>
       </c>
@@ -23184,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>4200</v>
       </c>
@@ -23240,7 +23261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>4201</v>
       </c>
@@ -23296,7 +23317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>4202</v>
       </c>
@@ -23352,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>4203</v>
       </c>
@@ -23408,7 +23429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>4204</v>
       </c>
@@ -23464,7 +23485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>4205</v>
       </c>
@@ -23520,7 +23541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>4206</v>
       </c>
@@ -23576,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>4207</v>
       </c>
@@ -23632,7 +23653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>4208</v>
       </c>
@@ -23688,7 +23709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>4209</v>
       </c>
@@ -23744,7 +23765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>4210</v>
       </c>
@@ -23800,7 +23821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>4211</v>
       </c>
@@ -23856,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>4212</v>
       </c>
@@ -23912,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>4213</v>
       </c>
@@ -23968,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>4214</v>
       </c>
@@ -24024,7 +24045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>4215</v>
       </c>
@@ -24080,7 +24101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>4216</v>
       </c>
@@ -24136,7 +24157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>4217</v>
       </c>
@@ -24189,7 +24210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>4218</v>
       </c>
@@ -24242,7 +24263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>4219</v>
       </c>
@@ -24295,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>4220</v>
       </c>
@@ -24348,7 +24369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>4221</v>
       </c>
@@ -24401,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>4222</v>
       </c>
@@ -24454,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>4223</v>
       </c>
@@ -24507,7 +24528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>4224</v>
       </c>
@@ -24563,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>4225</v>
       </c>
@@ -24619,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>4226</v>
       </c>
@@ -24675,7 +24696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>4227</v>
       </c>
@@ -24731,7 +24752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>4228</v>
       </c>
@@ -24787,7 +24808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>4229</v>
       </c>
@@ -24843,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>4230</v>
       </c>
@@ -24899,7 +24920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4231</v>
       </c>
@@ -24955,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>4232</v>
       </c>
@@ -25011,7 +25032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>4300</v>
       </c>
@@ -25067,7 +25088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>4301</v>
       </c>
@@ -25123,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>4302</v>
       </c>
@@ -25179,7 +25200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>4303</v>
       </c>
@@ -25235,7 +25256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>4304</v>
       </c>
@@ -25291,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>4305</v>
       </c>
@@ -25347,7 +25368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>4306</v>
       </c>
@@ -25403,7 +25424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>4307</v>
       </c>
@@ -25459,7 +25480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>4308</v>
       </c>
@@ -25515,7 +25536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>4309</v>
       </c>
@@ -25571,7 +25592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>4310</v>
       </c>
@@ -25627,7 +25648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>4311</v>
       </c>
@@ -25683,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>4312</v>
       </c>
@@ -25739,7 +25760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>4313</v>
       </c>
@@ -25795,7 +25816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>4314</v>
       </c>
@@ -25851,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>4315</v>
       </c>
@@ -25907,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>4316</v>
       </c>
@@ -25963,7 +25984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>4317</v>
       </c>
@@ -26019,7 +26040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>4318</v>
       </c>
@@ -26075,7 +26096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>4319</v>
       </c>
@@ -26131,7 +26152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>4320</v>
       </c>
@@ -26187,7 +26208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>4321</v>
       </c>
@@ -26243,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>4322</v>
       </c>
@@ -26299,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>4323</v>
       </c>
@@ -26355,7 +26376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>4324</v>
       </c>
@@ -26411,7 +26432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>4325</v>
       </c>
@@ -26467,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>4400</v>
       </c>
@@ -26520,7 +26541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>4401</v>
       </c>
@@ -26573,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>4402</v>
       </c>
@@ -26626,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>4403</v>
       </c>
@@ -26679,7 +26700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>4404</v>
       </c>
@@ -26732,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>4405</v>
       </c>
@@ -26785,7 +26806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>4406</v>
       </c>
@@ -26838,7 +26859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>4407</v>
       </c>
@@ -26891,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>4408</v>
       </c>
@@ -26944,7 +26965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>4409</v>
       </c>
@@ -26997,7 +27018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>4410</v>
       </c>
@@ -27050,7 +27071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>4411</v>
       </c>
@@ -27103,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>4413</v>
       </c>
@@ -27156,7 +27177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>4415</v>
       </c>
@@ -27209,7 +27230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>4500</v>
       </c>
@@ -27265,7 +27286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>4501</v>
       </c>
@@ -27321,7 +27342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>4502</v>
       </c>
@@ -27377,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>4503</v>
       </c>
@@ -27433,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>4504</v>
       </c>
@@ -27489,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>4505</v>
       </c>
@@ -27545,7 +27566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>4506</v>
       </c>
@@ -27601,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>4507</v>
       </c>
@@ -27657,7 +27678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>4508</v>
       </c>
@@ -27713,7 +27734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>4509</v>
       </c>
@@ -27769,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>4510</v>
       </c>
@@ -27825,7 +27846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>4511</v>
       </c>
@@ -27881,7 +27902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>4512</v>
       </c>
@@ -27937,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>4513</v>
       </c>
@@ -27993,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>4514</v>
       </c>
@@ -28049,7 +28070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>4515</v>
       </c>
@@ -28105,7 +28126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>4516</v>
       </c>
@@ -28158,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>4517</v>
       </c>
@@ -28211,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>4518</v>
       </c>
@@ -28264,7 +28285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>4519</v>
       </c>
@@ -28317,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>4520</v>
       </c>
@@ -28370,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>4521</v>
       </c>
@@ -28423,7 +28444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>4522</v>
       </c>
@@ -28476,7 +28497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>4523</v>
       </c>
@@ -28532,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>4524</v>
       </c>
@@ -28588,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>4525</v>
       </c>
@@ -28644,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>4526</v>
       </c>
@@ -28700,7 +28721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>4527</v>
       </c>
@@ -28756,7 +28777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>4528</v>
       </c>
@@ -28812,7 +28833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>4529</v>
       </c>
@@ -28868,7 +28889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>4600</v>
       </c>
@@ -28924,7 +28945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>4601</v>
       </c>
@@ -28980,7 +29001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>4602</v>
       </c>
@@ -29036,7 +29057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>4603</v>
       </c>
@@ -29092,7 +29113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>4604</v>
       </c>
@@ -29148,7 +29169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>4605</v>
       </c>
@@ -29204,7 +29225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>4606</v>
       </c>
@@ -29260,7 +29281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>4607</v>
       </c>
@@ -29316,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>4608</v>
       </c>
@@ -29372,7 +29393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>4609</v>
       </c>
@@ -29428,7 +29449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>4610</v>
       </c>
@@ -29484,7 +29505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>4611</v>
       </c>
@@ -29540,7 +29561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>4612</v>
       </c>
@@ -29596,7 +29617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>4613</v>
       </c>
@@ -29652,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>4614</v>
       </c>
@@ -29708,7 +29729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>4615</v>
       </c>
@@ -29764,7 +29785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>4616</v>
       </c>
@@ -29820,7 +29841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>4617</v>
       </c>
@@ -29876,7 +29897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>4618</v>
       </c>
@@ -29929,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>4619</v>
       </c>
@@ -29982,7 +30003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>4620</v>
       </c>
@@ -30035,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>4622</v>
       </c>
@@ -30088,7 +30109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>4623</v>
       </c>
@@ -30141,7 +30162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>4624</v>
       </c>
@@ -30197,7 +30218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>4625</v>
       </c>
@@ -30253,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>4626</v>
       </c>
@@ -30309,7 +30330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>4627</v>
       </c>
@@ -30365,7 +30386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>4628</v>
       </c>
@@ -30421,7 +30442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>4629</v>
       </c>
@@ -30477,7 +30498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>4630</v>
       </c>
@@ -30533,7 +30554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>4631</v>
       </c>
@@ -30589,7 +30610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>4700</v>
       </c>
@@ -30645,7 +30666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>4701</v>
       </c>
@@ -30701,7 +30722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>4702</v>
       </c>
@@ -30757,7 +30778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>4704</v>
       </c>
@@ -30813,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>4707</v>
       </c>
@@ -30869,7 +30890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>4708</v>
       </c>
@@ -30925,7 +30946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>4712</v>
       </c>
@@ -30981,7 +31002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>4715</v>
       </c>
@@ -31037,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>4716</v>
       </c>
@@ -31090,7 +31111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>4717</v>
       </c>
@@ -31143,7 +31164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>4718</v>
       </c>
@@ -31196,7 +31217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>4719</v>
       </c>
@@ -31249,7 +31270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>4720</v>
       </c>
@@ -31302,7 +31323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>4721</v>
       </c>
@@ -31355,7 +31376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>4722</v>
       </c>
@@ -31408,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>4723</v>
       </c>
@@ -31461,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>4900</v>
       </c>
@@ -31517,7 +31538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>4901</v>
       </c>
@@ -31573,7 +31594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>4902</v>
       </c>
@@ -31629,7 +31650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>4903</v>
       </c>
@@ -31685,7 +31706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>4904</v>
       </c>
@@ -31741,7 +31762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>4905</v>
       </c>
@@ -31797,7 +31818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>4906</v>
       </c>
@@ -31853,7 +31874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>4907</v>
       </c>
@@ -31909,7 +31930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>4908</v>
       </c>
@@ -31965,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>4909</v>
       </c>
@@ -32021,7 +32042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>4910</v>
       </c>
@@ -32077,7 +32098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>4911</v>
       </c>
@@ -32133,7 +32154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>4912</v>
       </c>
@@ -32189,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>4913</v>
       </c>
@@ -32245,7 +32266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>4914</v>
       </c>
@@ -32301,7 +32322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>4915</v>
       </c>
@@ -32357,7 +32378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>4916</v>
       </c>
@@ -32413,7 +32434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>4917</v>
       </c>
@@ -32469,7 +32490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>4918</v>
       </c>
@@ -32525,7 +32546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>4919</v>
       </c>
@@ -32581,7 +32602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>4920</v>
       </c>
@@ -32637,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>4921</v>
       </c>
@@ -32693,7 +32714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>4922</v>
       </c>
@@ -32749,7 +32770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>4923</v>
       </c>
@@ -32805,7 +32826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>4924</v>
       </c>
@@ -32861,7 +32882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>4925</v>
       </c>
@@ -32917,7 +32938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>5116</v>
       </c>
@@ -32970,7 +32991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>5117</v>
       </c>
@@ -33023,7 +33044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>5118</v>
       </c>
@@ -33076,7 +33097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>5119</v>
       </c>
@@ -33129,7 +33150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>5120</v>
       </c>
@@ -33182,7 +33203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>5121</v>
       </c>
@@ -33235,7 +33256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>5122</v>
       </c>
@@ -33288,7 +33309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>5123</v>
       </c>
@@ -33341,7 +33362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>5126</v>
       </c>
@@ -33394,7 +33415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>5127</v>
       </c>
@@ -33447,7 +33468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>5128</v>
       </c>
@@ -33500,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>5129</v>
       </c>
@@ -33553,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>5130</v>
       </c>
@@ -33606,7 +33627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5131</v>
       </c>
@@ -33659,7 +33680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>5200</v>
       </c>
@@ -33712,7 +33733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>5201</v>
       </c>
@@ -33765,7 +33786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5202</v>
       </c>
@@ -33818,7 +33839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>5203</v>
       </c>
@@ -33871,7 +33892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>5204</v>
       </c>
@@ -33924,7 +33945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>5205</v>
       </c>
@@ -33977,7 +33998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>5206</v>
       </c>
@@ -34030,7 +34051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>5207</v>
       </c>
@@ -34083,7 +34104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>5208</v>
       </c>
@@ -34136,7 +34157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>5300</v>
       </c>
@@ -34189,7 +34210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>5301</v>
       </c>
@@ -34242,7 +34263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>5302</v>
       </c>
@@ -34295,7 +34316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>5303</v>
       </c>
@@ -34348,7 +34369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>5304</v>
       </c>
@@ -34401,7 +34422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>5305</v>
       </c>
@@ -34454,7 +34475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>5401</v>
       </c>
@@ -34510,7 +34531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>5402</v>
       </c>
@@ -34566,7 +34587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>5403</v>
       </c>
@@ -34622,7 +34643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>5404</v>
       </c>
@@ -34678,7 +34699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>5405</v>
       </c>
@@ -34734,7 +34755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>5406</v>
       </c>
@@ -34790,7 +34811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>5407</v>
       </c>
@@ -34846,7 +34867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>5408</v>
       </c>
@@ -34902,7 +34923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>5409</v>
       </c>
@@ -34958,7 +34979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>5410</v>
       </c>
@@ -35014,7 +35035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>5411</v>
       </c>
@@ -35070,7 +35091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>5412</v>
       </c>
@@ -35126,7 +35147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5413</v>
       </c>
@@ -35182,7 +35203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>5501</v>
       </c>
@@ -35238,7 +35259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>5502</v>
       </c>
@@ -35294,7 +35315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>5503</v>
       </c>
@@ -35350,7 +35371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>5504</v>
       </c>
@@ -35406,7 +35427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>5505</v>
       </c>
@@ -35462,7 +35483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>5506</v>
       </c>
@@ -35518,7 +35539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>5508</v>
       </c>
@@ -35574,7 +35595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>5509</v>
       </c>
@@ -35630,7 +35651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>5510</v>
       </c>
@@ -35686,7 +35707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>5513</v>
       </c>
@@ -35742,7 +35763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>5514</v>
       </c>
@@ -35798,7 +35819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>5515</v>
       </c>
@@ -35854,7 +35875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>5516</v>
       </c>
@@ -35910,7 +35931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>5517</v>
       </c>
@@ -35966,7 +35987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>5520</v>
       </c>
@@ -36022,7 +36043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>5521</v>
       </c>
@@ -36078,7 +36099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>5522</v>
       </c>
@@ -36134,7 +36155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>5523</v>
       </c>
@@ -36190,7 +36211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>5524</v>
       </c>
@@ -36246,7 +36267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>5529</v>
       </c>
@@ -36302,7 +36323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>5530</v>
       </c>
@@ -36358,7 +36379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>5531</v>
       </c>
@@ -36414,7 +36435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>5534</v>
       </c>
@@ -36470,7 +36491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>5535</v>
       </c>
@@ -36526,7 +36547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>5536</v>
       </c>
@@ -36582,7 +36603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>5537</v>
       </c>
@@ -36638,7 +36659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>5538</v>
       </c>
@@ -36694,7 +36715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>5539</v>
       </c>
@@ -36750,7 +36771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>5540</v>
       </c>
@@ -36806,7 +36827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>5544</v>
       </c>
@@ -36862,7 +36883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>5545</v>
       </c>
@@ -36918,7 +36939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>5551</v>
       </c>
@@ -36974,7 +36995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>5552</v>
       </c>
@@ -37030,7 +37051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>5553</v>
       </c>
@@ -37086,7 +37107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>5554</v>
       </c>
@@ -37142,7 +37163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>5556</v>
       </c>
@@ -37198,7 +37219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>5558</v>
       </c>
@@ -37254,7 +37275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>5559</v>
       </c>
@@ -37310,7 +37331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>5560</v>
       </c>
@@ -37366,7 +37387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>5561</v>
       </c>
@@ -37422,7 +37443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>5562</v>
       </c>
@@ -37478,7 +37499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>5563</v>
       </c>
@@ -37534,7 +37555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>5564</v>
       </c>
@@ -37590,7 +37611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>5565</v>
       </c>
@@ -37646,7 +37667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>5566</v>
       </c>
@@ -37702,7 +37723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>5574</v>
       </c>
@@ -37758,7 +37779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>5575</v>
       </c>
@@ -37814,7 +37835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>5577</v>
       </c>
@@ -37870,7 +37891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>5578</v>
       </c>
@@ -37926,7 +37947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>5585</v>
       </c>
@@ -37982,7 +38003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>5586</v>
       </c>
@@ -38038,7 +38059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>5587</v>
       </c>
@@ -38094,7 +38115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>5588</v>
       </c>
@@ -38150,7 +38171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>5589</v>
       </c>
@@ -38206,7 +38227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>5591</v>
       </c>
@@ -38262,7 +38283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>5592</v>
       </c>
@@ -38318,7 +38339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>5594</v>
       </c>
@@ -38374,7 +38395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>5596</v>
       </c>
@@ -38430,7 +38451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>5597</v>
       </c>
@@ -38486,7 +38507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>5598</v>
       </c>
@@ -38542,7 +38563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>5599</v>
       </c>
@@ -38598,7 +38619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>5600</v>
       </c>
@@ -38654,7 +38675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>5602</v>
       </c>
@@ -38710,7 +38731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>5603</v>
       </c>
@@ -38766,7 +38787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>5604</v>
       </c>
@@ -38822,7 +38843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>5607</v>
       </c>
@@ -38878,7 +38899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>5608</v>
       </c>
@@ -38934,7 +38955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>5610</v>
       </c>
@@ -38990,7 +39011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>5611</v>
       </c>
@@ -39046,7 +39067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>5612</v>
       </c>
@@ -39102,7 +39123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>5700</v>
       </c>
@@ -39158,7 +39179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>5701</v>
       </c>
@@ -39214,7 +39235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>5702</v>
       </c>
@@ -39270,7 +39291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>5703</v>
       </c>
@@ -39326,7 +39347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>5704</v>
       </c>
@@ -39382,7 +39403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>5705</v>
       </c>
@@ -39438,7 +39459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>5706</v>
       </c>
@@ -39494,7 +39515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>5707</v>
       </c>
@@ -39550,7 +39571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>5708</v>
       </c>
@@ -39606,7 +39627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>5709</v>
       </c>
@@ -39662,7 +39683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>5710</v>
       </c>
@@ -39718,7 +39739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>5711</v>
       </c>
@@ -39774,7 +39795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>5712</v>
       </c>
@@ -39830,7 +39851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>5713</v>
       </c>
@@ -39886,7 +39907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>5714</v>
       </c>
@@ -39942,7 +39963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>5715</v>
       </c>
@@ -39998,7 +40019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>5716</v>
       </c>
@@ -40054,7 +40075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>5719</v>
       </c>
@@ -40110,7 +40131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>5720</v>
       </c>
@@ -40166,7 +40187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>5722</v>
       </c>
@@ -40222,7 +40243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>5723</v>
       </c>
@@ -40278,7 +40299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>5724</v>
       </c>
@@ -40334,7 +40355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>5725</v>
       </c>
@@ -40390,7 +40411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>5727</v>
       </c>
@@ -40446,7 +40467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>5730</v>
       </c>
@@ -40502,7 +40523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>5731</v>
       </c>
@@ -40558,7 +40579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>5732</v>
       </c>
@@ -40614,7 +40635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>5733</v>
       </c>
@@ -40670,7 +40691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>5736</v>
       </c>
@@ -40726,7 +40747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>5737</v>
       </c>
@@ -40782,7 +40803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>5738</v>
       </c>
@@ -40838,7 +40859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>5740</v>
       </c>
@@ -40894,7 +40915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>5741</v>
       </c>
@@ -40950,7 +40971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>5744</v>
       </c>
@@ -41006,7 +41027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>5745</v>
       </c>
@@ -41062,7 +41083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>5746</v>
       </c>
@@ -41118,7 +41139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>5752</v>
       </c>
@@ -41174,7 +41195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>5754</v>
       </c>
@@ -41230,7 +41251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>5758</v>
       </c>
@@ -41286,7 +41307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>5760</v>
       </c>
@@ -41342,7 +41363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>5761</v>
       </c>
@@ -41398,7 +41419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>5762</v>
       </c>
@@ -41454,7 +41475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>5763</v>
       </c>
@@ -41510,7 +41531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>5764</v>
       </c>
@@ -41566,7 +41587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>5765</v>
       </c>
@@ -41622,7 +41643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>5766</v>
       </c>
@@ -41678,7 +41699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>5767</v>
       </c>
@@ -41734,7 +41755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>5768</v>
       </c>
@@ -41790,7 +41811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>5769</v>
       </c>
@@ -41846,7 +41867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>5770</v>
       </c>
@@ -41902,7 +41923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>5771</v>
       </c>
@@ -41958,7 +41979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>5772</v>
       </c>
@@ -42014,7 +42035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>5782</v>
       </c>
@@ -42070,7 +42091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>5786</v>
       </c>
@@ -42126,7 +42147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>5787</v>
       </c>
@@ -42182,7 +42203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>5788</v>
       </c>
@@ -42238,7 +42259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>5789</v>
       </c>
@@ -42294,7 +42315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>5790</v>
       </c>
@@ -42350,7 +42371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>5792</v>
       </c>
@@ -42406,7 +42427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>5794</v>
       </c>
@@ -42462,7 +42483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>5795</v>
       </c>
@@ -42518,7 +42539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>5796</v>
       </c>
@@ -42574,7 +42595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>5797</v>
       </c>
@@ -42630,7 +42651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>5799</v>
       </c>
@@ -42686,7 +42707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>5800</v>
       </c>
@@ -42742,7 +42763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>5801</v>
       </c>
@@ -42798,7 +42819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>5803</v>
       </c>
@@ -42854,7 +42875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>5804</v>
       </c>
@@ -42910,7 +42931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>5806</v>
       </c>
@@ -42966,7 +42987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>5807</v>
       </c>
@@ -43022,7 +43043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>5809</v>
       </c>
@@ -43075,7 +43096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>5810</v>
       </c>
@@ -43128,7 +43149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>5816</v>
       </c>
@@ -43181,7 +43202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>5817</v>
       </c>
@@ -43234,7 +43255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>5900</v>
       </c>
@@ -43290,7 +43311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>5901</v>
       </c>
@@ -43346,7 +43367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>5902</v>
       </c>
@@ -43402,7 +43423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>5903</v>
       </c>
@@ -43458,7 +43479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>5904</v>
       </c>
@@ -43514,7 +43535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>5905</v>
       </c>
@@ -43570,7 +43591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>5906</v>
       </c>
@@ -43626,7 +43647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>5907</v>
       </c>
@@ -43682,7 +43703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>6000</v>
       </c>
@@ -43738,7 +43759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>6001</v>
       </c>
@@ -43794,7 +43815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>6002</v>
       </c>
@@ -43850,7 +43871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>6003</v>
       </c>
@@ -43906,7 +43927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>6004</v>
       </c>
@@ -43962,7 +43983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>6005</v>
       </c>
@@ -44018,7 +44039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>6006</v>
       </c>
@@ -44074,7 +44095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>6007</v>
       </c>
@@ -44130,7 +44151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>6008</v>
       </c>
@@ -44186,7 +44207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>6009</v>
       </c>
@@ -44242,7 +44263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>6010</v>
       </c>
@@ -44298,7 +44319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>6011</v>
       </c>
@@ -44354,7 +44375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>6012</v>
       </c>
@@ -44410,7 +44431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>6013</v>
       </c>
@@ -44466,7 +44487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>6014</v>
       </c>
@@ -44522,7 +44543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>6015</v>
       </c>
@@ -44578,7 +44599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>6016</v>
       </c>
@@ -44634,7 +44655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>6017</v>
       </c>
@@ -44690,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>6018</v>
       </c>
@@ -44746,7 +44767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>6019</v>
       </c>
@@ -44802,7 +44823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>6020</v>
       </c>
@@ -44858,7 +44879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>6100</v>
       </c>
@@ -44914,7 +44935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>6300</v>
       </c>
@@ -44970,7 +44991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>6301</v>
       </c>
@@ -45026,7 +45047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>6302</v>
       </c>
@@ -45082,7 +45103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>6304</v>
       </c>
@@ -45138,7 +45159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>6307</v>
       </c>
@@ -45194,7 +45215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>6308</v>
       </c>
@@ -45250,7 +45271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>6312</v>
       </c>
@@ -45306,7 +45327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>6315</v>
       </c>
@@ -45362,7 +45383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>6316</v>
       </c>
@@ -45415,7 +45436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>6317</v>
       </c>
@@ -45468,7 +45489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>6318</v>
       </c>
@@ -45521,7 +45542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>6319</v>
       </c>
@@ -45574,7 +45595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>6320</v>
       </c>
@@ -45627,7 +45648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>9006</v>
       </c>
@@ -45680,7 +45701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>9007</v>
       </c>
@@ -45733,7 +45754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>9008</v>
       </c>
@@ -45786,7 +45807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>9009</v>
       </c>
@@ -45839,7 +45860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>9010</v>
       </c>
@@ -45892,7 +45913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>9011</v>
       </c>
@@ -45945,7 +45966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>9012</v>
       </c>
@@ -45998,7 +46019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>9013</v>
       </c>
@@ -46051,7 +46072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>9014</v>
       </c>
@@ -46104,7 +46125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>9015</v>
       </c>
@@ -46157,7 +46178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>9016</v>
       </c>
@@ -46210,7 +46231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>9017</v>
       </c>
@@ -46263,7 +46284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>9018</v>
       </c>
@@ -46316,7 +46337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>9019</v>
       </c>
@@ -46369,7 +46390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>9020</v>
       </c>
@@ -46422,7 +46443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>9021</v>
       </c>
@@ -46475,7 +46496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>9022</v>
       </c>
@@ -46528,7 +46549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>9023</v>
       </c>
@@ -46581,7 +46602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>9024</v>
       </c>
@@ -46634,7 +46655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>9025</v>
       </c>
@@ -46687,7 +46708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>9026</v>
       </c>
@@ -46740,7 +46761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>9027</v>
       </c>
@@ -46793,7 +46814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>9028</v>
       </c>
@@ -46846,7 +46867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>9029</v>
       </c>
@@ -46899,7 +46920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>9030</v>
       </c>
@@ -46952,7 +46973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>9031</v>
       </c>
@@ -47005,7 +47026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>9032</v>
       </c>
@@ -47058,7 +47079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>9033</v>
       </c>
@@ -47111,7 +47132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>9034</v>
       </c>
@@ -47164,7 +47185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>9035</v>
       </c>
@@ -47217,7 +47238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>9036</v>
       </c>
@@ -47270,7 +47291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>9037</v>
       </c>
@@ -47323,7 +47344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>9038</v>
       </c>
@@ -47376,7 +47397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>9039</v>
       </c>
@@ -47429,7 +47450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>9040</v>
       </c>
@@ -47482,7 +47503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>9041</v>
       </c>
@@ -47535,7 +47556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>9042</v>
       </c>
@@ -47588,7 +47609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>9106</v>
       </c>
@@ -47641,7 +47662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>9107</v>
       </c>
@@ -47694,7 +47715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>9108</v>
       </c>
@@ -47747,7 +47768,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>9109</v>
       </c>
@@ -47800,7 +47821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>9110</v>
       </c>
@@ -47853,7 +47874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>9111</v>
       </c>
@@ -47906,7 +47927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>9112</v>
       </c>
@@ -47959,7 +47980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>9113</v>
       </c>
@@ -48012,7 +48033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>9114</v>
       </c>
@@ -48065,7 +48086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>9115</v>
       </c>
@@ -48118,7 +48139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>9116</v>
       </c>
@@ -48171,7 +48192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>9117</v>
       </c>
@@ -48224,7 +48245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>9118</v>
       </c>
@@ -48277,7 +48298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>9119</v>
       </c>
@@ -48330,7 +48351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>9120</v>
       </c>
@@ -48383,7 +48404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>9121</v>
       </c>
@@ -48436,7 +48457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>9122</v>
       </c>
@@ -48489,7 +48510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>9123</v>
       </c>
@@ -48542,7 +48563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>9124</v>
       </c>
@@ -48595,7 +48616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>9125</v>
       </c>
@@ -48648,7 +48669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>9126</v>
       </c>
@@ -48701,7 +48722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>9127</v>
       </c>
@@ -48754,7 +48775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>9128</v>
       </c>
@@ -48807,7 +48828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>9129</v>
       </c>
@@ -48860,7 +48881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>9130</v>
       </c>
@@ -48913,7 +48934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>9131</v>
       </c>
@@ -48966,7 +48987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>9132</v>
       </c>
@@ -49019,7 +49040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>9133</v>
       </c>
@@ -49072,7 +49093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>9134</v>
       </c>
@@ -49125,7 +49146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>9135</v>
       </c>
@@ -49178,7 +49199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>9136</v>
       </c>
@@ -49231,7 +49252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>9137</v>
       </c>
@@ -49284,7 +49305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>9138</v>
       </c>
@@ -49337,7 +49358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>9139</v>
       </c>
@@ -49390,7 +49411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>9140</v>
       </c>
@@ -49443,7 +49464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>9141</v>
       </c>
@@ -49496,7 +49517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>9142</v>
       </c>
@@ -49549,7 +49570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>9143</v>
       </c>
@@ -49602,7 +49623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>9144</v>
       </c>
@@ -49655,7 +49676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>9145</v>
       </c>
@@ -49708,7 +49729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>9146</v>
       </c>
@@ -49761,7 +49782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>9147</v>
       </c>
@@ -49814,7 +49835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>9148</v>
       </c>
@@ -49867,7 +49888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>9149</v>
       </c>
@@ -49920,7 +49941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>9150</v>
       </c>
@@ -49973,7 +49994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>9151</v>
       </c>
@@ -50026,7 +50047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>9152</v>
       </c>
@@ -50079,7 +50100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>9153</v>
       </c>
@@ -50132,7 +50153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>9154</v>
       </c>
@@ -50185,7 +50206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>9155</v>
       </c>
@@ -50238,7 +50259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>9156</v>
       </c>
@@ -50291,7 +50312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>9157</v>
       </c>
@@ -50344,7 +50365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>9158</v>
       </c>
@@ -50397,7 +50418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>9159</v>
       </c>
@@ -50450,7 +50471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>9160</v>
       </c>
@@ -50503,7 +50524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>9161</v>
       </c>
@@ -50556,7 +50577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>9162</v>
       </c>
@@ -50609,7 +50630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>9163</v>
       </c>
@@ -50662,7 +50683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>9164</v>
       </c>
@@ -50715,7 +50736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>9165</v>
       </c>
@@ -50768,7 +50789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>9166</v>
       </c>
@@ -50821,7 +50842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>9167</v>
       </c>
@@ -50874,7 +50895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>9168</v>
       </c>
@@ -50927,7 +50948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>9169</v>
       </c>
@@ -50980,7 +51001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>9170</v>
       </c>
@@ -51036,7 +51057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>9171</v>
       </c>
@@ -51092,7 +51113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>9172</v>
       </c>
@@ -51148,7 +51169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>9173</v>
       </c>
@@ -51204,7 +51225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>9174</v>
       </c>
@@ -51260,7 +51281,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>9175</v>
       </c>
@@ -51316,7 +51337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>9176</v>
       </c>
@@ -51372,7 +51393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>9177</v>
       </c>
@@ -51425,7 +51446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>9178</v>
       </c>
@@ -51478,7 +51499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>9179</v>
       </c>
@@ -51531,7 +51552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>9180</v>
       </c>
@@ -51584,7 +51605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>9284</v>
       </c>
@@ -51640,7 +51661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>9285</v>
       </c>
@@ -51696,7 +51717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>9286</v>
       </c>
@@ -51752,7 +51773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>9287</v>
       </c>
@@ -51808,7 +51829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>9298</v>
       </c>
@@ -51864,7 +51885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>9560</v>
       </c>
@@ -51872,7 +51893,7 @@
         <v>25</v>
       </c>
       <c r="C863" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -51888,6 +51909,9 @@
       </c>
       <c r="H863">
         <v>2</v>
+      </c>
+      <c r="I863" t="s">
+        <v>664</v>
       </c>
       <c r="J863" t="s">
         <v>151</v>
@@ -51917,92 +51941,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A864">
+    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A864" s="2">
+        <v>9561</v>
+      </c>
+      <c r="C864" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="I864" t="s">
+        <v>664</v>
+      </c>
+      <c r="J864" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A865">
         <v>21919</v>
       </c>
-      <c r="B864">
+      <c r="B865">
         <v>66</v>
       </c>
-      <c r="C864" t="s">
+      <c r="C865" t="s">
         <v>67</v>
       </c>
-      <c r="D864">
-        <v>0</v>
-      </c>
-      <c r="E864">
-        <v>1</v>
-      </c>
-      <c r="F864">
-        <v>0</v>
-      </c>
-      <c r="G864">
-        <v>1</v>
-      </c>
-      <c r="H864">
-        <v>2</v>
-      </c>
-      <c r="I864" t="s">
+      <c r="D865">
+        <v>0</v>
+      </c>
+      <c r="E865">
+        <v>1</v>
+      </c>
+      <c r="F865">
+        <v>0</v>
+      </c>
+      <c r="G865">
+        <v>1</v>
+      </c>
+      <c r="H865">
+        <v>2</v>
+      </c>
+      <c r="I865" t="s">
         <v>19</v>
       </c>
-      <c r="J864" t="s">
+      <c r="J865" t="s">
+        <v>583</v>
+      </c>
+      <c r="K865" t="s">
         <v>584</v>
-      </c>
-      <c r="K864" t="s">
-        <v>585</v>
-      </c>
-      <c r="L864">
-        <v>7</v>
-      </c>
-      <c r="M864">
-        <v>1</v>
-      </c>
-      <c r="N864">
-        <v>2</v>
-      </c>
-      <c r="O864">
-        <v>0</v>
-      </c>
-      <c r="P864">
-        <v>3</v>
-      </c>
-      <c r="Q864">
-        <v>11</v>
-      </c>
-      <c r="R864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A865">
-        <v>21928</v>
-      </c>
-      <c r="B865">
-        <v>67</v>
-      </c>
-      <c r="C865" t="s">
-        <v>586</v>
-      </c>
-      <c r="D865">
-        <v>0</v>
-      </c>
-      <c r="E865">
-        <v>1</v>
-      </c>
-      <c r="F865">
-        <v>0</v>
-      </c>
-      <c r="G865">
-        <v>1</v>
-      </c>
-      <c r="H865">
-        <v>2</v>
-      </c>
-      <c r="J865" t="s">
-        <v>587</v>
-      </c>
-      <c r="K865" t="s">
-        <v>588</v>
       </c>
       <c r="L865">
         <v>7</v>
@@ -52026,15 +52011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A866">
-        <v>21934</v>
+        <v>21928</v>
       </c>
       <c r="B866">
         <v>67</v>
       </c>
       <c r="C866" t="s">
-        <v>67</v>
+        <v>585</v>
       </c>
       <c r="D866">
         <v>0</v>
@@ -52051,14 +52036,11 @@
       <c r="H866">
         <v>2</v>
       </c>
-      <c r="I866" t="s">
-        <v>19</v>
-      </c>
       <c r="J866" t="s">
+        <v>586</v>
+      </c>
+      <c r="K866" t="s">
         <v>587</v>
-      </c>
-      <c r="K866" t="s">
-        <v>588</v>
       </c>
       <c r="L866">
         <v>7</v>
@@ -52082,12 +52064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A867">
-        <v>21949</v>
+        <v>21934</v>
       </c>
       <c r="B867">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C867" t="s">
         <v>67</v>
@@ -52111,10 +52093,10 @@
         <v>19</v>
       </c>
       <c r="J867" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K867" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="L867">
         <v>7</v>
@@ -52138,12 +52120,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A868">
-        <v>22101</v>
+        <v>21949</v>
       </c>
       <c r="B868">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C868" t="s">
         <v>67</v>
@@ -52167,10 +52149,10 @@
         <v>19</v>
       </c>
       <c r="J868" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K868" t="s">
-        <v>332</v>
+        <v>589</v>
       </c>
       <c r="L868">
         <v>7</v>
@@ -52194,15 +52176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A869">
-        <v>22102</v>
+        <v>22101</v>
       </c>
       <c r="B869">
         <v>69</v>
       </c>
       <c r="C869" t="s">
-        <v>592</v>
+        <v>67</v>
       </c>
       <c r="D869">
         <v>0</v>
@@ -52220,10 +52202,10 @@
         <v>2</v>
       </c>
       <c r="I869" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="J869" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K869" t="s">
         <v>332</v>
@@ -52250,15 +52232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A870">
-        <v>22201</v>
+        <v>22102</v>
       </c>
       <c r="B870">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C870" t="s">
-        <v>67</v>
+        <v>591</v>
       </c>
       <c r="D870">
         <v>0</v>
@@ -52276,10 +52258,10 @@
         <v>2</v>
       </c>
       <c r="I870" t="s">
-        <v>19</v>
+        <v>332</v>
       </c>
       <c r="J870" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K870" t="s">
         <v>332</v>
@@ -52306,15 +52288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A871">
-        <v>25001</v>
+        <v>22201</v>
       </c>
       <c r="B871">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C871" t="s">
-        <v>593</v>
+        <v>67</v>
       </c>
       <c r="D871">
         <v>0</v>
@@ -52332,45 +52314,45 @@
         <v>2</v>
       </c>
       <c r="I871" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J871" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K871" t="s">
         <v>332</v>
       </c>
       <c r="L871">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M871">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N871">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O871">
         <v>0</v>
       </c>
       <c r="P871">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q871">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R871">
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A872">
-        <v>25002</v>
+        <v>25001</v>
       </c>
       <c r="B872">
         <v>250</v>
       </c>
       <c r="C872" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D872">
         <v>0</v>
@@ -52391,7 +52373,7 @@
         <v>36</v>
       </c>
       <c r="J872" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K872" t="s">
         <v>332</v>
@@ -52418,71 +52400,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A873">
+        <v>25002</v>
+      </c>
+      <c r="B873">
+        <v>250</v>
+      </c>
+      <c r="C873" t="s">
+        <v>594</v>
+      </c>
+      <c r="D873">
+        <v>0</v>
+      </c>
+      <c r="E873">
+        <v>1</v>
+      </c>
+      <c r="F873">
+        <v>0</v>
+      </c>
+      <c r="G873">
+        <v>1</v>
+      </c>
+      <c r="H873">
+        <v>2</v>
+      </c>
+      <c r="I873" t="s">
+        <v>36</v>
+      </c>
+      <c r="J873" t="s">
+        <v>593</v>
+      </c>
+      <c r="K873" t="s">
+        <v>332</v>
+      </c>
+      <c r="L873">
+        <v>10</v>
+      </c>
+      <c r="M873">
+        <v>2</v>
+      </c>
+      <c r="N873">
+        <v>1</v>
+      </c>
+      <c r="O873">
+        <v>0</v>
+      </c>
+      <c r="P873">
+        <v>1</v>
+      </c>
+      <c r="Q873">
+        <v>1</v>
+      </c>
+      <c r="R873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A874">
         <v>30010</v>
-      </c>
-      <c r="B873">
-        <v>30</v>
-      </c>
-      <c r="C873" t="s">
-        <v>596</v>
-      </c>
-      <c r="D873">
-        <v>0</v>
-      </c>
-      <c r="E873">
-        <v>1</v>
-      </c>
-      <c r="F873">
-        <v>0</v>
-      </c>
-      <c r="G873">
-        <v>1</v>
-      </c>
-      <c r="H873">
-        <v>2</v>
-      </c>
-      <c r="I873" t="s">
-        <v>164</v>
-      </c>
-      <c r="J873" t="s">
-        <v>165</v>
-      </c>
-      <c r="K873" t="s">
-        <v>166</v>
-      </c>
-      <c r="L873">
-        <v>15</v>
-      </c>
-      <c r="M873">
-        <v>0</v>
-      </c>
-      <c r="N873">
-        <v>0</v>
-      </c>
-      <c r="O873">
-        <v>0</v>
-      </c>
-      <c r="P873">
-        <v>0</v>
-      </c>
-      <c r="Q873">
-        <v>0</v>
-      </c>
-      <c r="R873">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A874">
-        <v>30020</v>
       </c>
       <c r="B874">
         <v>30</v>
       </c>
       <c r="C874" t="s">
-        <v>150</v>
+        <v>595</v>
       </c>
       <c r="D874">
         <v>0</v>
@@ -52498,6 +52480,9 @@
       </c>
       <c r="H874">
         <v>2</v>
+      </c>
+      <c r="I874" t="s">
+        <v>164</v>
       </c>
       <c r="J874" t="s">
         <v>165</v>
@@ -52506,7 +52491,7 @@
         <v>166</v>
       </c>
       <c r="L874">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M874">
         <v>0</v>
@@ -52527,15 +52512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A875">
-        <v>30030</v>
+        <v>30020</v>
       </c>
       <c r="B875">
         <v>30</v>
       </c>
       <c r="C875" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="D875">
         <v>0</v>
@@ -52580,15 +52565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A876">
-        <v>30040</v>
+        <v>30030</v>
       </c>
       <c r="B876">
         <v>30</v>
       </c>
       <c r="C876" t="s">
-        <v>27</v>
+        <v>371</v>
       </c>
       <c r="D876">
         <v>0</v>
@@ -52633,15 +52618,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A877">
-        <v>30050</v>
+        <v>30040</v>
       </c>
       <c r="B877">
         <v>30</v>
       </c>
       <c r="C877" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D877">
         <v>0</v>
@@ -52686,15 +52671,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A878">
-        <v>30060</v>
+        <v>30050</v>
       </c>
       <c r="B878">
         <v>30</v>
       </c>
       <c r="C878" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D878">
         <v>0</v>
@@ -52739,15 +52724,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A879">
-        <v>30070</v>
+        <v>30060</v>
       </c>
       <c r="B879">
         <v>30</v>
       </c>
       <c r="C879" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D879">
         <v>0</v>
@@ -52789,6 +52774,59 @@
         <v>0</v>
       </c>
       <c r="R879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>30070</v>
+      </c>
+      <c r="B880">
+        <v>30</v>
+      </c>
+      <c r="C880" t="s">
+        <v>34</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>1</v>
+      </c>
+      <c r="F880">
+        <v>0</v>
+      </c>
+      <c r="G880">
+        <v>1</v>
+      </c>
+      <c r="H880">
+        <v>2</v>
+      </c>
+      <c r="J880" t="s">
+        <v>165</v>
+      </c>
+      <c r="K880" t="s">
+        <v>166</v>
+      </c>
+      <c r="L880">
+        <v>16</v>
+      </c>
+      <c r="M880">
+        <v>0</v>
+      </c>
+      <c r="N880">
+        <v>0</v>
+      </c>
+      <c r="O880">
+        <v>0</v>
+      </c>
+      <c r="P880">
+        <v>0</v>
+      </c>
+      <c r="Q880">
+        <v>0</v>
+      </c>
+      <c r="R880">
         <v>0</v>
       </c>
     </row>
@@ -52797,5 +52835,6 @@
     <sortCondition ref="A2:A319"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B4A0A2-7230-4B54-8190-18B951762EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A89E7-5155-4AE0-9750-1AA460F59099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4332" yWindow="2220" windowWidth="17280" windowHeight="8916" activeTab="3" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="1800" yWindow="1815" windowWidth="21600" windowHeight="10905" activeTab="3" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -2550,15 +2550,15 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
     <col min="7" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>609</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>610</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>611</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>601</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>602</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>603</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>604</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>612</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>614</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>615</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>605</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>606</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>616</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>617</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>618</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>619</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>620</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>622</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>621</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>623</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>624</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>625</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>704</v>
       </c>
@@ -3175,9 +3175,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>608</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>608</v>
       </c>
@@ -3235,14 +3235,14 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.53125" customWidth="1"/>
+    <col min="4" max="4" width="21.53125" customWidth="1"/>
+    <col min="6" max="6" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>614</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>597</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>618</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>678</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>679</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>680</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>677</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>673</v>
       </c>
@@ -3515,7 +3515,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>674</v>
       </c>
@@ -3542,7 +3542,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>675</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>681</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>682</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>683</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>684</v>
       </c>
@@ -3660,16 +3660,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>711</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>707</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>708</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>693</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>694</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>695</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>696</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>697</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>698</v>
       </c>
@@ -3870,12 +3870,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2536</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2537</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2538</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2539</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2540</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2550</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2551</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2552</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>2553</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2554</v>
       </c>
@@ -4058,13 +4058,13 @@
       <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>206</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>207</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>208</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>209</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>210</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>211</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>212</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>213</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>214</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>215</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>216</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>217</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>218</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>334</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>358</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>369</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>370</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>371</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>372</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>400</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>406</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>417</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>418</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>419</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>429</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>600</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>700</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>800</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>900</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1005</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1006</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1007</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1008</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1009</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1010</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1012</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1013</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1014</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1015</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1016</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1017</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1018</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1019</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1020</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1021</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1022</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1023</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1024</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1025</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1026</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1027</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1028</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1029</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1030</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1031</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1032</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1033</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1034</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1035</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1036</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1100</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1200</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1300</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1400</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1519</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1520</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1523</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1524</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1525</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1526</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1527</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1528</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1565</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1585</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1586</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1587</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1588</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1589</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1600</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1700</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1800</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1900</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1901</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1903</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1904</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1905</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1908</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1910</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1918</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1920</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1921</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1922</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1923</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1924</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1925</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1926</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1927</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1928</v>
       </c>
@@ -10270,7 +10270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1929</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1930</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>2000</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>2100</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>2500</v>
       </c>
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2501</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>2502</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>2503</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2504</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>2505</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>2507</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>2508</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>2509</v>
       </c>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>2510</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>2511</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>2512</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>2513</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>2515</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>2518</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>2519</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>2520</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>2521</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>2522</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>2523</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>2524</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>2525</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>2526</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>2534</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>2535</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>2536</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>2537</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>2538</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>2539</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>2540</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>2550</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>2551</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>2552</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>2553</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>2554</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>2555</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>2556</v>
       </c>
@@ -12512,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>2557</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>2558</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>2559</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>2560</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>2562</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>2563</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>2564</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>2600</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>2700</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>2900</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>3000</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>3005</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>3008</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>3009</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>3010</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>3011</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>3012</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>3013</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>3014</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>3015</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>3016</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>3017</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>3018</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>3019</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>3020</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>3021</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>3022</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>3023</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>3024</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>3025</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>3026</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>3027</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>3100</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>3102</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>3105</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>3200</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>3201</v>
       </c>
@@ -14575,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>3202</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>3203</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>3204</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>3205</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>3206</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>3207</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>3208</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>3209</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>3210</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>3211</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>3212</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>3213</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>3214</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>3215</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>3216</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>3217</v>
       </c>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>3218</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>3219</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>3220</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>3221</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>3222</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>3223</v>
       </c>
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>3224</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>3225</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>3226</v>
       </c>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>3227</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>3300</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>3301</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>3302</v>
       </c>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>3303</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>3304</v>
       </c>
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>3305</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>3306</v>
       </c>
@@ -16405,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>3307</v>
       </c>
@@ -16461,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>3308</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>3309</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>3310</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>3311</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>3312</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>3313</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>3314</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>3315</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>3316</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>3317</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>3318</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>3319</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>3320</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>3321</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>3322</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>3323</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>3324</v>
       </c>
@@ -17395,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>3325</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>3326</v>
       </c>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>3327</v>
       </c>
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>3328</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>3333</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>3400</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>3401</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>3402</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>3403</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>3404</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>3405</v>
       </c>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>3500</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>3501</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>3502</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>3503</v>
       </c>
@@ -18211,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>3504</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>3505</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>3506</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>3507</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>3508</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>3509</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>3510</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>3511</v>
       </c>
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>3512</v>
       </c>
@@ -18706,7 +18706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>3602</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>3603</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>3616</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>3617</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>3618</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>3619</v>
       </c>
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>3620</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>3621</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>3622</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>3623</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>3624</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>3625</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>3626</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>3627</v>
       </c>
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>3702</v>
       </c>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>3703</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>3704</v>
       </c>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>3705</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>3706</v>
       </c>
@@ -19719,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>3707</v>
       </c>
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>3708</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>3709</v>
       </c>
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>3710</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>3711</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>3900</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>3901</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>3902</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>3903</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>3904</v>
       </c>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>3905</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>3906</v>
       </c>
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>3907</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>3908</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>3909</v>
       </c>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>3910</v>
       </c>
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>3911</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>3912</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>3913</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>3914</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>3915</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>3916</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>3917</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>3918</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>3919</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>3920</v>
       </c>
@@ -21151,7 +21151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>3921</v>
       </c>
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>3923</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>3924</v>
       </c>
@@ -21310,7 +21310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>3925</v>
       </c>
@@ -21363,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>3926</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>3927</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>3928</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>3929</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>3930</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>3931</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>3932</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>3933</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>3934</v>
       </c>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>4000</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>4001</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>4002</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>4003</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>4004</v>
       </c>
@@ -22129,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>4005</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>4006</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>4007</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>4100</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>4101</v>
       </c>
@@ -22400,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>4102</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>4103</v>
       </c>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>4104</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>4105</v>
       </c>
@@ -22624,7 +22624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>4106</v>
       </c>
@@ -22680,7 +22680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>4107</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>4108</v>
       </c>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>4200</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>4201</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>4202</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>4203</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>4204</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>4205</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>4206</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>4207</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>4208</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>4209</v>
       </c>
@@ -23352,7 +23352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>4210</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>4211</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>4212</v>
       </c>
@@ -23520,7 +23520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>4213</v>
       </c>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>4214</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>4215</v>
       </c>
@@ -23688,7 +23688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>4216</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>4217</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>4218</v>
       </c>
@@ -23850,7 +23850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>4219</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>4220</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>4221</v>
       </c>
@@ -24009,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>4222</v>
       </c>
@@ -24062,7 +24062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>4223</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>4224</v>
       </c>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>4225</v>
       </c>
@@ -24227,7 +24227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>4226</v>
       </c>
@@ -24283,7 +24283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>4227</v>
       </c>
@@ -24339,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>4228</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>4229</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>4230</v>
       </c>
@@ -24507,7 +24507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>4231</v>
       </c>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>4232</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>4300</v>
       </c>
@@ -24675,7 +24675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>4301</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>4302</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>4303</v>
       </c>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>4304</v>
       </c>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>4305</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>4306</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>4307</v>
       </c>
@@ -25067,7 +25067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>4308</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>4309</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>4310</v>
       </c>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>4311</v>
       </c>
@@ -25291,7 +25291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>4312</v>
       </c>
@@ -25347,7 +25347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>4313</v>
       </c>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>4314</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>4315</v>
       </c>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>4316</v>
       </c>
@@ -25571,7 +25571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>4317</v>
       </c>
@@ -25627,7 +25627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>4318</v>
       </c>
@@ -25683,7 +25683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>4319</v>
       </c>
@@ -25739,7 +25739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>4320</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>4321</v>
       </c>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>4322</v>
       </c>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>4323</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>4324</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>4325</v>
       </c>
@@ -26075,7 +26075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>4400</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>4401</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>4402</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>4403</v>
       </c>
@@ -26287,7 +26287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>4404</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>4405</v>
       </c>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>4406</v>
       </c>
@@ -26446,7 +26446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>4407</v>
       </c>
@@ -26499,7 +26499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>4408</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>4409</v>
       </c>
@@ -26605,7 +26605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>4410</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>4411</v>
       </c>
@@ -26711,7 +26711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>4413</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>4415</v>
       </c>
@@ -26817,7 +26817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>4500</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>4501</v>
       </c>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>4502</v>
       </c>
@@ -26985,7 +26985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>4503</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>4504</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>4505</v>
       </c>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>4506</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>4507</v>
       </c>
@@ -27265,7 +27265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>4508</v>
       </c>
@@ -27321,7 +27321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>4509</v>
       </c>
@@ -27377,7 +27377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>4510</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>4511</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>4512</v>
       </c>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>4513</v>
       </c>
@@ -27601,7 +27601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>4514</v>
       </c>
@@ -27657,7 +27657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>4515</v>
       </c>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>4516</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>4517</v>
       </c>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>4518</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>4519</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>4520</v>
       </c>
@@ -27978,7 +27978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>4521</v>
       </c>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>4522</v>
       </c>
@@ -28084,7 +28084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>4523</v>
       </c>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>4524</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>4525</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>4526</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>4527</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>4528</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>4529</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>4600</v>
       </c>
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>4601</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>4602</v>
       </c>
@@ -28644,7 +28644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>4603</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>4604</v>
       </c>
@@ -28756,7 +28756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>4605</v>
       </c>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>4606</v>
       </c>
@@ -28868,7 +28868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>4607</v>
       </c>
@@ -28924,7 +28924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>4608</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>4609</v>
       </c>
@@ -29036,7 +29036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>4610</v>
       </c>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>4611</v>
       </c>
@@ -29148,7 +29148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>4612</v>
       </c>
@@ -29204,7 +29204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>4613</v>
       </c>
@@ -29260,7 +29260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>4614</v>
       </c>
@@ -29316,7 +29316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>4615</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>4616</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>4617</v>
       </c>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>4618</v>
       </c>
@@ -29537,7 +29537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>4619</v>
       </c>
@@ -29590,7 +29590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>4620</v>
       </c>
@@ -29643,7 +29643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>4622</v>
       </c>
@@ -29696,7 +29696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>4623</v>
       </c>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>4624</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>4625</v>
       </c>
@@ -29861,7 +29861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>4626</v>
       </c>
@@ -29917,7 +29917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>4627</v>
       </c>
@@ -29973,7 +29973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>4628</v>
       </c>
@@ -30029,7 +30029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>4629</v>
       </c>
@@ -30085,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>4630</v>
       </c>
@@ -30141,7 +30141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>4631</v>
       </c>
@@ -30197,7 +30197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>4700</v>
       </c>
@@ -30253,7 +30253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>4701</v>
       </c>
@@ -30309,7 +30309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>4702</v>
       </c>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>4704</v>
       </c>
@@ -30421,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>4707</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>4708</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>4712</v>
       </c>
@@ -30589,7 +30589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>4715</v>
       </c>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>4716</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>4717</v>
       </c>
@@ -30751,7 +30751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>4718</v>
       </c>
@@ -30804,7 +30804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>4719</v>
       </c>
@@ -30857,7 +30857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>4720</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>4721</v>
       </c>
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>4722</v>
       </c>
@@ -31016,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>4723</v>
       </c>
@@ -31069,7 +31069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>4900</v>
       </c>
@@ -31125,7 +31125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>4901</v>
       </c>
@@ -31181,7 +31181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>4902</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>4903</v>
       </c>
@@ -31293,7 +31293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>4904</v>
       </c>
@@ -31349,7 +31349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>4905</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>4906</v>
       </c>
@@ -31461,7 +31461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>4907</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>4908</v>
       </c>
@@ -31573,7 +31573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>4909</v>
       </c>
@@ -31629,7 +31629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>4910</v>
       </c>
@@ -31685,7 +31685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>4911</v>
       </c>
@@ -31741,7 +31741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>4912</v>
       </c>
@@ -31797,7 +31797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>4913</v>
       </c>
@@ -31853,7 +31853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>4914</v>
       </c>
@@ -31909,7 +31909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>4915</v>
       </c>
@@ -31965,7 +31965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>4916</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>4917</v>
       </c>
@@ -32077,7 +32077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>4918</v>
       </c>
@@ -32133,7 +32133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>4919</v>
       </c>
@@ -32189,7 +32189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>4920</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>4921</v>
       </c>
@@ -32301,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>4922</v>
       </c>
@@ -32357,7 +32357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>4923</v>
       </c>
@@ -32413,7 +32413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>4924</v>
       </c>
@@ -32469,7 +32469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>4925</v>
       </c>
@@ -32525,7 +32525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>5116</v>
       </c>
@@ -32578,7 +32578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>5117</v>
       </c>
@@ -32631,7 +32631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>5118</v>
       </c>
@@ -32684,7 +32684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>5119</v>
       </c>
@@ -32737,7 +32737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>5120</v>
       </c>
@@ -32790,7 +32790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>5121</v>
       </c>
@@ -32843,7 +32843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>5122</v>
       </c>
@@ -32896,7 +32896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>5123</v>
       </c>
@@ -32949,7 +32949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>5126</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>5127</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>5128</v>
       </c>
@@ -33108,7 +33108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>5129</v>
       </c>
@@ -33161,7 +33161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>5130</v>
       </c>
@@ -33214,7 +33214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>5131</v>
       </c>
@@ -33267,7 +33267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>5200</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>5201</v>
       </c>
@@ -33373,7 +33373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>5202</v>
       </c>
@@ -33426,7 +33426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>5203</v>
       </c>
@@ -33479,7 +33479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>5204</v>
       </c>
@@ -33532,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>5205</v>
       </c>
@@ -33585,7 +33585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>5206</v>
       </c>
@@ -33638,7 +33638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>5207</v>
       </c>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>5208</v>
       </c>
@@ -33744,7 +33744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>5300</v>
       </c>
@@ -33797,7 +33797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>5301</v>
       </c>
@@ -33850,7 +33850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>5302</v>
       </c>
@@ -33903,7 +33903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>5303</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>5304</v>
       </c>
@@ -34009,7 +34009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>5305</v>
       </c>
@@ -34062,7 +34062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>5401</v>
       </c>
@@ -34118,7 +34118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>5402</v>
       </c>
@@ -34174,7 +34174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>5403</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>5404</v>
       </c>
@@ -34286,7 +34286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>5405</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>5406</v>
       </c>
@@ -34398,7 +34398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>5407</v>
       </c>
@@ -34454,7 +34454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>5408</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>5409</v>
       </c>
@@ -34566,7 +34566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>5410</v>
       </c>
@@ -34622,7 +34622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>5411</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>5412</v>
       </c>
@@ -34734,7 +34734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>5413</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>5501</v>
       </c>
@@ -34846,7 +34846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>5502</v>
       </c>
@@ -34902,7 +34902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>5503</v>
       </c>
@@ -34958,7 +34958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>5504</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>5505</v>
       </c>
@@ -35070,7 +35070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>5506</v>
       </c>
@@ -35126,7 +35126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>5508</v>
       </c>
@@ -35182,7 +35182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>5509</v>
       </c>
@@ -35238,7 +35238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>5510</v>
       </c>
@@ -35294,7 +35294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>5513</v>
       </c>
@@ -35350,7 +35350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>5514</v>
       </c>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>5515</v>
       </c>
@@ -35462,7 +35462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>5516</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>5517</v>
       </c>
@@ -35574,7 +35574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>5520</v>
       </c>
@@ -35630,7 +35630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>5521</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>5522</v>
       </c>
@@ -35742,7 +35742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>5523</v>
       </c>
@@ -35798,7 +35798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>5524</v>
       </c>
@@ -35854,7 +35854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>5529</v>
       </c>
@@ -35910,7 +35910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>5530</v>
       </c>
@@ -35966,7 +35966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>5531</v>
       </c>
@@ -36022,7 +36022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>5534</v>
       </c>
@@ -36078,7 +36078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>5535</v>
       </c>
@@ -36134,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>5536</v>
       </c>
@@ -36190,7 +36190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>5537</v>
       </c>
@@ -36246,7 +36246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>5538</v>
       </c>
@@ -36302,7 +36302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>5539</v>
       </c>
@@ -36358,7 +36358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>5540</v>
       </c>
@@ -36414,7 +36414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>5544</v>
       </c>
@@ -36470,7 +36470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>5545</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>5551</v>
       </c>
@@ -36582,7 +36582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>5552</v>
       </c>
@@ -36638,7 +36638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>5553</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>5554</v>
       </c>
@@ -36750,7 +36750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>5556</v>
       </c>
@@ -36806,7 +36806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>5558</v>
       </c>
@@ -36862,7 +36862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>5559</v>
       </c>
@@ -36918,7 +36918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>5560</v>
       </c>
@@ -36974,7 +36974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>5561</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>5562</v>
       </c>
@@ -37086,7 +37086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>5563</v>
       </c>
@@ -37142,7 +37142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>5564</v>
       </c>
@@ -37198,7 +37198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>5565</v>
       </c>
@@ -37254,7 +37254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>5566</v>
       </c>
@@ -37310,7 +37310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>5574</v>
       </c>
@@ -37366,7 +37366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>5575</v>
       </c>
@@ -37422,7 +37422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>5577</v>
       </c>
@@ -37478,7 +37478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>5578</v>
       </c>
@@ -37534,7 +37534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>5585</v>
       </c>
@@ -37590,7 +37590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>5586</v>
       </c>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>5587</v>
       </c>
@@ -37702,7 +37702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>5588</v>
       </c>
@@ -37758,7 +37758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>5589</v>
       </c>
@@ -37814,7 +37814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>5591</v>
       </c>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>5592</v>
       </c>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>5594</v>
       </c>
@@ -37982,7 +37982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>5596</v>
       </c>
@@ -38038,7 +38038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>5597</v>
       </c>
@@ -38094,7 +38094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>5598</v>
       </c>
@@ -38150,7 +38150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>5599</v>
       </c>
@@ -38206,7 +38206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>5600</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>5602</v>
       </c>
@@ -38318,7 +38318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>5603</v>
       </c>
@@ -38374,7 +38374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>5604</v>
       </c>
@@ -38430,7 +38430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>5607</v>
       </c>
@@ -38486,7 +38486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>5608</v>
       </c>
@@ -38542,7 +38542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>5610</v>
       </c>
@@ -38598,7 +38598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>5611</v>
       </c>
@@ -38654,7 +38654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>5612</v>
       </c>
@@ -38710,7 +38710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>5700</v>
       </c>
@@ -38766,7 +38766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>5701</v>
       </c>
@@ -38822,7 +38822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>5702</v>
       </c>
@@ -38878,7 +38878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>5703</v>
       </c>
@@ -38934,7 +38934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>5704</v>
       </c>
@@ -38990,7 +38990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>5705</v>
       </c>
@@ -39046,7 +39046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>5706</v>
       </c>
@@ -39102,7 +39102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>5707</v>
       </c>
@@ -39158,7 +39158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>5708</v>
       </c>
@@ -39214,7 +39214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>5709</v>
       </c>
@@ -39270,7 +39270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>5710</v>
       </c>
@@ -39326,7 +39326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>5711</v>
       </c>
@@ -39382,7 +39382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>5712</v>
       </c>
@@ -39438,7 +39438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>5713</v>
       </c>
@@ -39494,7 +39494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>5714</v>
       </c>
@@ -39550,7 +39550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>5715</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>5716</v>
       </c>
@@ -39662,7 +39662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>5719</v>
       </c>
@@ -39718,7 +39718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>5720</v>
       </c>
@@ -39774,7 +39774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>5722</v>
       </c>
@@ -39830,7 +39830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>5723</v>
       </c>
@@ -39886,7 +39886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>5724</v>
       </c>
@@ -39942,7 +39942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>5725</v>
       </c>
@@ -39998,7 +39998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>5727</v>
       </c>
@@ -40054,7 +40054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>5730</v>
       </c>
@@ -40110,7 +40110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>5731</v>
       </c>
@@ -40166,7 +40166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>5732</v>
       </c>
@@ -40222,7 +40222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>5733</v>
       </c>
@@ -40278,7 +40278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>5736</v>
       </c>
@@ -40334,7 +40334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>5737</v>
       </c>
@@ -40390,7 +40390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>5738</v>
       </c>
@@ -40446,7 +40446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>5740</v>
       </c>
@@ -40502,7 +40502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>5741</v>
       </c>
@@ -40558,7 +40558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>5744</v>
       </c>
@@ -40614,7 +40614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>5745</v>
       </c>
@@ -40670,7 +40670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>5746</v>
       </c>
@@ -40726,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>5752</v>
       </c>
@@ -40782,7 +40782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>5754</v>
       </c>
@@ -40838,7 +40838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>5758</v>
       </c>
@@ -40894,7 +40894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>5760</v>
       </c>
@@ -40950,7 +40950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>5761</v>
       </c>
@@ -41006,7 +41006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>5762</v>
       </c>
@@ -41062,7 +41062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>5763</v>
       </c>
@@ -41118,7 +41118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>5764</v>
       </c>
@@ -41174,7 +41174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>5765</v>
       </c>
@@ -41230,7 +41230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>5766</v>
       </c>
@@ -41286,7 +41286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>5767</v>
       </c>
@@ -41342,7 +41342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>5768</v>
       </c>
@@ -41398,7 +41398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>5769</v>
       </c>
@@ -41454,7 +41454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>5770</v>
       </c>
@@ -41510,7 +41510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>5771</v>
       </c>
@@ -41566,7 +41566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>5772</v>
       </c>
@@ -41622,7 +41622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>5782</v>
       </c>
@@ -41678,7 +41678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>5786</v>
       </c>
@@ -41734,7 +41734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>5787</v>
       </c>
@@ -41790,7 +41790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>5788</v>
       </c>
@@ -41846,7 +41846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>5789</v>
       </c>
@@ -41902,7 +41902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>5790</v>
       </c>
@@ -41958,7 +41958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>5792</v>
       </c>
@@ -42014,7 +42014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>5794</v>
       </c>
@@ -42070,7 +42070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>5795</v>
       </c>
@@ -42126,7 +42126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>5796</v>
       </c>
@@ -42182,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>5797</v>
       </c>
@@ -42238,7 +42238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>5799</v>
       </c>
@@ -42294,7 +42294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>5800</v>
       </c>
@@ -42350,7 +42350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>5801</v>
       </c>
@@ -42406,7 +42406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>5803</v>
       </c>
@@ -42462,7 +42462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A696">
         <v>5804</v>
       </c>
@@ -42518,7 +42518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A697">
         <v>5806</v>
       </c>
@@ -42574,7 +42574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A698">
         <v>5807</v>
       </c>
@@ -42630,7 +42630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A699">
         <v>5809</v>
       </c>
@@ -42683,7 +42683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A700">
         <v>5810</v>
       </c>
@@ -42736,7 +42736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A701">
         <v>5816</v>
       </c>
@@ -42789,7 +42789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A702">
         <v>5817</v>
       </c>
@@ -42842,7 +42842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A703">
         <v>5900</v>
       </c>
@@ -42898,7 +42898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A704">
         <v>5901</v>
       </c>
@@ -42954,7 +42954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A705">
         <v>5902</v>
       </c>
@@ -43010,7 +43010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A706">
         <v>5903</v>
       </c>
@@ -43066,7 +43066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A707">
         <v>5904</v>
       </c>
@@ -43122,7 +43122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A708">
         <v>5905</v>
       </c>
@@ -43178,7 +43178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A709">
         <v>5906</v>
       </c>
@@ -43234,7 +43234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A710">
         <v>5907</v>
       </c>
@@ -43290,7 +43290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A711">
         <v>6000</v>
       </c>
@@ -43346,7 +43346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A712">
         <v>6001</v>
       </c>
@@ -43402,7 +43402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A713">
         <v>6002</v>
       </c>
@@ -43458,7 +43458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A714">
         <v>6003</v>
       </c>
@@ -43514,7 +43514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A715">
         <v>6004</v>
       </c>
@@ -43570,7 +43570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A716">
         <v>6005</v>
       </c>
@@ -43626,7 +43626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A717">
         <v>6006</v>
       </c>
@@ -43682,7 +43682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A718">
         <v>6007</v>
       </c>
@@ -43738,7 +43738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A719">
         <v>6008</v>
       </c>
@@ -43794,7 +43794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A720">
         <v>6009</v>
       </c>
@@ -43850,7 +43850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A721">
         <v>6010</v>
       </c>
@@ -43906,7 +43906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A722">
         <v>6011</v>
       </c>
@@ -43962,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A723">
         <v>6012</v>
       </c>
@@ -44018,7 +44018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A724">
         <v>6013</v>
       </c>
@@ -44074,7 +44074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A725">
         <v>6014</v>
       </c>
@@ -44130,7 +44130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A726">
         <v>6015</v>
       </c>
@@ -44186,7 +44186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A727">
         <v>6016</v>
       </c>
@@ -44242,7 +44242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A728">
         <v>6017</v>
       </c>
@@ -44298,7 +44298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A729">
         <v>6018</v>
       </c>
@@ -44354,7 +44354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A730">
         <v>6019</v>
       </c>
@@ -44410,7 +44410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A731">
         <v>6020</v>
       </c>
@@ -44466,7 +44466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A732">
         <v>6100</v>
       </c>
@@ -44522,7 +44522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A733">
         <v>6300</v>
       </c>
@@ -44578,7 +44578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A734">
         <v>6301</v>
       </c>
@@ -44634,7 +44634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A735">
         <v>6302</v>
       </c>
@@ -44690,7 +44690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A736">
         <v>6304</v>
       </c>
@@ -44746,7 +44746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A737">
         <v>6307</v>
       </c>
@@ -44802,7 +44802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A738">
         <v>6308</v>
       </c>
@@ -44858,7 +44858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A739">
         <v>6312</v>
       </c>
@@ -44914,7 +44914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A740">
         <v>6315</v>
       </c>
@@ -44970,7 +44970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A741">
         <v>6316</v>
       </c>
@@ -45023,7 +45023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A742">
         <v>6317</v>
       </c>
@@ -45076,7 +45076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A743">
         <v>6318</v>
       </c>
@@ -45129,7 +45129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A744">
         <v>6319</v>
       </c>
@@ -45182,7 +45182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A745">
         <v>6320</v>
       </c>
@@ -45235,7 +45235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A746">
         <v>9006</v>
       </c>
@@ -45288,7 +45288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A747">
         <v>9007</v>
       </c>
@@ -45341,7 +45341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A748">
         <v>9008</v>
       </c>
@@ -45394,7 +45394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A749">
         <v>9009</v>
       </c>
@@ -45447,7 +45447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A750">
         <v>9010</v>
       </c>
@@ -45500,7 +45500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A751">
         <v>9011</v>
       </c>
@@ -45553,7 +45553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A752">
         <v>9012</v>
       </c>
@@ -45606,7 +45606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A753">
         <v>9013</v>
       </c>
@@ -45659,7 +45659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A754">
         <v>9014</v>
       </c>
@@ -45712,7 +45712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A755">
         <v>9015</v>
       </c>
@@ -45765,7 +45765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A756">
         <v>9016</v>
       </c>
@@ -45818,7 +45818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A757">
         <v>9017</v>
       </c>
@@ -45871,7 +45871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A758">
         <v>9018</v>
       </c>
@@ -45924,7 +45924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A759">
         <v>9019</v>
       </c>
@@ -45977,7 +45977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A760">
         <v>9020</v>
       </c>
@@ -46030,7 +46030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A761">
         <v>9021</v>
       </c>
@@ -46083,7 +46083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A762">
         <v>9022</v>
       </c>
@@ -46136,7 +46136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A763">
         <v>9023</v>
       </c>
@@ -46189,7 +46189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A764">
         <v>9024</v>
       </c>
@@ -46242,7 +46242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A765">
         <v>9025</v>
       </c>
@@ -46295,7 +46295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A766">
         <v>9026</v>
       </c>
@@ -46348,7 +46348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A767">
         <v>9027</v>
       </c>
@@ -46401,7 +46401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A768">
         <v>9028</v>
       </c>
@@ -46454,7 +46454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A769">
         <v>9029</v>
       </c>
@@ -46507,7 +46507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A770">
         <v>9030</v>
       </c>
@@ -46560,7 +46560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A771">
         <v>9031</v>
       </c>
@@ -46613,7 +46613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A772">
         <v>9032</v>
       </c>
@@ -46666,7 +46666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A773">
         <v>9033</v>
       </c>
@@ -46719,7 +46719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A774">
         <v>9034</v>
       </c>
@@ -46772,7 +46772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A775">
         <v>9035</v>
       </c>
@@ -46825,7 +46825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A776">
         <v>9036</v>
       </c>
@@ -46878,7 +46878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A777">
         <v>9037</v>
       </c>
@@ -46931,7 +46931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A778">
         <v>9038</v>
       </c>
@@ -46984,7 +46984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A779">
         <v>9039</v>
       </c>
@@ -47037,7 +47037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A780">
         <v>9040</v>
       </c>
@@ -47090,7 +47090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A781">
         <v>9041</v>
       </c>
@@ -47143,7 +47143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A782">
         <v>9042</v>
       </c>
@@ -47196,7 +47196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A783">
         <v>9106</v>
       </c>
@@ -47249,7 +47249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A784">
         <v>9107</v>
       </c>
@@ -47302,7 +47302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A785">
         <v>9108</v>
       </c>
@@ -47355,7 +47355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A786">
         <v>9109</v>
       </c>
@@ -47408,7 +47408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A787">
         <v>9110</v>
       </c>
@@ -47461,7 +47461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A788">
         <v>9111</v>
       </c>
@@ -47514,7 +47514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A789">
         <v>9112</v>
       </c>
@@ -47567,7 +47567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A790">
         <v>9113</v>
       </c>
@@ -47620,7 +47620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A791">
         <v>9114</v>
       </c>
@@ -47673,7 +47673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A792">
         <v>9115</v>
       </c>
@@ -47726,7 +47726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A793">
         <v>9116</v>
       </c>
@@ -47779,7 +47779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A794">
         <v>9117</v>
       </c>
@@ -47832,7 +47832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A795">
         <v>9118</v>
       </c>
@@ -47885,7 +47885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A796">
         <v>9119</v>
       </c>
@@ -47938,7 +47938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A797">
         <v>9120</v>
       </c>
@@ -47991,7 +47991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A798">
         <v>9121</v>
       </c>
@@ -48044,7 +48044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A799">
         <v>9122</v>
       </c>
@@ -48097,7 +48097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A800">
         <v>9123</v>
       </c>
@@ -48150,7 +48150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A801">
         <v>9124</v>
       </c>
@@ -48203,7 +48203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A802">
         <v>9125</v>
       </c>
@@ -48256,7 +48256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A803">
         <v>9126</v>
       </c>
@@ -48309,7 +48309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A804">
         <v>9127</v>
       </c>
@@ -48362,7 +48362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A805">
         <v>9128</v>
       </c>
@@ -48415,7 +48415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A806">
         <v>9129</v>
       </c>
@@ -48468,7 +48468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A807">
         <v>9130</v>
       </c>
@@ -48521,7 +48521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A808">
         <v>9131</v>
       </c>
@@ -48574,7 +48574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A809">
         <v>9132</v>
       </c>
@@ -48627,7 +48627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A810">
         <v>9133</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A811">
         <v>9134</v>
       </c>
@@ -48733,7 +48733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A812">
         <v>9135</v>
       </c>
@@ -48786,7 +48786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A813">
         <v>9136</v>
       </c>
@@ -48839,7 +48839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A814">
         <v>9137</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A815">
         <v>9138</v>
       </c>
@@ -48945,7 +48945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A816">
         <v>9139</v>
       </c>
@@ -48998,7 +48998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A817">
         <v>9140</v>
       </c>
@@ -49051,7 +49051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A818">
         <v>9141</v>
       </c>
@@ -49104,7 +49104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A819">
         <v>9142</v>
       </c>
@@ -49157,7 +49157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A820">
         <v>9143</v>
       </c>
@@ -49210,7 +49210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A821">
         <v>9144</v>
       </c>
@@ -49263,7 +49263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A822">
         <v>9145</v>
       </c>
@@ -49316,7 +49316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A823">
         <v>9146</v>
       </c>
@@ -49369,7 +49369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A824">
         <v>9147</v>
       </c>
@@ -49422,7 +49422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A825">
         <v>9148</v>
       </c>
@@ -49475,7 +49475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A826">
         <v>9149</v>
       </c>
@@ -49528,7 +49528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A827">
         <v>9150</v>
       </c>
@@ -49581,7 +49581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A828">
         <v>9151</v>
       </c>
@@ -49634,7 +49634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A829">
         <v>9152</v>
       </c>
@@ -49687,7 +49687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A830">
         <v>9153</v>
       </c>
@@ -49740,7 +49740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A831">
         <v>9154</v>
       </c>
@@ -49793,7 +49793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A832">
         <v>9155</v>
       </c>
@@ -49846,7 +49846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A833">
         <v>9156</v>
       </c>
@@ -49899,7 +49899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A834">
         <v>9157</v>
       </c>
@@ -49952,7 +49952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A835">
         <v>9158</v>
       </c>
@@ -50005,7 +50005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A836">
         <v>9159</v>
       </c>
@@ -50058,7 +50058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A837">
         <v>9160</v>
       </c>
@@ -50111,7 +50111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A838">
         <v>9161</v>
       </c>
@@ -50164,7 +50164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A839">
         <v>9162</v>
       </c>
@@ -50217,7 +50217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A840">
         <v>9163</v>
       </c>
@@ -50270,7 +50270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A841">
         <v>9164</v>
       </c>
@@ -50323,7 +50323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A842">
         <v>9165</v>
       </c>
@@ -50376,7 +50376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A843">
         <v>9166</v>
       </c>
@@ -50429,7 +50429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A844">
         <v>9167</v>
       </c>
@@ -50482,7 +50482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A845">
         <v>9168</v>
       </c>
@@ -50535,7 +50535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A846">
         <v>9169</v>
       </c>
@@ -50588,7 +50588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A847">
         <v>9170</v>
       </c>
@@ -50644,7 +50644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A848">
         <v>9171</v>
       </c>
@@ -50700,7 +50700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A849">
         <v>9172</v>
       </c>
@@ -50756,7 +50756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A850">
         <v>9173</v>
       </c>
@@ -50812,7 +50812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A851">
         <v>9174</v>
       </c>
@@ -50868,7 +50868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A852">
         <v>9175</v>
       </c>
@@ -50924,7 +50924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A853">
         <v>9176</v>
       </c>
@@ -50980,7 +50980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A854">
         <v>9177</v>
       </c>
@@ -51033,7 +51033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A855">
         <v>9178</v>
       </c>
@@ -51086,7 +51086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A856">
         <v>9179</v>
       </c>
@@ -51139,7 +51139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A857">
         <v>9180</v>
       </c>
@@ -51192,7 +51192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A858">
         <v>9284</v>
       </c>
@@ -51248,7 +51248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A859">
         <v>9285</v>
       </c>
@@ -51304,7 +51304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A860">
         <v>9286</v>
       </c>
@@ -51360,7 +51360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A861">
         <v>9287</v>
       </c>
@@ -51416,7 +51416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A862">
         <v>9298</v>
       </c>
@@ -51472,7 +51472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A863">
         <v>9560</v>
       </c>
@@ -51528,7 +51528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A864" s="2">
         <v>9561</v>
       </c>
@@ -51542,7 +51542,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A865">
         <v>21919</v>
       </c>
@@ -51598,7 +51598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A866">
         <v>21928</v>
       </c>
@@ -51651,7 +51651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A867">
         <v>21934</v>
       </c>
@@ -51707,7 +51707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A868">
         <v>21949</v>
       </c>
@@ -51763,7 +51763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A869">
         <v>22101</v>
       </c>
@@ -51819,7 +51819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A870">
         <v>22102</v>
       </c>
@@ -51875,7 +51875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A871">
         <v>22201</v>
       </c>
@@ -51931,7 +51931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A872">
         <v>25001</v>
       </c>
@@ -51987,7 +51987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A873">
         <v>25002</v>
       </c>
@@ -52043,7 +52043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A874">
         <v>30010</v>
       </c>
@@ -52099,7 +52099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A875">
         <v>30020</v>
       </c>
@@ -52152,7 +52152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A876">
         <v>30030</v>
       </c>
@@ -52205,7 +52205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A877">
         <v>30040</v>
       </c>
@@ -52258,7 +52258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A878">
         <v>30050</v>
       </c>
@@ -52311,7 +52311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A879">
         <v>30060</v>
       </c>
@@ -52364,7 +52364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A880">
         <v>30070</v>
       </c>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A89E7-5155-4AE0-9750-1AA460F59099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E776D-A641-4A6A-95B4-5E5469CAE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1815" windowWidth="21600" windowHeight="10905" activeTab="3" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
@@ -3660,7 +3660,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3723,7 +3723,7 @@
         <v>709</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3743,7 +3743,7 @@
         <v>710</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>62</v>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E776D-A641-4A6A-95B4-5E5469CAE566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8C9A5-79AD-4A10-B3F8-E63B27F8DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1815" windowWidth="21600" windowHeight="10905" activeTab="3" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
@@ -3660,11 +3660,12 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.796875" customWidth="1"/>
     <col min="6" max="6" width="23.796875" customWidth="1"/>
   </cols>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A8C9A5-79AD-4A10-B3F8-E63B27F8DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1236517-1C77-4018-801A-660F0025F24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1815" windowWidth="21600" windowHeight="10905" activeTab="3" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="20148" windowHeight="12000" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="713">
   <si>
     <t>Tag</t>
   </si>
@@ -2177,6 +2177,9 @@
   </si>
   <si>
     <t>ile_aux_pies_debit</t>
+  </si>
+  <si>
+    <t>guenrouet</t>
   </si>
 </sst>
 </file>
@@ -3231,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB08D0E-26FC-4C0D-941D-AB587AB8D3DE}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>614</v>
+        <v>712</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3659,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ABF0A0-878B-4426-BEED-9AC76AA007A9}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1236517-1C77-4018-801A-660F0025F24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF263E-54CC-45CA-ACBC-5A97E8A0B5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="20148" windowHeight="12000" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="450" yWindow="435" windowWidth="20145" windowHeight="12000" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="715">
   <si>
     <t>Tag</t>
   </si>
@@ -2071,9 +2071,6 @@
     <t>isac_amont1</t>
   </si>
   <si>
-    <t>selected</t>
-  </si>
-  <si>
     <t>pluvio_barrage_10min</t>
   </si>
   <si>
@@ -2180,13 +2177,22 @@
   </si>
   <si>
     <t>guenrouet</t>
+  </si>
+  <si>
+    <t>isac</t>
+  </si>
+  <si>
+    <t>pluvio</t>
+  </si>
+  <si>
+    <t>tagstation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2204,6 +2210,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2229,10 +2241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2539,7 +2552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2932,7 +2945,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -2952,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -2992,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -3143,7 +3156,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B30">
         <v>3102</v>
@@ -3152,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -3232,10 +3245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB08D0E-26FC-4C0D-941D-AB587AB8D3DE}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3245,13 +3258,16 @@
     <col min="6" max="6" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
       <c r="B1" t="s">
         <v>660</v>
       </c>
+      <c r="C1" t="s">
+        <v>714</v>
+      </c>
       <c r="D1" t="s">
         <v>661</v>
       </c>
@@ -3262,10 +3278,13 @@
         <v>663</v>
       </c>
       <c r="G1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+        <v>712</v>
+      </c>
+      <c r="H1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -3284,13 +3303,16 @@
       <c r="F2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3307,8 +3329,14 @@
       <c r="F3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -3327,8 +3355,14 @@
       <c r="F4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>597</v>
       </c>
@@ -3347,8 +3381,14 @@
       <c r="F5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>616</v>
       </c>
@@ -3359,7 +3399,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -3367,8 +3407,14 @@
       <c r="F6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>618</v>
       </c>
@@ -3379,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -3387,91 +3433,118 @@
       <c r="F7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>677</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2532</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>678</v>
       </c>
-      <c r="B8" s="2">
-        <v>2532</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="3">
+        <v>2533</v>
+      </c>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>679</v>
       </c>
-      <c r="B9" s="2">
-        <v>2533</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>680</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2530</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>677</v>
-      </c>
-      <c r="B11" s="2">
+        <v>676</v>
+      </c>
+      <c r="B11" s="3">
         <v>2531</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -3484,14 +3557,20 @@
       <c r="D12" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>673</v>
       </c>
@@ -3504,21 +3583,24 @@
       <c r="D13" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>664</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>674</v>
       </c>
@@ -3531,21 +3613,24 @@
       <c r="D14" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>664</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>675</v>
       </c>
@@ -3558,23 +3643,26 @@
       <c r="D15" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>664</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B16" s="1">
         <v>380</v>
@@ -3583,18 +3671,24 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="F16" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B17" s="1">
         <v>381</v>
@@ -3603,18 +3697,24 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="F17" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B18" s="1">
         <v>334</v>
@@ -3623,18 +3723,24 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B19" s="1">
         <v>358</v>
@@ -3643,13 +3749,19 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>664</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3695,7 +3807,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B2">
         <v>3100</v>
@@ -3704,7 +3816,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E2" t="s">
         <v>303</v>
@@ -3715,7 +3827,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B3">
         <v>1528</v>
@@ -3724,7 +3836,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E3" t="s">
         <v>303</v>
@@ -3735,7 +3847,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B4">
         <v>1565</v>
@@ -3744,7 +3856,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
         <v>303</v>
@@ -3755,7 +3867,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B5">
         <v>1900</v>
@@ -3764,7 +3876,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E5" t="s">
         <v>303</v>
@@ -3775,7 +3887,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B6">
         <v>2515</v>
@@ -3795,7 +3907,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B7">
         <v>2523</v>
@@ -3815,7 +3927,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -3824,7 +3936,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
         <v>303</v>
@@ -3835,13 +3947,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B9">
         <v>40001</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
@@ -3849,13 +3961,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B10">
         <v>40002</v>
       </c>
       <c r="D10" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E10" t="s">
         <v>303</v>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EF263E-54CC-45CA-ACBC-5A97E8A0B5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9543031-DB9F-405E-9E1F-0E42079C1A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="435" windowWidth="20145" windowHeight="12000" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="-20268" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="720">
   <si>
     <t>Tag</t>
   </si>
@@ -2041,21 +2038,12 @@
     <t>Pluvio Isac 10 min</t>
   </si>
   <si>
-    <t>Pluvio Isac jour</t>
-  </si>
-  <si>
-    <t>Pluvio barrage</t>
-  </si>
-  <si>
     <t>b_barrage_pluvio</t>
   </si>
   <si>
     <t>b_isac_pluvio</t>
   </si>
   <si>
-    <t>Pluvio barrage jour</t>
-  </si>
-  <si>
     <t>Trévelo amont</t>
   </si>
   <si>
@@ -2116,9 +2104,6 @@
     <t>mm</t>
   </si>
   <si>
-    <t>1/100h</t>
-  </si>
-  <si>
     <t>pont_de_cran_debit</t>
   </si>
   <si>
@@ -2186,6 +2171,33 @@
   </si>
   <si>
     <t>tagstation</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Pluvio barrage 10 min</t>
+  </si>
+  <si>
+    <t>Pluvio barrage, données à j-2 rapportées à 4:10</t>
+  </si>
+  <si>
+    <t>Pluvio Isac veille, pas toujours égales la somme des valeurs pluvio</t>
+  </si>
+  <si>
+    <t>Trévelo marais</t>
+  </si>
+  <si>
+    <t>B_TREVELO_NIVEAUMARAIS</t>
+  </si>
+  <si>
+    <t>Isac niveau marais</t>
+  </si>
+  <si>
+    <t>b_isac_niveaumarais</t>
+  </si>
+  <si>
+    <t>isac_niveau_marais</t>
   </si>
 </sst>
 </file>
@@ -2552,7 +2564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2562,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA739E-2EAF-4ABF-84DA-7ADC6778B8E6}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2945,7 +2957,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -2965,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -3005,7 +3017,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -3156,7 +3168,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B30">
         <v>3102</v>
@@ -3165,7 +3177,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -3188,7 +3200,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3204,7 +3216,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -3236,6 +3248,21 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>608</v>
+      </c>
+      <c r="B3">
+        <v>430</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -3245,16 +3272,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB08D0E-26FC-4C0D-941D-AB587AB8D3DE}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.53125" customWidth="1"/>
-    <col min="4" max="4" width="21.53125" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="40.73046875" customWidth="1"/>
     <col min="6" max="6" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3266,7 +3294,7 @@
         <v>660</v>
       </c>
       <c r="C1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D1" t="s">
         <v>661</v>
@@ -3278,10 +3306,10 @@
         <v>663</v>
       </c>
       <c r="G1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -3312,7 +3340,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3382,7 +3410,7 @@
         <v>99</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3390,74 +3418,74 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B6">
-        <v>700</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>688</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>674</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2532</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B7">
-        <v>900</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+        <v>675</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2533</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B8" s="3">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -3468,94 +3496,98 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B9" s="3">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>679</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2530</v>
-      </c>
-      <c r="C10" s="3">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
+      </c>
+      <c r="B10" s="1">
+        <v>370</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>664</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>676</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2531</v>
-      </c>
-      <c r="C11" s="3">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>667</v>
+        <v>670</v>
+      </c>
+      <c r="B11" s="1">
+        <v>371</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>647</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>664</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B12" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -3569,19 +3601,23 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B13" s="1">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -3590,7 +3626,7 @@
         <v>664</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3602,79 +3638,71 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B14" s="1">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>19</v>
+        <v>711</v>
       </c>
       <c r="F14" t="s">
         <v>664</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B15" s="1">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>711</v>
       </c>
       <c r="F15" t="s">
         <v>664</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B16" s="1">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>691</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>664</v>
@@ -3688,19 +3716,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B17" s="1">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>691</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>664</v>
@@ -3714,53 +3742,27 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="B18" s="1">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>683</v>
-      </c>
-      <c r="B19" s="1">
-        <v>358</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" t="s">
-        <v>664</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3809,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B2">
         <v>3100</v>
@@ -3816,7 +3818,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E2" t="s">
         <v>303</v>
@@ -3827,7 +3829,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B3">
         <v>1528</v>
@@ -3836,7 +3838,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E3" t="s">
         <v>303</v>
@@ -3847,7 +3849,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B4">
         <v>1565</v>
@@ -3856,7 +3858,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E4" t="s">
         <v>303</v>
@@ -3867,7 +3869,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B5">
         <v>1900</v>
@@ -3876,7 +3878,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E5" t="s">
         <v>303</v>
@@ -3887,7 +3889,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B6">
         <v>2515</v>
@@ -3907,7 +3909,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B7">
         <v>2523</v>
@@ -3927,7 +3929,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -3936,7 +3938,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E8" t="s">
         <v>303</v>
@@ -3947,13 +3949,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B9">
         <v>40001</v>
       </c>
       <c r="D9" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
@@ -3961,13 +3963,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B10">
         <v>40002</v>
       </c>
       <c r="D10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E10" t="s">
         <v>303</v>
@@ -4170,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3759C77C-4993-4FB9-8950-D5421D09C285}">
   <dimension ref="A1:R880"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9543031-DB9F-405E-9E1F-0E42079C1A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2DF8C-8A63-4CE7-AA29-9B48FD935681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20268" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AEBFFEB9-A9F0-4DF4-999E-C7FCE9363574}</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AEBFFEB9-A9F0-4DF4-999E-C7FCE9363574}">
+      <text>
+        <t>[Commentaire à thread]
+Votre version d’Excel vous permet de lire ce commentaire à thread. Toutefois, les modifications qui y sont apportées seront supprimées si le fichier est ouvert dans une version plus récente d’Excel. En savoir plus : https://go.microsoft.com/fwlink/?linkid=870924
+Commentaire :
+    Niveau nécessaire dans le nom pour extraire les variables de niveau</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="724">
   <si>
     <t>Tag</t>
   </si>
@@ -1981,18 +1999,6 @@
     <t>Isac à Guenrouët</t>
   </si>
   <si>
-    <t>Isac amont Thénot (2)</t>
-  </si>
-  <si>
-    <t>Vilaine au Thénot (Isac 1)</t>
-  </si>
-  <si>
-    <t>Vilaine au Thénot (Isac 2)</t>
-  </si>
-  <si>
-    <t>Isac amont Thénot (1)</t>
-  </si>
-  <si>
     <t>Siphon amont barrage</t>
   </si>
   <si>
@@ -2191,20 +2197,44 @@
     <t>B_TREVELO_NIVEAUMARAIS</t>
   </si>
   <si>
-    <t>Isac niveau marais</t>
-  </si>
-  <si>
     <t>b_isac_niveaumarais</t>
   </si>
   <si>
     <t>isac_niveau_marais</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine au Pont de Cran</t>
+  </si>
+  <si>
+    <t>Niveau Isac à Guenrouët</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine à l'écluse de Redon</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine à Arzal</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine au Thénot (Isac 1)</t>
+  </si>
+  <si>
+    <t>Niveau Isac amont Thénot (2)</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine au Thénot (Isac 2)</t>
+  </si>
+  <si>
+    <t>Niveau Isac amont Thénot (1)</t>
+  </si>
+  <si>
+    <t>Niveau Isac niveau marais (Le Clandre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2231,6 +2261,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2273,6 +2309,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Cédric Briand" id="{F6245807-73B0-4AEC-BBC2-C32DC329DE66}" userId="S::cedric.briand@eaux-et-vilaine.bzh::b39505e1-a593-441f-a4cc-2844db3988fa" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2570,6 +2612,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D1" dT="2023-01-30T08:33:49.19" personId="{F6245807-73B0-4AEC-BBC2-C32DC329DE66}" id="{AEBFFEB9-A9F0-4DF4-999E-C7FCE9363574}">
+    <text>Niveau nécessaire dans le nom pour extraire les variables de niveau</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CA739E-2EAF-4ABF-84DA-7ADC6778B8E6}">
   <dimension ref="A1:F30"/>
@@ -2578,15 +2628,15 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1328125" customWidth="1"/>
-    <col min="6" max="6" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -2606,7 +2656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -2626,7 +2676,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -2646,7 +2696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -2666,7 +2716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -2686,7 +2736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>609</v>
       </c>
@@ -2706,7 +2756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>610</v>
       </c>
@@ -2726,7 +2776,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -2746,7 +2796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>611</v>
       </c>
@@ -2766,7 +2816,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>601</v>
       </c>
@@ -2786,7 +2836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>602</v>
       </c>
@@ -2806,7 +2856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>603</v>
       </c>
@@ -2826,7 +2876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>604</v>
       </c>
@@ -2846,7 +2896,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>612</v>
       </c>
@@ -2866,7 +2916,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>614</v>
       </c>
@@ -2886,7 +2936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>615</v>
       </c>
@@ -2906,7 +2956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>605</v>
       </c>
@@ -2926,7 +2976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>606</v>
       </c>
@@ -2946,7 +2996,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -2957,7 +3007,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -2966,7 +3016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>616</v>
       </c>
@@ -2977,7 +3027,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
@@ -2986,7 +3036,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>617</v>
       </c>
@@ -3006,7 +3056,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>618</v>
       </c>
@@ -3017,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -3026,7 +3076,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>619</v>
       </c>
@@ -3037,7 +3087,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
@@ -3046,7 +3096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>620</v>
       </c>
@@ -3057,7 +3107,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
@@ -3066,7 +3116,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>622</v>
       </c>
@@ -3077,7 +3127,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -3086,7 +3136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>621</v>
       </c>
@@ -3097,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -3106,7 +3156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>623</v>
       </c>
@@ -3126,7 +3176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>624</v>
       </c>
@@ -3146,7 +3196,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>625</v>
       </c>
@@ -3157,7 +3207,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E29" t="s">
         <v>98</v>
@@ -3166,9 +3216,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B30">
         <v>3102</v>
@@ -3177,7 +3227,7 @@
         <v>31</v>
       </c>
       <c r="D30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E30" t="s">
         <v>98</v>
@@ -3203,9 +3253,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>608</v>
       </c>
@@ -3216,7 +3266,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
@@ -3225,7 +3275,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -3245,7 +3295,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>608</v>
       </c>
@@ -3256,13 +3306,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -3271,48 +3321,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB08D0E-26FC-4C0D-941D-AB587AB8D3DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB08D0E-26FC-4C0D-941D-AB587AB8D3DE}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.53125" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" customWidth="1"/>
-    <col min="4" max="4" width="40.73046875" customWidth="1"/>
-    <col min="6" max="6" width="24.1328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>596</v>
       </c>
       <c r="B1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -3323,7 +3373,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -3338,9 +3388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -3349,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -3364,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -3375,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -3390,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>597</v>
       </c>
@@ -3401,7 +3451,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>626</v>
+        <v>718</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -3416,9 +3466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B6" s="3">
         <v>2532</v>
@@ -3427,13 +3477,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -3442,9 +3492,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B7" s="3">
         <v>2533</v>
@@ -3453,13 +3503,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -3468,9 +3518,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B8" s="3">
         <v>2530</v>
@@ -3479,13 +3529,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -3494,9 +3544,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B9" s="3">
         <v>2531</v>
@@ -3505,13 +3555,13 @@
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -3520,9 +3570,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B10" s="1">
         <v>370</v>
@@ -3531,13 +3581,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3546,9 +3596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B11" s="1">
         <v>371</v>
@@ -3557,13 +3607,13 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -3576,9 +3626,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B12" s="1">
         <v>372</v>
@@ -3587,13 +3637,13 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>649</v>
+        <v>721</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3606,9 +3656,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B13" s="1">
         <v>369</v>
@@ -3617,13 +3667,13 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>650</v>
+        <v>722</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -3636,9 +3686,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B14" s="1">
         <v>380</v>
@@ -3647,13 +3697,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F14" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -3662,9 +3712,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B15" s="1">
         <v>381</v>
@@ -3673,13 +3723,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F15" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -3688,9 +3738,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B16" s="1">
         <v>334</v>
@@ -3699,13 +3749,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -3714,9 +3764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B17" s="1">
         <v>358</v>
@@ -3725,13 +3775,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -3740,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B18" s="1">
         <v>384</v>
@@ -3751,13 +3801,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -3769,6 +3819,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3780,14 +3831,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3807,9 +3858,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B2">
         <v>3100</v>
@@ -3818,7 +3869,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E2" t="s">
         <v>303</v>
@@ -3827,9 +3878,9 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B3">
         <v>1528</v>
@@ -3838,7 +3889,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E3" t="s">
         <v>303</v>
@@ -3847,9 +3898,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B4">
         <v>1565</v>
@@ -3858,7 +3909,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
         <v>303</v>
@@ -3867,9 +3918,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B5">
         <v>1900</v>
@@ -3878,7 +3929,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E5" t="s">
         <v>303</v>
@@ -3887,9 +3938,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B6">
         <v>2515</v>
@@ -3907,9 +3958,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B7">
         <v>2523</v>
@@ -3927,9 +3978,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B8">
         <v>3000</v>
@@ -3938,7 +3989,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E8" t="s">
         <v>303</v>
@@ -3947,29 +3998,29 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B9">
         <v>40001</v>
       </c>
       <c r="D9" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B10">
         <v>40002</v>
       </c>
       <c r="D10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E10" t="s">
         <v>303</v>
@@ -3988,12 +4039,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2536</v>
       </c>
@@ -4010,7 +4061,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2537</v>
       </c>
@@ -4027,7 +4078,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2538</v>
       </c>
@@ -4044,7 +4095,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2539</v>
       </c>
@@ -4061,7 +4112,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2540</v>
       </c>
@@ -4078,7 +4129,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2550</v>
       </c>
@@ -4095,7 +4146,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2551</v>
       </c>
@@ -4112,7 +4163,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2552</v>
       </c>
@@ -4129,7 +4180,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2553</v>
       </c>
@@ -4146,7 +4197,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2554</v>
       </c>
@@ -4176,13 +4227,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32.1328125" customWidth="1"/>
-    <col min="10" max="10" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4294,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4350,7 +4401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>206</v>
       </c>
@@ -4406,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>207</v>
       </c>
@@ -4462,7 +4513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>208</v>
       </c>
@@ -4518,7 +4569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>209</v>
       </c>
@@ -4574,7 +4625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>210</v>
       </c>
@@ -4630,7 +4681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>211</v>
       </c>
@@ -4686,7 +4737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>212</v>
       </c>
@@ -4742,7 +4793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>213</v>
       </c>
@@ -4798,7 +4849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>214</v>
       </c>
@@ -4854,7 +4905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>215</v>
       </c>
@@ -4910,7 +4961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>216</v>
       </c>
@@ -4966,7 +5017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>217</v>
       </c>
@@ -5022,7 +5073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>218</v>
       </c>
@@ -5078,7 +5129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>334</v>
       </c>
@@ -5134,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>358</v>
       </c>
@@ -5190,7 +5241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>369</v>
       </c>
@@ -5246,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>370</v>
       </c>
@@ -5302,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>371</v>
       </c>
@@ -5358,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>372</v>
       </c>
@@ -5414,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>400</v>
       </c>
@@ -5470,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>406</v>
       </c>
@@ -5526,7 +5577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>417</v>
       </c>
@@ -5582,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>418</v>
       </c>
@@ -5638,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>419</v>
       </c>
@@ -5694,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>429</v>
       </c>
@@ -5750,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5806,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>600</v>
       </c>
@@ -5862,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>700</v>
       </c>
@@ -5918,7 +5969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>800</v>
       </c>
@@ -5974,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>900</v>
       </c>
@@ -6030,7 +6081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -6086,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1005</v>
       </c>
@@ -6139,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1006</v>
       </c>
@@ -6192,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1007</v>
       </c>
@@ -6245,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1008</v>
       </c>
@@ -6298,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1009</v>
       </c>
@@ -6351,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1010</v>
       </c>
@@ -6404,7 +6455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1012</v>
       </c>
@@ -6460,7 +6511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1013</v>
       </c>
@@ -6516,7 +6567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1014</v>
       </c>
@@ -6572,7 +6623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1015</v>
       </c>
@@ -6628,7 +6679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1016</v>
       </c>
@@ -6684,7 +6735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1017</v>
       </c>
@@ -6740,7 +6791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1018</v>
       </c>
@@ -6796,7 +6847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1019</v>
       </c>
@@ -6852,7 +6903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1020</v>
       </c>
@@ -6908,7 +6959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1021</v>
       </c>
@@ -6964,7 +7015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1022</v>
       </c>
@@ -7020,7 +7071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1023</v>
       </c>
@@ -7076,7 +7127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1024</v>
       </c>
@@ -7132,7 +7183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1025</v>
       </c>
@@ -7188,7 +7239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1026</v>
       </c>
@@ -7244,7 +7295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1027</v>
       </c>
@@ -7300,7 +7351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1028</v>
       </c>
@@ -7356,7 +7407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1029</v>
       </c>
@@ -7412,7 +7463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1030</v>
       </c>
@@ -7468,7 +7519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1031</v>
       </c>
@@ -7524,7 +7575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1032</v>
       </c>
@@ -7580,7 +7631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1033</v>
       </c>
@@ -7636,7 +7687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1034</v>
       </c>
@@ -7692,7 +7743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1035</v>
       </c>
@@ -7748,7 +7799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1036</v>
       </c>
@@ -7804,7 +7855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1100</v>
       </c>
@@ -7860,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1200</v>
       </c>
@@ -7916,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1300</v>
       </c>
@@ -7972,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1400</v>
       </c>
@@ -8028,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1519</v>
       </c>
@@ -8081,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1520</v>
       </c>
@@ -8134,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1523</v>
       </c>
@@ -8187,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1524</v>
       </c>
@@ -8240,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1525</v>
       </c>
@@ -8296,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1526</v>
       </c>
@@ -8352,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1527</v>
       </c>
@@ -8408,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1528</v>
       </c>
@@ -8464,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1565</v>
       </c>
@@ -8520,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1585</v>
       </c>
@@ -8573,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1586</v>
       </c>
@@ -8626,7 +8677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1587</v>
       </c>
@@ -8682,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1588</v>
       </c>
@@ -8738,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1589</v>
       </c>
@@ -8794,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1600</v>
       </c>
@@ -8850,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1700</v>
       </c>
@@ -8906,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1800</v>
       </c>
@@ -8962,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1900</v>
       </c>
@@ -9018,7 +9069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1901</v>
       </c>
@@ -9071,7 +9122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -9127,7 +9178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1903</v>
       </c>
@@ -9180,7 +9231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1904</v>
       </c>
@@ -9233,7 +9284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1905</v>
       </c>
@@ -9286,7 +9337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -9339,7 +9390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -9392,7 +9443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1908</v>
       </c>
@@ -9445,7 +9496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -9501,7 +9552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1910</v>
       </c>
@@ -9554,7 +9605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -9607,7 +9658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -9660,7 +9711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -9716,7 +9767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -9772,7 +9823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1918</v>
       </c>
@@ -9828,7 +9879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -9884,7 +9935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1920</v>
       </c>
@@ -9940,7 +9991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1921</v>
       </c>
@@ -9996,7 +10047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1922</v>
       </c>
@@ -10052,7 +10103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1923</v>
       </c>
@@ -10108,7 +10159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1924</v>
       </c>
@@ -10164,7 +10215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1925</v>
       </c>
@@ -10220,7 +10271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1926</v>
       </c>
@@ -10276,7 +10327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1927</v>
       </c>
@@ -10332,7 +10383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1928</v>
       </c>
@@ -10388,7 +10439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1929</v>
       </c>
@@ -10444,7 +10495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1930</v>
       </c>
@@ -10500,7 +10551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2000</v>
       </c>
@@ -10556,7 +10607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2100</v>
       </c>
@@ -10612,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2500</v>
       </c>
@@ -10659,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2501</v>
       </c>
@@ -10706,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2502</v>
       </c>
@@ -10753,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2503</v>
       </c>
@@ -10800,7 +10851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2504</v>
       </c>
@@ -10847,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2505</v>
       </c>
@@ -10894,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2507</v>
       </c>
@@ -10950,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2508</v>
       </c>
@@ -11006,7 +11057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2509</v>
       </c>
@@ -11062,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2510</v>
       </c>
@@ -11118,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2511</v>
       </c>
@@ -11174,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2512</v>
       </c>
@@ -11230,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2513</v>
       </c>
@@ -11286,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2515</v>
       </c>
@@ -11342,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2518</v>
       </c>
@@ -11398,7 +11449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2519</v>
       </c>
@@ -11454,7 +11505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2520</v>
       </c>
@@ -11510,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2521</v>
       </c>
@@ -11566,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2522</v>
       </c>
@@ -11622,7 +11673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2523</v>
       </c>
@@ -11678,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2524</v>
       </c>
@@ -11734,7 +11785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2525</v>
       </c>
@@ -11790,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2526</v>
       </c>
@@ -11846,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2534</v>
       </c>
@@ -11902,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2535</v>
       </c>
@@ -11958,7 +12009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2536</v>
       </c>
@@ -12014,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2537</v>
       </c>
@@ -12070,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2538</v>
       </c>
@@ -12126,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2539</v>
       </c>
@@ -12182,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2540</v>
       </c>
@@ -12238,7 +12289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2550</v>
       </c>
@@ -12294,7 +12345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2551</v>
       </c>
@@ -12350,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2552</v>
       </c>
@@ -12406,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2553</v>
       </c>
@@ -12462,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2554</v>
       </c>
@@ -12518,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2555</v>
       </c>
@@ -12574,7 +12625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2556</v>
       </c>
@@ -12630,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2557</v>
       </c>
@@ -12686,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2558</v>
       </c>
@@ -12742,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2559</v>
       </c>
@@ -12798,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2560</v>
       </c>
@@ -12854,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2562</v>
       </c>
@@ -12907,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2563</v>
       </c>
@@ -12960,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2564</v>
       </c>
@@ -13013,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2600</v>
       </c>
@@ -13069,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2700</v>
       </c>
@@ -13125,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2900</v>
       </c>
@@ -13181,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>3000</v>
       </c>
@@ -13237,7 +13288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>3005</v>
       </c>
@@ -13293,7 +13344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>3008</v>
       </c>
@@ -13349,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>3009</v>
       </c>
@@ -13405,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>3010</v>
       </c>
@@ -13461,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>3011</v>
       </c>
@@ -13517,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>3012</v>
       </c>
@@ -13573,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>3013</v>
       </c>
@@ -13629,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>3014</v>
       </c>
@@ -13685,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>3015</v>
       </c>
@@ -13741,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>3016</v>
       </c>
@@ -13797,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>3017</v>
       </c>
@@ -13853,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3018</v>
       </c>
@@ -13909,7 +13960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>3019</v>
       </c>
@@ -13965,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>3020</v>
       </c>
@@ -14021,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>3021</v>
       </c>
@@ -14077,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>3022</v>
       </c>
@@ -14133,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>3023</v>
       </c>
@@ -14189,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3024</v>
       </c>
@@ -14245,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>3025</v>
       </c>
@@ -14301,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>3026</v>
       </c>
@@ -14357,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>3027</v>
       </c>
@@ -14413,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>3100</v>
       </c>
@@ -14469,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>3102</v>
       </c>
@@ -14525,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>3105</v>
       </c>
@@ -14581,7 +14632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>3200</v>
       </c>
@@ -14637,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>3201</v>
       </c>
@@ -14693,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3202</v>
       </c>
@@ -14749,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>3203</v>
       </c>
@@ -14805,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>3204</v>
       </c>
@@ -14861,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>3205</v>
       </c>
@@ -14917,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>3206</v>
       </c>
@@ -14973,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>3207</v>
       </c>
@@ -15029,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>3208</v>
       </c>
@@ -15085,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>3209</v>
       </c>
@@ -15141,7 +15192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>3210</v>
       </c>
@@ -15197,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>3211</v>
       </c>
@@ -15253,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3212</v>
       </c>
@@ -15309,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>3213</v>
       </c>
@@ -15365,7 +15416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>3214</v>
       </c>
@@ -15421,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3215</v>
       </c>
@@ -15477,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>3216</v>
       </c>
@@ -15533,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>3217</v>
       </c>
@@ -15589,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>3218</v>
       </c>
@@ -15642,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>3219</v>
       </c>
@@ -15695,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>3220</v>
       </c>
@@ -15748,7 +15799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3221</v>
       </c>
@@ -15801,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>3222</v>
       </c>
@@ -15854,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>3223</v>
       </c>
@@ -15907,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>3224</v>
       </c>
@@ -15963,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>3225</v>
       </c>
@@ -16019,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>3226</v>
       </c>
@@ -16075,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>3227</v>
       </c>
@@ -16131,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>3300</v>
       </c>
@@ -16187,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>3301</v>
       </c>
@@ -16243,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>3302</v>
       </c>
@@ -16299,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>3303</v>
       </c>
@@ -16355,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>3304</v>
       </c>
@@ -16411,7 +16462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>3305</v>
       </c>
@@ -16467,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>3306</v>
       </c>
@@ -16523,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>3307</v>
       </c>
@@ -16579,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>3308</v>
       </c>
@@ -16635,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>3309</v>
       </c>
@@ -16691,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>3310</v>
       </c>
@@ -16747,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>3311</v>
       </c>
@@ -16803,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3312</v>
       </c>
@@ -16859,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>3313</v>
       </c>
@@ -16915,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>3314</v>
       </c>
@@ -16971,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3315</v>
       </c>
@@ -17027,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>3316</v>
       </c>
@@ -17083,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>3317</v>
       </c>
@@ -17139,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>3318</v>
       </c>
@@ -17192,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>3319</v>
       </c>
@@ -17245,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>3320</v>
       </c>
@@ -17298,7 +17349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>3321</v>
       </c>
@@ -17351,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3322</v>
       </c>
@@ -17404,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>3323</v>
       </c>
@@ -17457,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>3324</v>
       </c>
@@ -17513,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>3325</v>
       </c>
@@ -17569,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3326</v>
       </c>
@@ -17625,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>3327</v>
       </c>
@@ -17681,7 +17732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>3328</v>
       </c>
@@ -17737,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>3333</v>
       </c>
@@ -17793,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>3400</v>
       </c>
@@ -17846,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3401</v>
       </c>
@@ -17899,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>3402</v>
       </c>
@@ -17952,7 +18003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3403</v>
       </c>
@@ -18005,7 +18056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>3404</v>
       </c>
@@ -18058,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3405</v>
       </c>
@@ -18111,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>3500</v>
       </c>
@@ -18167,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>3501</v>
       </c>
@@ -18223,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>3502</v>
       </c>
@@ -18276,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>3503</v>
       </c>
@@ -18329,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>3504</v>
       </c>
@@ -18382,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>3505</v>
       </c>
@@ -18435,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>3506</v>
       </c>
@@ -18488,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>3507</v>
       </c>
@@ -18544,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>3508</v>
       </c>
@@ -18600,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>3509</v>
       </c>
@@ -18656,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3510</v>
       </c>
@@ -18712,7 +18763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>3511</v>
       </c>
@@ -18768,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>3512</v>
       </c>
@@ -18824,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>3602</v>
       </c>
@@ -18880,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>3603</v>
       </c>
@@ -18936,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>3616</v>
       </c>
@@ -18989,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>3617</v>
       </c>
@@ -19042,7 +19093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>3618</v>
       </c>
@@ -19095,7 +19146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>3619</v>
       </c>
@@ -19148,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>3620</v>
       </c>
@@ -19201,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>3621</v>
       </c>
@@ -19254,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3622</v>
       </c>
@@ -19307,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>3623</v>
       </c>
@@ -19360,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>3624</v>
       </c>
@@ -19413,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>3625</v>
       </c>
@@ -19466,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>3626</v>
       </c>
@@ -19519,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>3627</v>
       </c>
@@ -19572,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>3702</v>
       </c>
@@ -19625,7 +19676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>3703</v>
       </c>
@@ -19678,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>3704</v>
       </c>
@@ -19731,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>3705</v>
       </c>
@@ -19784,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>3706</v>
       </c>
@@ -19837,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>3707</v>
       </c>
@@ -19890,7 +19941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3708</v>
       </c>
@@ -19943,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>3709</v>
       </c>
@@ -19996,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>3710</v>
       </c>
@@ -20049,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>3711</v>
       </c>
@@ -20102,7 +20153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>3900</v>
       </c>
@@ -20158,7 +20209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3901</v>
       </c>
@@ -20214,7 +20265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>3902</v>
       </c>
@@ -20270,7 +20321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>3903</v>
       </c>
@@ -20326,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>3904</v>
       </c>
@@ -20382,7 +20433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3905</v>
       </c>
@@ -20438,7 +20489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>3906</v>
       </c>
@@ -20494,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>3907</v>
       </c>
@@ -20550,7 +20601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>3908</v>
       </c>
@@ -20606,7 +20657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>3909</v>
       </c>
@@ -20662,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>3910</v>
       </c>
@@ -20718,7 +20769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>3911</v>
       </c>
@@ -20774,7 +20825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>3912</v>
       </c>
@@ -20830,7 +20881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>3913</v>
       </c>
@@ -20886,7 +20937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>3914</v>
       </c>
@@ -20942,7 +20993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>3915</v>
       </c>
@@ -20998,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>3916</v>
       </c>
@@ -21054,7 +21105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>3917</v>
       </c>
@@ -21110,7 +21161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>3918</v>
       </c>
@@ -21163,7 +21214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>3919</v>
       </c>
@@ -21216,7 +21267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>3920</v>
       </c>
@@ -21269,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>3921</v>
       </c>
@@ -21322,7 +21373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>3923</v>
       </c>
@@ -21375,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>3924</v>
       </c>
@@ -21428,7 +21479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>3925</v>
       </c>
@@ -21481,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>3926</v>
       </c>
@@ -21534,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>3927</v>
       </c>
@@ -21590,7 +21641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>3928</v>
       </c>
@@ -21646,7 +21697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>3929</v>
       </c>
@@ -21702,7 +21753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>3930</v>
       </c>
@@ -21758,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>3931</v>
       </c>
@@ -21814,7 +21865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>3932</v>
       </c>
@@ -21870,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>3933</v>
       </c>
@@ -21926,7 +21977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>3934</v>
       </c>
@@ -21982,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>4000</v>
       </c>
@@ -22035,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>4001</v>
       </c>
@@ -22088,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>4002</v>
       </c>
@@ -22141,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>4003</v>
       </c>
@@ -22194,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>4004</v>
       </c>
@@ -22247,7 +22298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>4005</v>
       </c>
@@ -22300,7 +22351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>4006</v>
       </c>
@@ -22353,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>4007</v>
       </c>
@@ -22406,7 +22457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>4100</v>
       </c>
@@ -22462,7 +22513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>4101</v>
       </c>
@@ -22518,7 +22569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>4102</v>
       </c>
@@ -22574,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>4103</v>
       </c>
@@ -22630,7 +22681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>4104</v>
       </c>
@@ -22686,7 +22737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>4105</v>
       </c>
@@ -22742,7 +22793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>4106</v>
       </c>
@@ -22798,7 +22849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>4107</v>
       </c>
@@ -22854,7 +22905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>4108</v>
       </c>
@@ -22910,7 +22961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>4200</v>
       </c>
@@ -22966,7 +23017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>4201</v>
       </c>
@@ -23022,7 +23073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>4202</v>
       </c>
@@ -23078,7 +23129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>4203</v>
       </c>
@@ -23134,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>4204</v>
       </c>
@@ -23190,7 +23241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>4205</v>
       </c>
@@ -23246,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>4206</v>
       </c>
@@ -23302,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>4207</v>
       </c>
@@ -23358,7 +23409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>4208</v>
       </c>
@@ -23414,7 +23465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>4209</v>
       </c>
@@ -23470,7 +23521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>4210</v>
       </c>
@@ -23526,7 +23577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>4211</v>
       </c>
@@ -23582,7 +23633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>4212</v>
       </c>
@@ -23638,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>4213</v>
       </c>
@@ -23694,7 +23745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>4214</v>
       </c>
@@ -23750,7 +23801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>4215</v>
       </c>
@@ -23806,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>4216</v>
       </c>
@@ -23862,7 +23913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>4217</v>
       </c>
@@ -23915,7 +23966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>4218</v>
       </c>
@@ -23968,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>4219</v>
       </c>
@@ -24021,7 +24072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>4220</v>
       </c>
@@ -24074,7 +24125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>4221</v>
       </c>
@@ -24127,7 +24178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>4222</v>
       </c>
@@ -24180,7 +24231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>4223</v>
       </c>
@@ -24233,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>4224</v>
       </c>
@@ -24289,7 +24340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>4225</v>
       </c>
@@ -24345,7 +24396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>4226</v>
       </c>
@@ -24401,7 +24452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>4227</v>
       </c>
@@ -24457,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>4228</v>
       </c>
@@ -24513,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>4229</v>
       </c>
@@ -24569,7 +24620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>4230</v>
       </c>
@@ -24625,7 +24676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>4231</v>
       </c>
@@ -24681,7 +24732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>4232</v>
       </c>
@@ -24737,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>4300</v>
       </c>
@@ -24793,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>4301</v>
       </c>
@@ -24849,7 +24900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>4302</v>
       </c>
@@ -24905,7 +24956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>4303</v>
       </c>
@@ -24961,7 +25012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>4304</v>
       </c>
@@ -25017,7 +25068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>4305</v>
       </c>
@@ -25073,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>4306</v>
       </c>
@@ -25129,7 +25180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>4307</v>
       </c>
@@ -25185,7 +25236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>4308</v>
       </c>
@@ -25241,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>4309</v>
       </c>
@@ -25297,7 +25348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>4310</v>
       </c>
@@ -25353,7 +25404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>4311</v>
       </c>
@@ -25409,7 +25460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>4312</v>
       </c>
@@ -25465,7 +25516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>4313</v>
       </c>
@@ -25521,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>4314</v>
       </c>
@@ -25577,7 +25628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>4315</v>
       </c>
@@ -25633,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>4316</v>
       </c>
@@ -25689,7 +25740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>4317</v>
       </c>
@@ -25745,7 +25796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>4318</v>
       </c>
@@ -25801,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>4319</v>
       </c>
@@ -25857,7 +25908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>4320</v>
       </c>
@@ -25913,7 +25964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>4321</v>
       </c>
@@ -25969,7 +26020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>4322</v>
       </c>
@@ -26025,7 +26076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>4323</v>
       </c>
@@ -26081,7 +26132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>4324</v>
       </c>
@@ -26137,7 +26188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>4325</v>
       </c>
@@ -26193,7 +26244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>4400</v>
       </c>
@@ -26246,7 +26297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>4401</v>
       </c>
@@ -26299,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>4402</v>
       </c>
@@ -26352,7 +26403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>4403</v>
       </c>
@@ -26405,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>4404</v>
       </c>
@@ -26458,7 +26509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>4405</v>
       </c>
@@ -26511,7 +26562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>4406</v>
       </c>
@@ -26564,7 +26615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>4407</v>
       </c>
@@ -26617,7 +26668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>4408</v>
       </c>
@@ -26670,7 +26721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>4409</v>
       </c>
@@ -26723,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>4410</v>
       </c>
@@ -26776,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>4411</v>
       </c>
@@ -26829,7 +26880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>4413</v>
       </c>
@@ -26882,7 +26933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>4415</v>
       </c>
@@ -26935,7 +26986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>4500</v>
       </c>
@@ -26991,7 +27042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>4501</v>
       </c>
@@ -27047,7 +27098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>4502</v>
       </c>
@@ -27103,7 +27154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>4503</v>
       </c>
@@ -27159,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>4504</v>
       </c>
@@ -27215,7 +27266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>4505</v>
       </c>
@@ -27271,7 +27322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>4506</v>
       </c>
@@ -27327,7 +27378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>4507</v>
       </c>
@@ -27383,7 +27434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>4508</v>
       </c>
@@ -27439,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>4509</v>
       </c>
@@ -27495,7 +27546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>4510</v>
       </c>
@@ -27551,7 +27602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>4511</v>
       </c>
@@ -27607,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>4512</v>
       </c>
@@ -27663,7 +27714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>4513</v>
       </c>
@@ -27719,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>4514</v>
       </c>
@@ -27775,7 +27826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>4515</v>
       </c>
@@ -27831,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>4516</v>
       </c>
@@ -27884,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>4517</v>
       </c>
@@ -27937,7 +27988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>4518</v>
       </c>
@@ -27990,7 +28041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>4519</v>
       </c>
@@ -28043,7 +28094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>4520</v>
       </c>
@@ -28096,7 +28147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>4521</v>
       </c>
@@ -28149,7 +28200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>4522</v>
       </c>
@@ -28202,7 +28253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>4523</v>
       </c>
@@ -28258,7 +28309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>4524</v>
       </c>
@@ -28314,7 +28365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>4525</v>
       </c>
@@ -28370,7 +28421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>4526</v>
       </c>
@@ -28426,7 +28477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>4527</v>
       </c>
@@ -28482,7 +28533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>4528</v>
       </c>
@@ -28538,7 +28589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>4529</v>
       </c>
@@ -28594,7 +28645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>4600</v>
       </c>
@@ -28650,7 +28701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>4601</v>
       </c>
@@ -28706,7 +28757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>4602</v>
       </c>
@@ -28762,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>4603</v>
       </c>
@@ -28818,7 +28869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>4604</v>
       </c>
@@ -28874,7 +28925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>4605</v>
       </c>
@@ -28930,7 +28981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>4606</v>
       </c>
@@ -28986,7 +29037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>4607</v>
       </c>
@@ -29042,7 +29093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>4608</v>
       </c>
@@ -29098,7 +29149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>4609</v>
       </c>
@@ -29154,7 +29205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>4610</v>
       </c>
@@ -29210,7 +29261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>4611</v>
       </c>
@@ -29266,7 +29317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>4612</v>
       </c>
@@ -29322,7 +29373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>4613</v>
       </c>
@@ -29378,7 +29429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>4614</v>
       </c>
@@ -29434,7 +29485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>4615</v>
       </c>
@@ -29490,7 +29541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>4616</v>
       </c>
@@ -29546,7 +29597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>4617</v>
       </c>
@@ -29602,7 +29653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>4618</v>
       </c>
@@ -29655,7 +29706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>4619</v>
       </c>
@@ -29708,7 +29759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>4620</v>
       </c>
@@ -29761,7 +29812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>4622</v>
       </c>
@@ -29814,7 +29865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>4623</v>
       </c>
@@ -29867,7 +29918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>4624</v>
       </c>
@@ -29923,7 +29974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>4625</v>
       </c>
@@ -29979,7 +30030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>4626</v>
       </c>
@@ -30035,7 +30086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>4627</v>
       </c>
@@ -30091,7 +30142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>4628</v>
       </c>
@@ -30147,7 +30198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>4629</v>
       </c>
@@ -30203,7 +30254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>4630</v>
       </c>
@@ -30259,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>4631</v>
       </c>
@@ -30315,7 +30366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>4700</v>
       </c>
@@ -30371,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>4701</v>
       </c>
@@ -30427,7 +30478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>4702</v>
       </c>
@@ -30483,7 +30534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>4704</v>
       </c>
@@ -30539,7 +30590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>4707</v>
       </c>
@@ -30595,7 +30646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>4708</v>
       </c>
@@ -30651,7 +30702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>4712</v>
       </c>
@@ -30707,7 +30758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>4715</v>
       </c>
@@ -30763,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>4716</v>
       </c>
@@ -30816,7 +30867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>4717</v>
       </c>
@@ -30869,7 +30920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>4718</v>
       </c>
@@ -30922,7 +30973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>4719</v>
       </c>
@@ -30975,7 +31026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>4720</v>
       </c>
@@ -31028,7 +31079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>4721</v>
       </c>
@@ -31081,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>4722</v>
       </c>
@@ -31134,7 +31185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>4723</v>
       </c>
@@ -31187,7 +31238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>4900</v>
       </c>
@@ -31243,7 +31294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>4901</v>
       </c>
@@ -31299,7 +31350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>4902</v>
       </c>
@@ -31355,7 +31406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>4903</v>
       </c>
@@ -31411,7 +31462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>4904</v>
       </c>
@@ -31467,7 +31518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>4905</v>
       </c>
@@ -31523,7 +31574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>4906</v>
       </c>
@@ -31579,7 +31630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>4907</v>
       </c>
@@ -31635,7 +31686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>4908</v>
       </c>
@@ -31691,7 +31742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>4909</v>
       </c>
@@ -31747,7 +31798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>4910</v>
       </c>
@@ -31803,7 +31854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>4911</v>
       </c>
@@ -31859,7 +31910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>4912</v>
       </c>
@@ -31915,7 +31966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>4913</v>
       </c>
@@ -31971,7 +32022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>4914</v>
       </c>
@@ -32027,7 +32078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>4915</v>
       </c>
@@ -32083,7 +32134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>4916</v>
       </c>
@@ -32139,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>4917</v>
       </c>
@@ -32195,7 +32246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>4918</v>
       </c>
@@ -32251,7 +32302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>4919</v>
       </c>
@@ -32307,7 +32358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>4920</v>
       </c>
@@ -32363,7 +32414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>4921</v>
       </c>
@@ -32419,7 +32470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>4922</v>
       </c>
@@ -32475,7 +32526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>4923</v>
       </c>
@@ -32531,7 +32582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>4924</v>
       </c>
@@ -32587,7 +32638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>4925</v>
       </c>
@@ -32643,7 +32694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>5116</v>
       </c>
@@ -32696,7 +32747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>5117</v>
       </c>
@@ -32749,7 +32800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>5118</v>
       </c>
@@ -32802,7 +32853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>5119</v>
       </c>
@@ -32855,7 +32906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>5120</v>
       </c>
@@ -32908,7 +32959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>5121</v>
       </c>
@@ -32961,7 +33012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>5122</v>
       </c>
@@ -33014,7 +33065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>5123</v>
       </c>
@@ -33067,7 +33118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>5126</v>
       </c>
@@ -33120,7 +33171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>5127</v>
       </c>
@@ -33173,7 +33224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>5128</v>
       </c>
@@ -33226,7 +33277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>5129</v>
       </c>
@@ -33279,7 +33330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>5130</v>
       </c>
@@ -33332,7 +33383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5131</v>
       </c>
@@ -33385,7 +33436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>5200</v>
       </c>
@@ -33438,7 +33489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>5201</v>
       </c>
@@ -33491,7 +33542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>5202</v>
       </c>
@@ -33544,7 +33595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>5203</v>
       </c>
@@ -33597,7 +33648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>5204</v>
       </c>
@@ -33650,7 +33701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>5205</v>
       </c>
@@ -33703,7 +33754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>5206</v>
       </c>
@@ -33756,7 +33807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>5207</v>
       </c>
@@ -33809,7 +33860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>5208</v>
       </c>
@@ -33862,7 +33913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>5300</v>
       </c>
@@ -33915,7 +33966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>5301</v>
       </c>
@@ -33968,7 +34019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>5302</v>
       </c>
@@ -34021,7 +34072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>5303</v>
       </c>
@@ -34074,7 +34125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>5304</v>
       </c>
@@ -34127,7 +34178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>5305</v>
       </c>
@@ -34180,7 +34231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>5401</v>
       </c>
@@ -34236,7 +34287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>5402</v>
       </c>
@@ -34292,7 +34343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>5403</v>
       </c>
@@ -34348,7 +34399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>5404</v>
       </c>
@@ -34404,7 +34455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>5405</v>
       </c>
@@ -34460,7 +34511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>5406</v>
       </c>
@@ -34516,7 +34567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>5407</v>
       </c>
@@ -34572,7 +34623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>5408</v>
       </c>
@@ -34628,7 +34679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>5409</v>
       </c>
@@ -34684,7 +34735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>5410</v>
       </c>
@@ -34740,7 +34791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>5411</v>
       </c>
@@ -34796,7 +34847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>5412</v>
       </c>
@@ -34852,7 +34903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>5413</v>
       </c>
@@ -34908,7 +34959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>5501</v>
       </c>
@@ -34964,7 +35015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>5502</v>
       </c>
@@ -35020,7 +35071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>5503</v>
       </c>
@@ -35076,7 +35127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>5504</v>
       </c>
@@ -35132,7 +35183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>5505</v>
       </c>
@@ -35188,7 +35239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>5506</v>
       </c>
@@ -35244,7 +35295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>5508</v>
       </c>
@@ -35300,7 +35351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>5509</v>
       </c>
@@ -35356,7 +35407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>5510</v>
       </c>
@@ -35412,7 +35463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>5513</v>
       </c>
@@ -35468,7 +35519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>5514</v>
       </c>
@@ -35524,7 +35575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>5515</v>
       </c>
@@ -35580,7 +35631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>5516</v>
       </c>
@@ -35636,7 +35687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>5517</v>
       </c>
@@ -35692,7 +35743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>5520</v>
       </c>
@@ -35748,7 +35799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>5521</v>
       </c>
@@ -35804,7 +35855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>5522</v>
       </c>
@@ -35860,7 +35911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>5523</v>
       </c>
@@ -35916,7 +35967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>5524</v>
       </c>
@@ -35972,7 +36023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>5529</v>
       </c>
@@ -36028,7 +36079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>5530</v>
       </c>
@@ -36084,7 +36135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>5531</v>
       </c>
@@ -36140,7 +36191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>5534</v>
       </c>
@@ -36196,7 +36247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>5535</v>
       </c>
@@ -36252,7 +36303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>5536</v>
       </c>
@@ -36308,7 +36359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>5537</v>
       </c>
@@ -36364,7 +36415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>5538</v>
       </c>
@@ -36420,7 +36471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>5539</v>
       </c>
@@ -36476,7 +36527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>5540</v>
       </c>
@@ -36532,7 +36583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>5544</v>
       </c>
@@ -36588,7 +36639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>5545</v>
       </c>
@@ -36644,7 +36695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>5551</v>
       </c>
@@ -36700,7 +36751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>5552</v>
       </c>
@@ -36756,7 +36807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>5553</v>
       </c>
@@ -36812,7 +36863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>5554</v>
       </c>
@@ -36868,7 +36919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>5556</v>
       </c>
@@ -36924,7 +36975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>5558</v>
       </c>
@@ -36980,7 +37031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>5559</v>
       </c>
@@ -37036,7 +37087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>5560</v>
       </c>
@@ -37092,7 +37143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>5561</v>
       </c>
@@ -37148,7 +37199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>5562</v>
       </c>
@@ -37204,7 +37255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>5563</v>
       </c>
@@ -37260,7 +37311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>5564</v>
       </c>
@@ -37316,7 +37367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>5565</v>
       </c>
@@ -37372,7 +37423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>5566</v>
       </c>
@@ -37428,7 +37479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>5574</v>
       </c>
@@ -37484,7 +37535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>5575</v>
       </c>
@@ -37540,7 +37591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>5577</v>
       </c>
@@ -37596,7 +37647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>5578</v>
       </c>
@@ -37652,7 +37703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>5585</v>
       </c>
@@ -37708,7 +37759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>5586</v>
       </c>
@@ -37764,7 +37815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>5587</v>
       </c>
@@ -37820,7 +37871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>5588</v>
       </c>
@@ -37876,7 +37927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>5589</v>
       </c>
@@ -37932,7 +37983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>5591</v>
       </c>
@@ -37988,7 +38039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>5592</v>
       </c>
@@ -38044,7 +38095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>5594</v>
       </c>
@@ -38100,7 +38151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>5596</v>
       </c>
@@ -38156,7 +38207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>5597</v>
       </c>
@@ -38212,7 +38263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>5598</v>
       </c>
@@ -38268,7 +38319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>5599</v>
       </c>
@@ -38324,7 +38375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>5600</v>
       </c>
@@ -38380,7 +38431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>5602</v>
       </c>
@@ -38436,7 +38487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>5603</v>
       </c>
@@ -38492,7 +38543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>5604</v>
       </c>
@@ -38548,7 +38599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>5607</v>
       </c>
@@ -38604,7 +38655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>5608</v>
       </c>
@@ -38660,7 +38711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>5610</v>
       </c>
@@ -38716,7 +38767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>5611</v>
       </c>
@@ -38772,7 +38823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>5612</v>
       </c>
@@ -38828,7 +38879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>5700</v>
       </c>
@@ -38884,7 +38935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>5701</v>
       </c>
@@ -38940,7 +38991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>5702</v>
       </c>
@@ -38996,7 +39047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>5703</v>
       </c>
@@ -39052,7 +39103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>5704</v>
       </c>
@@ -39108,7 +39159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>5705</v>
       </c>
@@ -39164,7 +39215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>5706</v>
       </c>
@@ -39220,7 +39271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>5707</v>
       </c>
@@ -39276,7 +39327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>5708</v>
       </c>
@@ -39332,7 +39383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>5709</v>
       </c>
@@ -39388,7 +39439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>5710</v>
       </c>
@@ -39444,7 +39495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>5711</v>
       </c>
@@ -39500,7 +39551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>5712</v>
       </c>
@@ -39556,7 +39607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>5713</v>
       </c>
@@ -39612,7 +39663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>5714</v>
       </c>
@@ -39668,7 +39719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>5715</v>
       </c>
@@ -39724,7 +39775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>5716</v>
       </c>
@@ -39780,7 +39831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>5719</v>
       </c>
@@ -39836,7 +39887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>5720</v>
       </c>
@@ -39892,7 +39943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>5722</v>
       </c>
@@ -39948,7 +39999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>5723</v>
       </c>
@@ -40004,7 +40055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>5724</v>
       </c>
@@ -40060,7 +40111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>5725</v>
       </c>
@@ -40116,7 +40167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>5727</v>
       </c>
@@ -40172,7 +40223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>5730</v>
       </c>
@@ -40228,7 +40279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>5731</v>
       </c>
@@ -40284,7 +40335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>5732</v>
       </c>
@@ -40340,7 +40391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>5733</v>
       </c>
@@ -40396,7 +40447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>5736</v>
       </c>
@@ -40452,7 +40503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>5737</v>
       </c>
@@ -40508,7 +40559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>5738</v>
       </c>
@@ -40564,7 +40615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>5740</v>
       </c>
@@ -40620,7 +40671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>5741</v>
       </c>
@@ -40676,7 +40727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>5744</v>
       </c>
@@ -40732,7 +40783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>5745</v>
       </c>
@@ -40788,7 +40839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>5746</v>
       </c>
@@ -40844,7 +40895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>5752</v>
       </c>
@@ -40900,7 +40951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>5754</v>
       </c>
@@ -40956,7 +41007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>5758</v>
       </c>
@@ -41012,7 +41063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>5760</v>
       </c>
@@ -41068,7 +41119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>5761</v>
       </c>
@@ -41124,7 +41175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>5762</v>
       </c>
@@ -41180,7 +41231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>5763</v>
       </c>
@@ -41236,7 +41287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>5764</v>
       </c>
@@ -41292,7 +41343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>5765</v>
       </c>
@@ -41348,7 +41399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>5766</v>
       </c>
@@ -41404,7 +41455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>5767</v>
       </c>
@@ -41460,7 +41511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>5768</v>
       </c>
@@ -41516,7 +41567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>5769</v>
       </c>
@@ -41572,7 +41623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>5770</v>
       </c>
@@ -41628,7 +41679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>5771</v>
       </c>
@@ -41684,7 +41735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>5772</v>
       </c>
@@ -41740,7 +41791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>5782</v>
       </c>
@@ -41796,7 +41847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>5786</v>
       </c>
@@ -41852,7 +41903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>5787</v>
       </c>
@@ -41908,7 +41959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>5788</v>
       </c>
@@ -41964,7 +42015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>5789</v>
       </c>
@@ -42020,7 +42071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>5790</v>
       </c>
@@ -42076,7 +42127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>5792</v>
       </c>
@@ -42132,7 +42183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>5794</v>
       </c>
@@ -42188,7 +42239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>5795</v>
       </c>
@@ -42244,7 +42295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>5796</v>
       </c>
@@ -42300,7 +42351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>5797</v>
       </c>
@@ -42356,7 +42407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>5799</v>
       </c>
@@ -42412,7 +42463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>5800</v>
       </c>
@@ -42468,7 +42519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>5801</v>
       </c>
@@ -42524,7 +42575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>5803</v>
       </c>
@@ -42580,7 +42631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>5804</v>
       </c>
@@ -42636,7 +42687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>5806</v>
       </c>
@@ -42692,7 +42743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>5807</v>
       </c>
@@ -42748,7 +42799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>5809</v>
       </c>
@@ -42801,7 +42852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>5810</v>
       </c>
@@ -42854,7 +42905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>5816</v>
       </c>
@@ -42907,7 +42958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>5817</v>
       </c>
@@ -42960,7 +43011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>5900</v>
       </c>
@@ -43016,7 +43067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>5901</v>
       </c>
@@ -43072,7 +43123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>5902</v>
       </c>
@@ -43128,7 +43179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>5903</v>
       </c>
@@ -43184,7 +43235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>5904</v>
       </c>
@@ -43240,7 +43291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>5905</v>
       </c>
@@ -43296,7 +43347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>5906</v>
       </c>
@@ -43352,7 +43403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>5907</v>
       </c>
@@ -43408,7 +43459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>6000</v>
       </c>
@@ -43464,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>6001</v>
       </c>
@@ -43520,7 +43571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>6002</v>
       </c>
@@ -43576,7 +43627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>6003</v>
       </c>
@@ -43632,7 +43683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>6004</v>
       </c>
@@ -43688,7 +43739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>6005</v>
       </c>
@@ -43744,7 +43795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>6006</v>
       </c>
@@ -43800,7 +43851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>6007</v>
       </c>
@@ -43856,7 +43907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>6008</v>
       </c>
@@ -43912,7 +43963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>6009</v>
       </c>
@@ -43968,7 +44019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>6010</v>
       </c>
@@ -44024,7 +44075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>6011</v>
       </c>
@@ -44080,7 +44131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>6012</v>
       </c>
@@ -44136,7 +44187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>6013</v>
       </c>
@@ -44192,7 +44243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>6014</v>
       </c>
@@ -44248,7 +44299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>6015</v>
       </c>
@@ -44304,7 +44355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>6016</v>
       </c>
@@ -44360,7 +44411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>6017</v>
       </c>
@@ -44416,7 +44467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>6018</v>
       </c>
@@ -44472,7 +44523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>6019</v>
       </c>
@@ -44528,7 +44579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>6020</v>
       </c>
@@ -44584,7 +44635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>6100</v>
       </c>
@@ -44640,7 +44691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>6300</v>
       </c>
@@ -44696,7 +44747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>6301</v>
       </c>
@@ -44752,7 +44803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>6302</v>
       </c>
@@ -44808,7 +44859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>6304</v>
       </c>
@@ -44864,7 +44915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>6307</v>
       </c>
@@ -44920,7 +44971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>6308</v>
       </c>
@@ -44976,7 +45027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>6312</v>
       </c>
@@ -45032,7 +45083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>6315</v>
       </c>
@@ -45088,7 +45139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>6316</v>
       </c>
@@ -45141,7 +45192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>6317</v>
       </c>
@@ -45194,7 +45245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>6318</v>
       </c>
@@ -45247,7 +45298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>6319</v>
       </c>
@@ -45300,7 +45351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>6320</v>
       </c>
@@ -45353,7 +45404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>9006</v>
       </c>
@@ -45406,7 +45457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>9007</v>
       </c>
@@ -45459,7 +45510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>9008</v>
       </c>
@@ -45512,7 +45563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>9009</v>
       </c>
@@ -45565,7 +45616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>9010</v>
       </c>
@@ -45618,7 +45669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>9011</v>
       </c>
@@ -45671,7 +45722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>9012</v>
       </c>
@@ -45724,7 +45775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>9013</v>
       </c>
@@ -45777,7 +45828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>9014</v>
       </c>
@@ -45830,7 +45881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>9015</v>
       </c>
@@ -45883,7 +45934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>9016</v>
       </c>
@@ -45936,7 +45987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>9017</v>
       </c>
@@ -45989,7 +46040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>9018</v>
       </c>
@@ -46042,7 +46093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>9019</v>
       </c>
@@ -46095,7 +46146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>9020</v>
       </c>
@@ -46148,7 +46199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>9021</v>
       </c>
@@ -46201,7 +46252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>9022</v>
       </c>
@@ -46254,7 +46305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>9023</v>
       </c>
@@ -46307,7 +46358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>9024</v>
       </c>
@@ -46360,7 +46411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>9025</v>
       </c>
@@ -46413,7 +46464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>9026</v>
       </c>
@@ -46466,7 +46517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>9027</v>
       </c>
@@ -46519,7 +46570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>9028</v>
       </c>
@@ -46572,7 +46623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>9029</v>
       </c>
@@ -46625,7 +46676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>9030</v>
       </c>
@@ -46678,7 +46729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>9031</v>
       </c>
@@ -46731,7 +46782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>9032</v>
       </c>
@@ -46784,7 +46835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>9033</v>
       </c>
@@ -46837,7 +46888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>9034</v>
       </c>
@@ -46890,7 +46941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>9035</v>
       </c>
@@ -46943,7 +46994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>9036</v>
       </c>
@@ -46996,7 +47047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>9037</v>
       </c>
@@ -47049,7 +47100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>9038</v>
       </c>
@@ -47102,7 +47153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>9039</v>
       </c>
@@ -47155,7 +47206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>9040</v>
       </c>
@@ -47208,7 +47259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>9041</v>
       </c>
@@ -47261,7 +47312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>9042</v>
       </c>
@@ -47314,7 +47365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>9106</v>
       </c>
@@ -47367,7 +47418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>9107</v>
       </c>
@@ -47420,7 +47471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>9108</v>
       </c>
@@ -47473,7 +47524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>9109</v>
       </c>
@@ -47526,7 +47577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>9110</v>
       </c>
@@ -47579,7 +47630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>9111</v>
       </c>
@@ -47632,7 +47683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>9112</v>
       </c>
@@ -47685,7 +47736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>9113</v>
       </c>
@@ -47738,7 +47789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>9114</v>
       </c>
@@ -47791,7 +47842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>9115</v>
       </c>
@@ -47844,7 +47895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>9116</v>
       </c>
@@ -47897,7 +47948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>9117</v>
       </c>
@@ -47950,7 +48001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>9118</v>
       </c>
@@ -48003,7 +48054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>9119</v>
       </c>
@@ -48056,7 +48107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>9120</v>
       </c>
@@ -48109,7 +48160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>9121</v>
       </c>
@@ -48162,7 +48213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>9122</v>
       </c>
@@ -48215,7 +48266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>9123</v>
       </c>
@@ -48268,7 +48319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>9124</v>
       </c>
@@ -48321,7 +48372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>9125</v>
       </c>
@@ -48374,7 +48425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>9126</v>
       </c>
@@ -48427,7 +48478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>9127</v>
       </c>
@@ -48480,7 +48531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>9128</v>
       </c>
@@ -48533,7 +48584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>9129</v>
       </c>
@@ -48586,7 +48637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>9130</v>
       </c>
@@ -48639,7 +48690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>9131</v>
       </c>
@@ -48692,7 +48743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>9132</v>
       </c>
@@ -48745,7 +48796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>9133</v>
       </c>
@@ -48798,7 +48849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>9134</v>
       </c>
@@ -48851,7 +48902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>9135</v>
       </c>
@@ -48904,7 +48955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>9136</v>
       </c>
@@ -48957,7 +49008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>9137</v>
       </c>
@@ -49010,7 +49061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>9138</v>
       </c>
@@ -49063,7 +49114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>9139</v>
       </c>
@@ -49116,7 +49167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>9140</v>
       </c>
@@ -49169,7 +49220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>9141</v>
       </c>
@@ -49222,7 +49273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>9142</v>
       </c>
@@ -49275,7 +49326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>9143</v>
       </c>
@@ -49328,7 +49379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>9144</v>
       </c>
@@ -49381,7 +49432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>9145</v>
       </c>
@@ -49434,7 +49485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>9146</v>
       </c>
@@ -49487,7 +49538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>9147</v>
       </c>
@@ -49540,7 +49591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>9148</v>
       </c>
@@ -49593,7 +49644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>9149</v>
       </c>
@@ -49646,7 +49697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>9150</v>
       </c>
@@ -49699,7 +49750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>9151</v>
       </c>
@@ -49752,7 +49803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>9152</v>
       </c>
@@ -49805,7 +49856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>9153</v>
       </c>
@@ -49858,7 +49909,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>9154</v>
       </c>
@@ -49911,7 +49962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>9155</v>
       </c>
@@ -49964,7 +50015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>9156</v>
       </c>
@@ -50017,7 +50068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>9157</v>
       </c>
@@ -50070,7 +50121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>9158</v>
       </c>
@@ -50123,7 +50174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>9159</v>
       </c>
@@ -50176,7 +50227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>9160</v>
       </c>
@@ -50229,7 +50280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>9161</v>
       </c>
@@ -50282,7 +50333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>9162</v>
       </c>
@@ -50335,7 +50386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>9163</v>
       </c>
@@ -50388,7 +50439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>9164</v>
       </c>
@@ -50441,7 +50492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>9165</v>
       </c>
@@ -50494,7 +50545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>9166</v>
       </c>
@@ -50547,7 +50598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>9167</v>
       </c>
@@ -50600,7 +50651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>9168</v>
       </c>
@@ -50653,7 +50704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>9169</v>
       </c>
@@ -50706,7 +50757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>9170</v>
       </c>
@@ -50762,7 +50813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>9171</v>
       </c>
@@ -50818,7 +50869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>9172</v>
       </c>
@@ -50874,7 +50925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>9173</v>
       </c>
@@ -50930,7 +50981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>9174</v>
       </c>
@@ -50986,7 +51037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>9175</v>
       </c>
@@ -51042,7 +51093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>9176</v>
       </c>
@@ -51098,7 +51149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>9177</v>
       </c>
@@ -51151,7 +51202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>9178</v>
       </c>
@@ -51204,7 +51255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>9179</v>
       </c>
@@ -51257,7 +51308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>9180</v>
       </c>
@@ -51310,7 +51361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>9284</v>
       </c>
@@ -51366,7 +51417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>9285</v>
       </c>
@@ -51422,7 +51473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>9286</v>
       </c>
@@ -51478,7 +51529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>9287</v>
       </c>
@@ -51534,7 +51585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>9298</v>
       </c>
@@ -51590,7 +51641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>9560</v>
       </c>
@@ -51598,7 +51649,7 @@
         <v>25</v>
       </c>
       <c r="C863" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -51616,7 +51667,7 @@
         <v>2</v>
       </c>
       <c r="I863" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J863" t="s">
         <v>151</v>
@@ -51646,21 +51697,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2">
         <v>9561</v>
       </c>
       <c r="C864" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I864" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J864" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.45">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>21919</v>
       </c>
@@ -51716,7 +51767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>21928</v>
       </c>
@@ -51769,7 +51820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>21934</v>
       </c>
@@ -51825,7 +51876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>21949</v>
       </c>
@@ -51881,7 +51932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>22101</v>
       </c>
@@ -51937,7 +51988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>22102</v>
       </c>
@@ -51993,7 +52044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>22201</v>
       </c>
@@ -52049,7 +52100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>25001</v>
       </c>
@@ -52105,7 +52156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>25002</v>
       </c>
@@ -52161,7 +52212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>30010</v>
       </c>
@@ -52217,7 +52268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>30020</v>
       </c>
@@ -52270,7 +52321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>30030</v>
       </c>
@@ -52323,7 +52374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>30040</v>
       </c>
@@ -52376,7 +52427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>30050</v>
       </c>
@@ -52429,7 +52480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>30060</v>
       </c>
@@ -52482,7 +52533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>30070</v>
       </c>

--- a/data-raw/variables.xlsx
+++ b/data-raw/variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\SIVA\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B2DF8C-8A63-4CE7-AA29-9B48FD935681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993A8CDF-B8B9-4A4F-A593-EE75630DC5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
+    <workbookView xWindow="1808" yWindow="4403" windowWidth="21600" windowHeight="11415" activeTab="2" xr2:uid="{8D1B9F0B-2403-48D1-89EA-A30FCAB91CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="niveaux" sheetId="1" r:id="rId1"/>
@@ -2215,26 +2215,26 @@
     <t>Niveau Vilaine à Arzal</t>
   </si>
   <si>
-    <t>Niveau Vilaine au Thénot (Isac 1)</t>
-  </si>
-  <si>
-    <t>Niveau Isac amont Thénot (2)</t>
-  </si>
-  <si>
-    <t>Niveau Vilaine au Thénot (Isac 2)</t>
-  </si>
-  <si>
-    <t>Niveau Isac amont Thénot (1)</t>
-  </si>
-  <si>
     <t>Niveau Isac niveau marais (Le Clandre)</t>
+  </si>
+  <si>
+    <t>Niveau Isac amont Prévert(2)</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine aval Prévert (1)</t>
+  </si>
+  <si>
+    <t>Niveau Vilaine aval Prévert (2)</t>
+  </si>
+  <si>
+    <t>Niveau Isac amont Prévert (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,12 +2261,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2628,15 +2622,15 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.1328125" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" customWidth="1"/>
     <col min="7" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -2656,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -2676,7 +2670,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -2696,7 +2690,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -2716,7 +2710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>599</v>
       </c>
@@ -2736,7 +2730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>609</v>
       </c>
@@ -2756,7 +2750,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>610</v>
       </c>
@@ -2776,7 +2770,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>600</v>
       </c>
@@ -2796,7 +2790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>611</v>
       </c>
@@ -2816,7 +2810,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>601</v>
       </c>
@@ -2836,7 +2830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>602</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>603</v>
       </c>
@@ -2876,7 +2870,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>604</v>
       </c>
@@ -2896,7 +2890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>612</v>
       </c>
@@ -2916,7 +2910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>614</v>
       </c>
@@ -2936,7 +2930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>615</v>
       </c>
@@ -2956,7 +2950,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>605</v>
       </c>
@@ -2976,7 +2970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>606</v>
       </c>
@@ -2996,7 +2990,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>607</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>616</v>
       </c>
@@ -3036,7 +3030,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>617</v>
       </c>
@@ -3056,7 +3050,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>618</v>
       </c>
@@ -3076,7 +3070,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>619</v>
       </c>
@@ -3096,7 +3090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>620</v>
       </c>
@@ -3116,7 +3110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>622</v>
       </c>
@@ -3136,7 +3130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>621</v>
       </c>
@@ -3156,7 +3150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>623</v>
       </c>
@@ -3176,7 +3170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>624</v>
       </c>
@@ -3196,7 +3190,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>625</v>
       </c>
@@ -3216,7 +3210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>695</v>
       </c>
@@ -3253,9 +3247,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>608</v>
       </c>
@@ -3275,7 +3269,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>608</v>
       </c>
@@ -3295,7 +3289,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>608</v>
       </c>
@@ -3325,18 +3319,18 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.53125" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" customWidth="1"/>
+    <col min="4" max="4" width="40.796875" customWidth="1"/>
+    <col min="6" max="6" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -3388,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>703</v>
       </c>
@@ -3414,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -3440,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>597</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>670</v>
       </c>
@@ -3492,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>671</v>
       </c>
@@ -3518,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>669</v>
       </c>
@@ -3544,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>672</v>
       </c>
@@ -3570,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>665</v>
       </c>
@@ -3581,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>19</v>
@@ -3590,13 +3584,13 @@
         <v>660</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>666</v>
       </c>
@@ -3626,7 +3620,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>667</v>
       </c>
@@ -3637,7 +3631,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -3656,7 +3650,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>668</v>
       </c>
@@ -3667,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>19</v>
@@ -3686,7 +3680,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>673</v>
       </c>
@@ -3712,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>674</v>
       </c>
@@ -3738,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>675</v>
       </c>
@@ -3764,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>676</v>
       </c>
@@ -3790,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>714</v>
       </c>
@@ -3801,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>19</v>
@@ -3831,14 +3825,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="32.796875" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>596</v>
       </c>
@@ -3858,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>702</v>
       </c>
@@ -3878,7 +3872,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>698</v>
       </c>
@@ -3898,7 +3892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>699</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>684</v>
       </c>
@@ -3938,7 +3932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>685</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>686</v>
       </c>
@@ -3978,7 +3972,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -3998,7 +3992,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>688</v>
       </c>
@@ -4012,7 +4006,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>689</v>
       </c>
@@ -4039,12 +4033,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2536</v>
       </c>
@@ -4061,7 +4055,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2537</v>
       </c>
@@ -4078,7 +4072,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>2538</v>
       </c>
@@ -4095,7 +4089,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2539</v>
       </c>
@@ -4112,7 +4106,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2540</v>
       </c>
@@ -4129,7 +4123,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2550</v>
       </c>
@@ -4146,7 +4140,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2551</v>
       </c>
@@ -4163,7 +4157,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2552</v>
       </c>
@@ -4180,7 +4174,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>2553</v>
       </c>
@@ -4197,7 +4191,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2554</v>
       </c>
@@ -4227,13 +4221,13 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="32.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4345,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>206</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>207</v>
       </c>
@@ -4513,7 +4507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>208</v>
       </c>
@@ -4569,7 +4563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>209</v>
       </c>
@@ -4625,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>210</v>
       </c>
@@ -4681,7 +4675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>211</v>
       </c>
@@ -4737,7 +4731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>212</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>213</v>
       </c>
@@ -4849,7 +4843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>214</v>
       </c>
@@ -4905,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>215</v>
       </c>
@@ -4961,7 +4955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>216</v>
       </c>
@@ -5017,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>217</v>
       </c>
@@ -5073,7 +5067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>218</v>
       </c>
@@ -5129,7 +5123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>334</v>
       </c>
@@ -5185,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>358</v>
       </c>
@@ -5241,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>369</v>
       </c>
@@ -5297,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>370</v>
       </c>
@@ -5353,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>371</v>
       </c>
@@ -5409,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>372</v>
       </c>
@@ -5465,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>400</v>
       </c>
@@ -5521,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>406</v>
       </c>
@@ -5577,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>417</v>
       </c>
@@ -5633,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>418</v>
       </c>
@@ -5689,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>419</v>
       </c>
@@ -5745,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>429</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5857,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>600</v>
       </c>
@@ -5913,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>700</v>
       </c>
@@ -5969,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>800</v>
       </c>
@@ -6025,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>900</v>
       </c>
@@ -6081,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1005</v>
       </c>
@@ -6190,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1006</v>
       </c>
@@ -6243,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1007</v>
       </c>
@@ -6296,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1008</v>
       </c>
@@ -6349,7 +6343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1009</v>
       </c>
@@ -6402,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1010</v>
       </c>
@@ -6455,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1012</v>
       </c>
@@ -6511,7 +6505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1013</v>
       </c>
@@ -6567,7 +6561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1014</v>
       </c>
@@ -6623,7 +6617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1015</v>
       </c>
@@ -6679,7 +6673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1016</v>
       </c>
@@ -6735,7 +6729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1017</v>
       </c>
@@ -6791,7 +6785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1018</v>
       </c>
@@ -6847,7 +6841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1019</v>
       </c>
@@ -6903,7 +6897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1020</v>
       </c>
@@ -6959,7 +6953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1021</v>
       </c>
@@ -7015,7 +7009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1022</v>
       </c>
@@ -7071,7 +7065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1023</v>
       </c>
@@ -7127,7 +7121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1024</v>
       </c>
@@ -7183,7 +7177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1025</v>
       </c>
@@ -7239,7 +7233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1026</v>
       </c>
@@ -7295,7 +7289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1027</v>
       </c>
@@ -7351,7 +7345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1028</v>
       </c>
@@ -7407,7 +7401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1029</v>
       </c>
@@ -7463,7 +7457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1030</v>
       </c>
@@ -7519,7 +7513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1031</v>
       </c>
@@ -7575,7 +7569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1032</v>
       </c>
@@ -7631,7 +7625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1033</v>
       </c>
@@ -7687,7 +7681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1034</v>
       </c>
@@ -7743,7 +7737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1035</v>
       </c>
@@ -7799,7 +7793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1036</v>
       </c>
@@ -7855,7 +7849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1100</v>
       </c>
@@ -7911,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1200</v>
       </c>
@@ -7967,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1300</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1400</v>
       </c>
@@ -8079,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1519</v>
       </c>
@@ -8132,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1520</v>
       </c>
@@ -8185,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1523</v>
       </c>
@@ -8238,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1524</v>
       </c>
@@ -8291,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1525</v>
       </c>
@@ -8347,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1526</v>
       </c>
@@ -8403,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1527</v>
       </c>
@@ -8459,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1528</v>
       </c>
@@ -8515,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1565</v>
       </c>
@@ -8571,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1585</v>
       </c>
@@ -8624,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1586</v>
       </c>
@@ -8677,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1587</v>
       </c>
@@ -8733,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1588</v>
       </c>
@@ -8789,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1589</v>
       </c>
@@ -8845,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1600</v>
       </c>
@@ -8901,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1700</v>
       </c>
@@ -8957,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1800</v>
       </c>
@@ -9013,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1900</v>
       </c>
@@ -9069,7 +9063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1901</v>
       </c>
@@ -9122,7 +9116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1902</v>
       </c>
@@ -9178,7 +9172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1903</v>
       </c>
@@ -9231,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1904</v>
       </c>
@@ -9284,7 +9278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1905</v>
       </c>
@@ -9337,7 +9331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1906</v>
       </c>
@@ -9390,7 +9384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1907</v>
       </c>
@@ -9443,7 +9437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1908</v>
       </c>
@@ -9496,7 +9490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1909</v>
       </c>
@@ -9552,7 +9546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1910</v>
       </c>
@@ -9605,7 +9599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -9658,7 +9652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1912</v>
       </c>
@@ -9711,7 +9705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -9767,7 +9761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -9823,7 +9817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1918</v>
       </c>
@@ -9879,7 +9873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1919</v>
       </c>
@@ -9935,7 +9929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1920</v>
       </c>
@@ -9991,7 +9985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1921</v>
       </c>
@@ -10047,7 +10041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1922</v>
       </c>
@@ -10103,7 +10097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1923</v>
       </c>
@@ -10159,7 +10153,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1924</v>
       </c>
@@ -10215,7 +10209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1925</v>
       </c>
@@ -10271,7 +10265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1926</v>
       </c>
@@ -10327,7 +10321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1927</v>
       </c>
@@ -10383,7 +10377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1928</v>
       </c>
@@ -10439,7 +10433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1929</v>
       </c>
@@ -10495,7 +10489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1930</v>
       </c>
@@ -10551,7 +10545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>2000</v>
       </c>
@@ -10607,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>2100</v>
       </c>
@@ -10663,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>2500</v>
       </c>
@@ -10710,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>2501</v>
       </c>
@@ -10757,7 +10751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>2502</v>
       </c>
@@ -10804,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>2503</v>
       </c>
@@ -10851,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>2504</v>
       </c>
@@ -10898,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>2505</v>
       </c>
@@ -10945,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>2507</v>
       </c>
@@ -11001,7 +10995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>2508</v>
       </c>
@@ -11057,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>2509</v>
       </c>
@@ -11113,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>2510</v>
       </c>
@@ -11169,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>2511</v>
       </c>
@@ -11225,7 +11219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>2512</v>
       </c>
@@ -11281,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>2513</v>
       </c>
@@ -11337,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>2515</v>
       </c>
@@ -11393,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>2518</v>
       </c>
@@ -11449,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>2519</v>
       </c>
@@ -11505,7 +11499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>2520</v>
       </c>
@@ -11561,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>2521</v>
       </c>
@@ -11617,7 +11611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>2522</v>
       </c>
@@ -11673,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>2523</v>
       </c>
@@ -11729,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>2524</v>
       </c>
@@ -11785,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>2525</v>
       </c>
@@ -11841,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>2526</v>
       </c>
@@ -11897,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>2534</v>
       </c>
@@ -11953,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>2535</v>
       </c>
@@ -12009,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>2536</v>
       </c>
@@ -12065,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>2537</v>
       </c>
@@ -12121,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>2538</v>
       </c>
@@ -12177,7 +12171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>2539</v>
       </c>
@@ -12233,7 +12227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>2540</v>
       </c>
@@ -12289,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>2550</v>
       </c>
@@ -12345,7 +12339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>2551</v>
       </c>
@@ -12401,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>2552</v>
       </c>
@@ -12457,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>2553</v>
       </c>
@@ -12513,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>2554</v>
       </c>
@@ -12569,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>2555</v>
       </c>
@@ -12625,7 +12619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>2556</v>
       </c>
@@ -12681,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>2557</v>
       </c>
@@ -12737,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>2558</v>
       </c>
@@ -12793,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>2559</v>
       </c>
@@ -12849,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>2560</v>
       </c>
@@ -12905,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>2562</v>
       </c>
@@ -12958,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>2563</v>
       </c>
@@ -13011,7 +13005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>2564</v>
       </c>
@@ -13064,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>2600</v>
       </c>
@@ -13120,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>2700</v>
       </c>
@@ -13176,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>2900</v>
       </c>
@@ -13232,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>3000</v>
       </c>
@@ -13288,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>3005</v>
       </c>
@@ -13344,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>3008</v>
       </c>
@@ -13400,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>3009</v>
       </c>
@@ -13456,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>3010</v>
       </c>
@@ -13512,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>3011</v>
       </c>
@@ -13568,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>3012</v>
       </c>
@@ -13624,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>3013</v>
       </c>
@@ -13680,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>3014</v>
       </c>
@@ -13736,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>3015</v>
       </c>
@@ -13792,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>3016</v>
       </c>
@@ -13848,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>3017</v>
       </c>
@@ -13904,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>3018</v>
       </c>
@@ -13960,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>3019</v>
       </c>
@@ -14016,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>3020</v>
       </c>
@@ -14072,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>3021</v>
       </c>
@@ -14128,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>3022</v>
       </c>
@@ -14184,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>3023</v>
       </c>
@@ -14240,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>3024</v>
       </c>
@@ -14296,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>3025</v>
       </c>
@@ -14352,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>3026</v>
       </c>
@@ -14408,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>3027</v>
       </c>
@@ -14464,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>3100</v>
       </c>
@@ -14520,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>3102</v>
       </c>
@@ -14576,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>3105</v>
       </c>
@@ -14632,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>3200</v>
       </c>
@@ -14688,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>3201</v>
       </c>
@@ -14744,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>3202</v>
       </c>
@@ -14800,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>3203</v>
       </c>
@@ -14856,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>3204</v>
       </c>
@@ -14912,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>3205</v>
       </c>
@@ -14968,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>3206</v>
       </c>
@@ -15024,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>3207</v>
       </c>
@@ -15080,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>3208</v>
       </c>
@@ -15136,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>3209</v>
       </c>
@@ -15192,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>3210</v>
       </c>
@@ -15248,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>3211</v>
       </c>
@@ -15304,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>3212</v>
       </c>
@@ -15360,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>3213</v>
       </c>
@@ -15416,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>3214</v>
       </c>
@@ -15472,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>3215</v>
       </c>
@@ -15528,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>3216</v>
       </c>
@@ -15584,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>3217</v>
       </c>
@@ -15640,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>3218</v>
       </c>
@@ -15693,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>3219</v>
       </c>
@@ -15746,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>3220</v>
       </c>
@@ -15799,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>3221</v>
       </c>
@@ -15852,7 +15846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>3222</v>
       </c>
@@ -15905,7 +15899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>3223</v>
       </c>
@@ -15958,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>3224</v>
       </c>
@@ -16014,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>3225</v>
       </c>
@@ -16070,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>3226</v>
       </c>
@@ -16126,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>3227</v>
       </c>
@@ -16182,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>3300</v>
       </c>
@@ -16238,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>3301</v>
       </c>
@@ -16294,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>3302</v>
       </c>
@@ -16350,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>3303</v>
       </c>
@@ -16406,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>3304</v>
       </c>
@@ -16462,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>3305</v>
       </c>
@@ -16518,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>3306</v>
       </c>
@@ -16574,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>3307</v>
       </c>
@@ -16630,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>3308</v>
       </c>
@@ -16686,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>3309</v>
       </c>
@@ -16742,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>3310</v>
       </c>
@@ -16798,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>3311</v>
       </c>
@@ -16854,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>3312</v>
       </c>
@@ -16910,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>3313</v>
       </c>
@@ -16966,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>3314</v>
       </c>
@@ -17022,7 +17016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>3315</v>
       </c>
@@ -17078,7 +17072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>3316</v>
       </c>
@@ -17134,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>3317</v>
       </c>
@@ -17190,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>3318</v>
       </c>
@@ -17243,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>3319</v>
       </c>
@@ -17296,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>3320</v>
       </c>
@@ -17349,7 +17343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>3321</v>
       </c>
@@ -17402,7 +17396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>3322</v>
       </c>
@@ -17455,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>3323</v>
       </c>
@@ -17508,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>3324</v>
       </c>
@@ -17564,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>3325</v>
       </c>
@@ -17620,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>3326</v>
       </c>
@@ -17676,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>3327</v>
       </c>
@@ -17732,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>3328</v>
       </c>
@@ -17788,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>3333</v>
       </c>
@@ -17844,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>3400</v>
       </c>
@@ -17897,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>3401</v>
       </c>
@@ -17950,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>3402</v>
       </c>
@@ -18003,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>3403</v>
       </c>
@@ -18056,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>3404</v>
       </c>
@@ -18109,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>3405</v>
       </c>
@@ -18162,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>3500</v>
       </c>
@@ -18218,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>3501</v>
       </c>
@@ -18274,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>3502</v>
       </c>
@@ -18327,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>3503</v>
       </c>
@@ -18380,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>3504</v>
       </c>
@@ -18433,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>3505</v>
       </c>
@@ -18486,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>3506</v>
       </c>
@@ -18539,7 +18533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>3507</v>
       </c>
@@ -18595,7 +18589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>3508</v>
       </c>
@@ -18651,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>3509</v>
       </c>
@@ -18707,7 +18701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>3510</v>
       </c>
@@ -18763,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>3511</v>
       </c>
@@ -18819,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>3512</v>
       </c>
@@ -18875,7 +18869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>3602</v>
       </c>
@@ -18931,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>3603</v>
       </c>
@@ -18987,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>3616</v>
       </c>
@@ -19040,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>3617</v>
       </c>
@@ -19093,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>3618</v>
       </c>
@@ -19146,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>3619</v>
       </c>
@@ -19199,7 +19193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>3620</v>
       </c>
@@ -19252,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>3621</v>
       </c>
@@ -19305,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>3622</v>
       </c>
@@ -19358,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>3623</v>
       </c>
@@ -19411,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>3624</v>
       </c>
@@ -19464,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>3625</v>
       </c>
@@ -19517,7 +19511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>3626</v>
       </c>
@@ -19570,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>3627</v>
       </c>
@@ -19623,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>3702</v>
       </c>
@@ -19676,7 +19670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>3703</v>
       </c>
@@ -19729,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>3704</v>
       </c>
@@ -19782,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>3705</v>
       </c>
@@ -19835,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>3706</v>
       </c>
@@ -19888,7 +19882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>3707</v>
       </c>
@@ -19941,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>3708</v>
       </c>
@@ -19994,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>3709</v>
       </c>
@@ -20047,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>3710</v>
       </c>
@@ -20100,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>3711</v>
       </c>
@@ -20153,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>3900</v>
       </c>
@@ -20209,7 +20203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>3901</v>
       </c>
@@ -20265,7 +20259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>3902</v>
       </c>
@@ -20321,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>3903</v>
       </c>
@@ -20377,7 +20371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>3904</v>
       </c>
@@ -20433,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>3905</v>
       </c>
@@ -20489,7 +20483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>3906</v>
       </c>
@@ -20545,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>3907</v>
       </c>
@@ -20601,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>3908</v>
       </c>
@@ -20657,7 +20651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>3909</v>
       </c>
@@ -20713,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>3910</v>
       </c>
@@ -20769,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>3911</v>
       </c>
@@ -20825,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>3912</v>
       </c>
@@ -20881,7 +20875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>3913</v>
       </c>
@@ -20937,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>3914</v>
       </c>
@@ -20993,7 +20987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>3915</v>
       </c>
@@ -21049,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>3916</v>
       </c>
@@ -21105,7 +21099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>3917</v>
       </c>
@@ -21161,7 +21155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>3918</v>
       </c>
@@ -21214,7 +21208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>3919</v>
       </c>
@@ -21267,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>3920</v>
       </c>
@@ -21320,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>3921</v>
       </c>
@@ -21373,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>3923</v>
       </c>
@@ -21426,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>3924</v>
       </c>
@@ -21479,7 +21473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>3925</v>
       </c>
@@ -21532,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>3926</v>
       </c>
@@ -21585,7 +21579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>3927</v>
       </c>
@@ -21641,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>3928</v>
       </c>
@@ -21697,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>3929</v>
       </c>
@@ -21753,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>3930</v>
       </c>
@@ -21809,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>3931</v>
       </c>
@@ -21865,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>3932</v>
       </c>
@@ -21921,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>3933</v>
       </c>
@@ -21977,7 +21971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>3934</v>
       </c>
@@ -22033,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>4000</v>
       </c>
@@ -22086,7 +22080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>4001</v>
       </c>
@@ -22139,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>4002</v>
       </c>
@@ -22192,7 +22186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>4003</v>
       </c>
@@ -22245,7 +22239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>4004</v>
       </c>
@@ -22298,7 +22292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>4005</v>
       </c>
@@ -22351,7 +22345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>4006</v>
       </c>
@@ -22404,7 +22398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>4007</v>
       </c>
@@ -22457,7 +22451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>4100</v>
       </c>
@@ -22513,7 +22507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>4101</v>
       </c>
@@ -22569,7 +22563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>4102</v>
       </c>
@@ -22625,7 +22619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>4103</v>
       </c>
@@ -22681,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>4104</v>
       </c>
@@ -22737,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>4105</v>
       </c>
@@ -22793,7 +22787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>4106</v>
       </c>
@@ -22849,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>4107</v>
       </c>
@@ -22905,7 +22899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>4108</v>
       </c>
@@ -22961,7 +22955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>4200</v>
       </c>
@@ -23017,7 +23011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>4201</v>
       </c>
@@ -23073,7 +23067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>4202</v>
       </c>
@@ -23129,7 +23123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>4203</v>
       </c>
@@ -23185,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>4204</v>
       </c>
@@ -23241,7 +23235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>4205</v>
       </c>
@@ -23297,7 +23291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>4206</v>
       </c>
@@ -23353,7 +23347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>4207</v>
       </c>
@@ -23409,7 +23403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>4208</v>
       </c>
@@ -23465,7 +23459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>4209</v>
       </c>
@@ -23521,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>4210</v>
       </c>
@@ -23577,7 +23571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>4211</v>
       </c>
@@ -23633,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>4212</v>
       </c>
@@ -23689,7 +23683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>4213</v>
       </c>
@@ -23745,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>4214</v>
       </c>
@@ -23801,7 +23795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>4215</v>
       </c>
@@ -23857,7 +23851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>4216</v>
       </c>
@@ -23913,7 +23907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>4217</v>
       </c>
@@ -23966,7 +23960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>4218</v>
       </c>
@@ -24019,7 +24013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>4219</v>
       </c>
@@ -24072,7 +24066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>4220</v>
       </c>
@@ -24125,7 +24119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>4221</v>
       </c>
@@ -24178,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>4222</v>
       </c>
@@ -24231,7 +24225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>4223</v>
       </c>
@@ -24284,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>4224</v>
       </c>
@@ -24340,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>4225</v>
       </c>
@@ -24396,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>4226</v>
       </c>
@@ -24452,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>4227</v>
       </c>
@@ -24508,7 +24502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>4228</v>
       </c>
@@ -24564,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>4229</v>
       </c>
@@ -24620,7 +24614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>4230</v>
       </c>
@@ -24676,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>4231</v>
       </c>
@@ -24732,7 +24726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>4232</v>
       </c>
@@ -24788,7 +24782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>4300</v>
       </c>
@@ -24844,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>4301</v>
       </c>
@@ -24900,7 +24894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>4302</v>
       </c>
@@ -24956,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>4303</v>
       </c>
@@ -25012,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>4304</v>
       </c>
@@ -25068,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>4305</v>
       </c>
@@ -25124,7 +25118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>4306</v>
       </c>
@@ -25180,7 +25174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>4307</v>
       </c>
@@ -25236,7 +25230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>4308</v>
       </c>
@@ -25292,7 +25286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>4309</v>
       </c>
@@ -25348,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>4310</v>
       </c>
@@ -25404,7 +25398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>4311</v>
       </c>
@@ -25460,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>4312</v>
       </c>
@@ -25516,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>4313</v>
       </c>
@@ -25572,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>4314</v>
       </c>
@@ -25628,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>4315</v>
       </c>
@@ -25684,7 +25678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>4316</v>
       </c>
@@ -25740,7 +25734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>4317</v>
       </c>
@@ -25796,7 +25790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>4318</v>
       </c>
@@ -25852,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>4319</v>
       </c>
@@ -25908,7 +25902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>4320</v>
       </c>
@@ -25964,7 +25958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>4321</v>
       </c>
@@ -26020,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>4322</v>
       </c>
@@ -26076,7 +26070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>4323</v>
       </c>
@@ -26132,7 +26126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>4324</v>
       </c>
@@ -26188,7 +26182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>4325</v>
       </c>
@@ -26244,7 +26238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>4400</v>
       </c>
@@ -26297,7 +26291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>4401</v>
       </c>
@@ -26350,7 +26344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>4402</v>
       </c>
@@ -26403,7 +26397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>4403</v>
       </c>
@@ -26456,7 +26450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>4404</v>
       </c>
@@ -26509,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>4405</v>
       </c>
@@ -26562,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>4406</v>
       </c>
@@ -26615,7 +26609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>4407</v>
       </c>
@@ -26668,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>4408</v>
       </c>
@@ -26721,7 +26715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>4409</v>
       </c>
@@ -26774,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>4410</v>
       </c>
@@ -26827,7 +26821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>4411</v>
       </c>
@@ -26880,7 +26874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>4413</v>
       </c>
@@ -26933,7 +26927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>4415</v>
       </c>
@@ -26986,7 +26980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>4500</v>
       </c>
@@ -27042,7 +27036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>4501</v>
       </c>
@@ -27098,7 +27092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>4502</v>
       </c>
@@ -27154,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>4503</v>
       </c>
@@ -27210,7 +27204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>4504</v>
       </c>
@@ -27266,7 +27260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>4505</v>
       </c>
@@ -27322,7 +27316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>4506</v>
       </c>
@@ -27378,7 +27372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>4507</v>
       </c>
@@ -27434,7 +27428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>4508</v>
       </c>
@@ -27490,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>4509</v>
       </c>
@@ -27546,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>4510</v>
       </c>
@@ -27602,7 +27596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>4511</v>
       </c>
@@ -27658,7 +27652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>4512</v>
       </c>
@@ -27714,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>4513</v>
       </c>
@@ -27770,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>4514</v>
       </c>
@@ -27826,7 +27820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>4515</v>
       </c>
@@ -27882,7 +27876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>4516</v>
       </c>
@@ -27935,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>4517</v>
       </c>
@@ -27988,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>4518</v>
       </c>
@@ -28041,7 +28035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>4519</v>
       </c>
@@ -28094,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>4520</v>
       </c>
@@ -28147,7 +28141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>4521</v>
       </c>
@@ -28200,7 +28194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>4522</v>
       </c>
@@ -28253,7 +28247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>4523</v>
       </c>
@@ -28309,7 +28303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>4524</v>
       </c>
@@ -28365,7 +28359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>4525</v>
       </c>
@@ -28421,7 +28415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>4526</v>
       </c>
@@ -28477,7 +28471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>4527</v>
       </c>
@@ -28533,7 +28527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>4528</v>
       </c>
@@ -28589,7 +28583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>4529</v>
       </c>
@@ -28645,7 +28639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>4600</v>
       </c>
@@ -28701,7 +28695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>4601</v>
       </c>
@@ -28757,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>4602</v>
       </c>
@@ -28813,7 +28807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>4603</v>
       </c>
@@ -28869,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>4604</v>
       </c>
@@ -28925,7 +28919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>4605</v>
       </c>
@@ -28981,7 +28975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>4606</v>
       </c>
@@ -29037,7 +29031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>4607</v>
       </c>
@@ -29093,7 +29087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>4608</v>
       </c>
@@ -29149,7 +29143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>4609</v>
       </c>
@@ -29205,7 +29199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>4610</v>
       </c>
@@ -29261,7 +29255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>4611</v>
       </c>
@@ -29317,7 +29311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>4612</v>
       </c>
@@ -29373,7 +29367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>4613</v>
       </c>
@@ -29429,7 +29423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>4614</v>
       </c>
@@ -29485,7 +29479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>4615</v>
       </c>
@@ -29541,7 +29535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>4616</v>
       </c>
@@ -29597,7 +29591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>4617</v>
       </c>
@@ -29653,7 +29647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>4618</v>
       </c>
@@ -29706,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>4619</v>
       </c>
@@ -29759,7 +29753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>4620</v>
       </c>
@@ -29812,7 +29806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>4622</v>
       </c>
@@ -29865,7 +29859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>4623</v>
       </c>
@@ -29918,7 +29912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>4624</v>
       </c>
@@ -29974,7 +29968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>4625</v>
       </c>
@@ -30030,7 +30024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>4626</v>
       </c>
@@ -30086,7 +30080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>4627</v>
       </c>
@@ -30142,7 +30136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>4628</v>
       </c>
@@ -30198,7 +30192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>4629</v>
       </c>
@@ -30254,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>4630</v>
       </c>
@@ -30310,7 +30304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>4631</v>
       </c>
@@ -30366,7 +30360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>4700</v>
       </c>
@@ -30422,7 +30416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>4701</v>
       </c>
@@ -30478,7 +30472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>4702</v>
       </c>
@@ -30534,7 +30528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>4704</v>
       </c>
@@ -30590,7 +30584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>4707</v>
       </c>
@@ -30646,7 +30640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>4708</v>
       </c>
@@ -30702,7 +30696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>4712</v>
       </c>
@@ -30758,7 +30752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>4715</v>
       </c>
@@ -30814,7 +30808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>4716</v>
       </c>
@@ -30867,7 +30861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>4717</v>
       </c>
@@ -30920,7 +30914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>4718</v>
       </c>
@@ -30973,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>4719</v>
       </c>
@@ -31026,7 +31020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>4720</v>
       </c>
@@ -31079,7 +31073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>4721</v>
       </c>
@@ -31132,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>4722</v>
       </c>
@@ -31185,7 +31179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>4723</v>
       </c>
@@ -31238,7 +31232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>4900</v>
       </c>
@@ -31294,7 +31288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>4901</v>
       </c>
@@ -31350,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>4902</v>
       </c>
@@ -31406,7 +31400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>4903</v>
       </c>
@@ -31462,7 +31456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>4904</v>
       </c>
@@ -31518,7 +31512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>4905</v>
       </c>
@@ -31574,7 +31568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>4906</v>
       </c>
@@ -31630,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>4907</v>
       </c>
@@ -31686,7 +31680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>4908</v>
       </c>
@@ -31742,7 +31736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>4909</v>
       </c>
@@ -31798,7 +31792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>4910</v>
       </c>
@@ -31854,7 +31848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>4911</v>
       </c>
@@ -31910,7 +31904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>4912</v>
       </c>
@@ -31966,7 +31960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>4913</v>
       </c>
@@ -32022,7 +32016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>4914</v>
       </c>
@@ -32078,7 +32072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>4915</v>
       </c>
@@ -32134,7 +32128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>4916</v>
       </c>
@@ -32190,7 +32184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>4917</v>
       </c>
@@ -32246,7 +32240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>4918</v>
       </c>
@@ -32302,7 +32296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>4919</v>
       </c>
@@ -32358,7 +32352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>4920</v>
       </c>
@@ -32414,7 +32408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>4921</v>
       </c>
@@ -32470,7 +32464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>4922</v>
       </c>
@@ -32526,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>4923</v>
       </c>
@@ -32582,7 +32576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>4924</v>
       </c>
@@ -32638,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>4925</v>
       </c>
@@ -32694,7 +32688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>5116</v>
       </c>
@@ -32747,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>5117</v>
       </c>
@@ -32800,7 +32794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>5118</v>
       </c>
@@ -32853,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>5119</v>
       </c>
@@ -32906,7 +32900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>5120</v>
       </c>
@@ -32959,7 +32953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>5121</v>
       </c>
@@ -33012,7 +33006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>5122</v>
       </c>
@@ -33065,7 +33059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>5123</v>
       </c>
@@ -33118,7 +33112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>5126</v>
       </c>
@@ -33171,7 +33165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>5127</v>
       </c>
@@ -33224,7 +33218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>5128</v>
       </c>
@@ -33277,7 +33271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>5129</v>
       </c>
@@ -33330,7 +33324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>5130</v>
       </c>
@@ -33383,7 +33377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>5131</v>
       </c>
@@ -33436,7 +33430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>5200</v>
       </c>
@@ -33489,7 +33483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>5201</v>
       </c>
@@ -33542,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>5202</v>
       </c>
@@ -33595,7 +33589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>5203</v>
       </c>
@@ -33648,7 +33642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>5204</v>
       </c>
@@ -33701,7 +33695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>5205</v>
       </c>
@@ -33754,7 +33748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>5206</v>
       </c>
@@ -33807,7 +33801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>5207</v>
       </c>
@@ -33860,7 +33854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>5208</v>
       </c>
@@ -33913,7 +33907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>5300</v>
       </c>
@@ -33966,7 +33960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>5301</v>
       </c>
@@ -34019,7 +34013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>5302</v>
       </c>
@@ -34072,7 +34066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>5303</v>
       </c>
@@ -34125,7 +34119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>5304</v>
       </c>
@@ -34178,7 +34172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>5305</v>
       </c>
@@ -34231,7 +34225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>5401</v>
       </c>
@@ -34287,7 +34281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>5402</v>
       </c>
@@ -34343,7 +34337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="548" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>5403</v>
       </c>
@@ -34399,7 +34393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="549" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>5404</v>
       </c>
@@ -34455,7 +34449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="550" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>5405</v>
       </c>
@@ -34511,7 +34505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="551" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>5406</v>
       </c>
@@ -34567,7 +34561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="552" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>5407</v>
       </c>
@@ -34623,7 +34617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>5408</v>
       </c>
@@ -34679,7 +34673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>5409</v>
       </c>
@@ -34735,7 +34729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="555" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>5410</v>
       </c>
@@ -34791,7 +34785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>5411</v>
       </c>
@@ -34847,7 +34841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>5412</v>
       </c>
@@ -34903,7 +34897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="558" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>5413</v>
       </c>
@@ -34959,7 +34953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>5501</v>
       </c>
@@ -35015,7 +35009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>5502</v>
       </c>
@@ -35071,7 +35065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>5503</v>
       </c>
@@ -35127,7 +35121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>5504</v>
       </c>
@@ -35183,7 +35177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>5505</v>
       </c>
@@ -35239,7 +35233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>5506</v>
       </c>
@@ -35295,7 +35289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>5508</v>
       </c>
@@ -35351,7 +35345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>5509</v>
       </c>
@@ -35407,7 +35401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>5510</v>
       </c>
@@ -35463,7 +35457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>5513</v>
       </c>
@@ -35519,7 +35513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>5514</v>
       </c>
@@ -35575,7 +35569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>5515</v>
       </c>
@@ -35631,7 +35625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>5516</v>
       </c>
@@ -35687,7 +35681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>5517</v>
       </c>
@@ -35743,7 +35737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>5520</v>
       </c>
@@ -35799,7 +35793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>5521</v>
       </c>
@@ -35855,7 +35849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>5522</v>
       </c>
@@ -35911,7 +35905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>5523</v>
       </c>
@@ -35967,7 +35961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>5524</v>
       </c>
@@ -36023,7 +36017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>5529</v>
       </c>
@@ -36079,7 +36073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>5530</v>
       </c>
@@ -36135,7 +36129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>5531</v>
       </c>
@@ -36191,7 +36185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>5534</v>
       </c>
@@ -36247,7 +36241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>5535</v>
       </c>
@@ -36303,7 +36297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>5536</v>
       </c>
@@ -36359,7 +36353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>5537</v>
       </c>
@@ -36415,7 +36409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>5538</v>
       </c>
@@ -36471,7 +36465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>5539</v>
       </c>
@@ -36527,7 +36521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>5540</v>
       </c>
@@ -36583,7 +36577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>5544</v>
       </c>
@@ -36639,7 +36633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>5545</v>
       </c>
@@ -36695,7 +36689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>5551</v>
       </c>
@@ -36751,7 +36745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>5552</v>
       </c>
@@ -36807,7 +36801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>5553</v>
       </c>
@@ -36863,7 +36857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>5554</v>
       </c>
@@ -36919,7 +36913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>5556</v>
       </c>
@@ -36975,7 +36969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>5558</v>
       </c>
@@ -37031,7 +37025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>5559</v>
       </c>
@@ -37087,7 +37081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>5560</v>
       </c>
@@ -37143,7 +37137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>5561</v>
       </c>
@@ -37199,7 +37193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>5562</v>
       </c>
@@ -37255,7 +37249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>5563</v>
       </c>
@@ -37311,7 +37305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>5564</v>
       </c>
@@ -37367,7 +37361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>5565</v>
       </c>
@@ -37423,7 +37417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>5566</v>
       </c>
@@ -37479,7 +37473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>5574</v>
       </c>
@@ -37535,7 +37529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>5575</v>
       </c>
@@ -37591,7 +37585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>5577</v>
       </c>
@@ -37647,7 +37641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>5578</v>
       </c>
@@ -37703,7 +37697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>5585</v>
       </c>
@@ -37759,7 +37753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>5586</v>
       </c>
@@ -37815,7 +37809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>5587</v>
       </c>
@@ -37871,7 +37865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>5588</v>
       </c>
@@ -37927,7 +37921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>5589</v>
       </c>
@@ -37983,7 +37977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>5591</v>
       </c>
@@ -38039,7 +38033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>5592</v>
       </c>
@@ -38095,7 +38089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>5594</v>
       </c>
@@ -38151,7 +38145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>5596</v>
       </c>
@@ -38207,7 +38201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>5597</v>
       </c>
@@ -38263,7 +38257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>5598</v>
       </c>
@@ -38319,7 +38313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>5599</v>
       </c>
@@ -38375,7 +38369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>5600</v>
       </c>
@@ -38431,7 +38425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>5602</v>
       </c>
@@ -38487,7 +38481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>5603</v>
       </c>
@@ -38543,7 +38537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>5604</v>
       </c>
@@ -38599,7 +38593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>5607</v>
       </c>
@@ -38655,7 +38649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>5608</v>
       </c>
@@ -38711,7 +38705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>5610</v>
       </c>
@@ -38767,7 +38761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>5611</v>
       </c>
@@ -38823,7 +38817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>5612</v>
       </c>
@@ -38879,7 +38873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>5700</v>
       </c>
@@ -38935,7 +38929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>5701</v>
       </c>
@@ -38991,7 +38985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>5702</v>
       </c>
@@ -39047,7 +39041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>5703</v>
       </c>
@@ -39103,7 +39097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>5704</v>
       </c>
@@ -39159,7 +39153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>5705</v>
       </c>
@@ -39215,7 +39209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>5706</v>
       </c>
@@ -39271,7 +39265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>5707</v>
       </c>
@@ -39327,7 +39321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>5708</v>
       </c>
@@ -39383,7 +39377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>5709</v>
       </c>
@@ -39439,7 +39433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>5710</v>
       </c>
@@ -39495,7 +39489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>5711</v>
       </c>
@@ -39551,7 +39545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>5712</v>
       </c>
@@ -39607,7 +39601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>5713</v>
       </c>
@@ -39663,7 +39657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>5714</v>
       </c>
@@ -39719,7 +39713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>5715</v>
       </c>
@@ -39775,7 +39769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>5716</v>
       </c>
@@ -39831,7 +39825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>5719</v>
       </c>
@@ -39887,7 +39881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>5720</v>
       </c>
@@ -39943,7 +39937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>5722</v>
       </c>
@@ -39999,7 +39993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>5723</v>
       </c>
@@ -40055,7 +40049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>5724</v>
       </c>
@@ -40111,7 +40105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>5725</v>
       </c>
@@ -40167,7 +40161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>5727</v>
       </c>
@@ -40223,7 +40217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>5730</v>
       </c>
@@ -40279,7 +40273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>5731</v>
       </c>
@@ -40335,7 +40329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>5732</v>
       </c>
@@ -40391,7 +40385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>5733</v>
       </c>
@@ -40447,7 +40441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>5736</v>
       </c>
@@ -40503,7 +40497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>5737</v>
       </c>
@@ -40559,7 +40553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>5738</v>
       </c>
@@ -40615,7 +40609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>5740</v>
       </c>
@@ -40671,7 +40665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>5741</v>
       </c>
@@ -40727,7 +40721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>5744</v>
       </c>
@@ -40783,7 +40777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>5745</v>
       </c>
@@ -40839,7 +40833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>5746</v>
       </c>
@@ -40895,7 +40889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>5752</v>
       </c>
@@ -40951,7 +40945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>5754</v>
       </c>
@@ -41007,7 +41001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>5758</v>
       </c>
@@ -41063,7 +41057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>5760</v>
       </c>
@@ -41119,7 +41113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>5761</v>
       </c>
@@ -41175,7 +41169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>5762</v>
       </c>
@@ -41231,7 +41225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>5763</v>
       </c>
@@ -41287,7 +41281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>5764</v>
       </c>
@@ -41343,7 +41337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>5765</v>
       </c>
@@ -41399,7 +41393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>5766</v>
       </c>
@@ -41455,7 +41449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>5767</v>
       </c>
@@ -41511,7 +41505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>5768</v>
       </c>
@@ -41567,7 +41561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>5769</v>
       </c>
@@ -41623,7 +41617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>5770</v>
       </c>
@@ -41679,7 +41673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>5771</v>
       </c>
@@ -41735,7 +41729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>5772</v>
       </c>
@@ -41791,7 +41785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>5782</v>
       </c>
@@ -41847,7 +41841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>5786</v>
       </c>
@@ -41903,7 +41897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>5787</v>
       </c>
@@ -41959,7 +41953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>5788</v>
       </c>
@@ -42015,7 +42009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>5789</v>
       </c>
@@ -42071,7 +42065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>5790</v>
       </c>
@@ -42127,7 +42121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>5792</v>
       </c>
@@ -42183,7 +42177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>5794</v>
       </c>
@@ -42239,7 +42233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>5795</v>
       </c>
@@ -42295,7 +42289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>5796</v>
       </c>
@@ -42351,7 +42345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>5797</v>
       </c>
@@ -42407,7 +42401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>5799</v>
       </c>
@@ -42463,7 +42457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>5800</v>
       </c>
@@ -42519,7 +42513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="694" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>5801</v>
       </c>
@@ -42575,7 +42569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>5803</v>
       </c>
@@ -42631,7 +42625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A696">
         <v>5804</v>
       </c>
@@ -42687,7 +42681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A697">
         <v>5806</v>
       </c>
@@ -42743,7 +42737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A698">
         <v>5807</v>
       </c>
@@ -42799,7 +42793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A699">
         <v>5809</v>
       </c>
@@ -42852,7 +42846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A700">
         <v>5810</v>
       </c>
@@ -42905,7 +42899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A701">
         <v>5816</v>
       </c>
@@ -42958,7 +42952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A702">
         <v>5817</v>
       </c>
@@ -43011,7 +43005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A703">
         <v>5900</v>
       </c>
@@ -43067,7 +43061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A704">
         <v>5901</v>
       </c>
@@ -43123,7 +43117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A705">
         <v>5902</v>
       </c>
@@ -43179,7 +43173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A706">
         <v>5903</v>
       </c>
@@ -43235,7 +43229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A707">
         <v>5904</v>
       </c>
@@ -43291,7 +43285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A708">
         <v>5905</v>
       </c>
@@ -43347,7 +43341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A709">
         <v>5906</v>
       </c>
@@ -43403,7 +43397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A710">
         <v>5907</v>
       </c>
@@ -43459,7 +43453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A711">
         <v>6000</v>
       </c>
@@ -43515,7 +43509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A712">
         <v>6001</v>
       </c>
@@ -43571,7 +43565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A713">
         <v>6002</v>
       </c>
@@ -43627,7 +43621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A714">
         <v>6003</v>
       </c>
@@ -43683,7 +43677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A715">
         <v>6004</v>
       </c>
@@ -43739,7 +43733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A716">
         <v>6005</v>
       </c>
@@ -43795,7 +43789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A717">
         <v>6006</v>
       </c>
@@ -43851,7 +43845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A718">
         <v>6007</v>
       </c>
@@ -43907,7 +43901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A719">
         <v>6008</v>
       </c>
@@ -43963,7 +43957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A720">
         <v>6009</v>
       </c>
@@ -44019,7 +44013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A721">
         <v>6010</v>
       </c>
@@ -44075,7 +44069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A722">
         <v>6011</v>
       </c>
@@ -44131,7 +44125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A723">
         <v>6012</v>
       </c>
@@ -44187,7 +44181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A724">
         <v>6013</v>
       </c>
@@ -44243,7 +44237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A725">
         <v>6014</v>
       </c>
@@ -44299,7 +44293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A726">
         <v>6015</v>
       </c>
@@ -44355,7 +44349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A727">
         <v>6016</v>
       </c>
@@ -44411,7 +44405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A728">
         <v>6017</v>
       </c>
@@ -44467,7 +44461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A729">
         <v>6018</v>
       </c>
@@ -44523,7 +44517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A730">
         <v>6019</v>
       </c>
@@ -44579,7 +44573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A731">
         <v>6020</v>
       </c>
@@ -44635,7 +44629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A732">
         <v>6100</v>
       </c>
@@ -44691,7 +44685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A733">
         <v>6300</v>
       </c>
@@ -44747,7 +44741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A734">
         <v>6301</v>
       </c>
@@ -44803,7 +44797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A735">
         <v>6302</v>
       </c>
@@ -44859,7 +44853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A736">
         <v>6304</v>
       </c>
@@ -44915,7 +44909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A737">
         <v>6307</v>
       </c>
@@ -44971,7 +44965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A738">
         <v>6308</v>
       </c>
@@ -45027,7 +45021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A739">
         <v>6312</v>
       </c>
@@ -45083,7 +45077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A740">
         <v>6315</v>
       </c>
@@ -45139,7 +45133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A741">
         <v>6316</v>
       </c>
@@ -45192,7 +45186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A742">
         <v>6317</v>
       </c>
@@ -45245,7 +45239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A743">
         <v>6318</v>
       </c>
@@ -45298,7 +45292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A744">
         <v>6319</v>
       </c>
@@ -45351,7 +45345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A745">
         <v>6320</v>
       </c>
@@ -45404,7 +45398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A746">
         <v>9006</v>
       </c>
@@ -45457,7 +45451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="747" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A747">
         <v>9007</v>
       </c>
@@ -45510,7 +45504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A748">
         <v>9008</v>
       </c>
@@ -45563,7 +45557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A749">
         <v>9009</v>
       </c>
@@ -45616,7 +45610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A750">
         <v>9010</v>
       </c>
@@ -45669,7 +45663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="751" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A751">
         <v>9011</v>
       </c>
@@ -45722,7 +45716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="752" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A752">
         <v>9012</v>
       </c>
@@ -45775,7 +45769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A753">
         <v>9013</v>
       </c>
@@ -45828,7 +45822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A754">
         <v>9014</v>
       </c>
@@ -45881,7 +45875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A755">
         <v>9015</v>
       </c>
@@ -45934,7 +45928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A756">
         <v>9016</v>
       </c>
@@ -45987,7 +45981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A757">
         <v>9017</v>
       </c>
@@ -46040,7 +46034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A758">
         <v>9018</v>
       </c>
@@ -46093,7 +46087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A759">
         <v>9019</v>
       </c>
@@ -46146,7 +46140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A760">
         <v>9020</v>
       </c>
@@ -46199,7 +46193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A761">
         <v>9021</v>
       </c>
@@ -46252,7 +46246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A762">
         <v>9022</v>
       </c>
@@ -46305,7 +46299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A763">
         <v>9023</v>
       </c>
@@ -46358,7 +46352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A764">
         <v>9024</v>
       </c>
@@ -46411,7 +46405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A765">
         <v>9025</v>
       </c>
@@ -46464,7 +46458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A766">
         <v>9026</v>
       </c>
@@ -46517,7 +46511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A767">
         <v>9027</v>
       </c>
@@ -46570,7 +46564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A768">
         <v>9028</v>
       </c>
@@ -46623,7 +46617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="769" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A769">
         <v>9029</v>
       </c>
@@ -46676,7 +46670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="770" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A770">
         <v>9030</v>
       </c>
@@ -46729,7 +46723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="771" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A771">
         <v>9031</v>
       </c>
@@ -46782,7 +46776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="772" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A772">
         <v>9032</v>
       </c>
@@ -46835,7 +46829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="773" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A773">
         <v>9033</v>
       </c>
@@ -46888,7 +46882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="774" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A774">
         <v>9034</v>
       </c>
@@ -46941,7 +46935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="775" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A775">
         <v>9035</v>
       </c>
@@ -46994,7 +46988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="776" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A776">
         <v>9036</v>
       </c>
@@ -47047,7 +47041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="777" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A777">
         <v>9037</v>
       </c>
@@ -47100,7 +47094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="778" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A778">
         <v>9038</v>
       </c>
@@ -47153,7 +47147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="779" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A779">
         <v>9039</v>
       </c>
@@ -47206,7 +47200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="780" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A780">
         <v>9040</v>
       </c>
@@ -47259,7 +47253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="781" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A781">
         <v>9041</v>
       </c>
@@ -47312,7 +47306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="782" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A782">
         <v>9042</v>
       </c>
@@ -47365,7 +47359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="783" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A783">
         <v>9106</v>
       </c>
@@ -47418,7 +47412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A784">
         <v>9107</v>
       </c>
@@ -47471,7 +47465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A785">
         <v>9108</v>
       </c>
@@ -47524,7 +47518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A786">
         <v>9109</v>
       </c>
@@ -47577,7 +47571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A787">
         <v>9110</v>
       </c>
@@ -47630,7 +47624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A788">
         <v>9111</v>
       </c>
@@ -47683,7 +47677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A789">
         <v>9112</v>
       </c>
@@ -47736,7 +47730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A790">
         <v>9113</v>
       </c>
@@ -47789,7 +47783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A791">
         <v>9114</v>
       </c>
@@ -47842,7 +47836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A792">
         <v>9115</v>
       </c>
@@ -47895,7 +47889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A793">
         <v>9116</v>
       </c>
@@ -47948,7 +47942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A794">
         <v>9117</v>
       </c>
@@ -48001,7 +47995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A795">
         <v>9118</v>
       </c>
@@ -48054,7 +48048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A796">
         <v>9119</v>
       </c>
@@ -48107,7 +48101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A797">
         <v>9120</v>
       </c>
@@ -48160,7 +48154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A798">
         <v>9121</v>
       </c>
@@ -48213,7 +48207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A799">
         <v>9122</v>
       </c>
@@ -48266,7 +48260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A800">
         <v>9123</v>
       </c>
@@ -48319,7 +48313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A801">
         <v>9124</v>
       </c>
@@ -48372,7 +48366,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A802">
         <v>9125</v>
       </c>
@@ -48425,7 +48419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A803">
         <v>9126</v>
       </c>
@@ -48478,7 +48472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A804">
         <v>9127</v>
       </c>
@@ -48531,7 +48525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A805">
         <v>9128</v>
       </c>
@@ -48584,7 +48578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A806">
         <v>9129</v>
       </c>
@@ -48637,7 +48631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A807">
         <v>9130</v>
       </c>
@@ -48690,7 +48684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A808">
         <v>9131</v>
       </c>
@@ -48743,7 +48737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A809">
         <v>9132</v>
       </c>
@@ -48796,7 +48790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A810">
         <v>9133</v>
       </c>
@@ -48849,7 +48843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A811">
         <v>9134</v>
       </c>
@@ -48902,7 +48896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A812">
         <v>9135</v>
       </c>
@@ -48955,7 +48949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A813">
         <v>9136</v>
       </c>
@@ -49008,7 +49002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A814">
         <v>9137</v>
       </c>
@@ -49061,7 +49055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A815">
         <v>9138</v>
       </c>
@@ -49114,7 +49108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="816" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A816">
         <v>9139</v>
       </c>
@@ -49167,7 +49161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="817" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A817">
         <v>9140</v>
       </c>
@@ -49220,7 +49214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A818">
         <v>9141</v>
       </c>
@@ -49273,7 +49267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A819">
         <v>9142</v>
       </c>
@@ -49326,7 +49320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A820">
         <v>9143</v>
       </c>
@@ -49379,7 +49373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="821" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A821">
         <v>9144</v>
       </c>
@@ -49432,7 +49426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="822" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A822">
         <v>9145</v>
       </c>
@@ -49485,7 +49479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="823" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A823">
         <v>9146</v>
       </c>
@@ -49538,7 +49532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="824" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A824">
         <v>9147</v>
       </c>
@@ -49591,7 +49585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="825" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A825">
         <v>9148</v>
       </c>
@@ -49644,7 +49638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="826" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A826">
         <v>9149</v>
       </c>
@@ -49697,7 +49691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A827">
         <v>9150</v>
       </c>
@@ -49750,7 +49744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="828" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A828">
         <v>9151</v>
       </c>
@@ -49803,7 +49797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="829" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A829">
         <v>9152</v>
       </c>
@@ -49856,7 +49850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="830" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A830">
         <v>9153</v>
       </c>
@@ -49909,7 +49903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="831" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A831">
         <v>9154</v>
       </c>
@@ -49962,7 +49956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="832" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A832">
         <v>9155</v>
       </c>
@@ -50015,7 +50009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="833" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A833">
         <v>9156</v>
       </c>
@@ -50068,7 +50062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="834" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A834">
         <v>9157</v>
       </c>
@@ -50121,7 +50115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="835" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A835">
         <v>9158</v>
       </c>
@@ -50174,7 +50168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="836" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A836">
         <v>9159</v>
       </c>
@@ -50227,7 +50221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="837" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A837">
         <v>9160</v>
       </c>
@@ -50280,7 +50274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="838" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A838">
         <v>9161</v>
       </c>
@@ -50333,7 +50327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="839" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A839">
         <v>9162</v>
       </c>
@@ -50386,7 +50380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="840" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A840">
         <v>9163</v>
       </c>
@@ -50439,7 +50433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="841" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A841">
         <v>9164</v>
       </c>
@@ -50492,7 +50486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A842">
         <v>9165</v>
       </c>
@@ -50545,7 +50539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="843" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A843">
         <v>9166</v>
       </c>
@@ -50598,7 +50592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="844" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A844">
         <v>9167</v>
       </c>
@@ -50651,7 +50645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="845" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A845">
         <v>9168</v>
       </c>
@@ -50704,7 +50698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="846" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A846">
         <v>9169</v>
       </c>
@@ -50757,7 +50751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="847" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A847">
         <v>9170</v>
       </c>
@@ -50813,7 +50807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A848">
         <v>9171</v>
       </c>
@@ -50869,7 +50863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A849">
         <v>9172</v>
       </c>
@@ -50925,7 +50919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A850">
         <v>9173</v>
       </c>
@@ -50981,7 +50975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A851">
         <v>9174</v>
       </c>
@@ -51037,7 +51031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A852">
         <v>9175</v>
       </c>
@@ -51093,7 +51087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A853">
         <v>9176</v>
       </c>
@@ -51149,7 +51143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A854">
         <v>9177</v>
       </c>
@@ -51202,7 +51196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A855">
         <v>9178</v>
       </c>
@@ -51255,7 +51249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A856">
         <v>9179</v>
       </c>
@@ -51308,7 +51302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A857">
         <v>9180</v>
       </c>
@@ -51361,7 +51355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A858">
         <v>9284</v>
       </c>
@@ -51417,7 +51411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A859">
         <v>9285</v>
       </c>
@@ -51473,7 +51467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A860">
         <v>9286</v>
       </c>
@@ -51529,7 +51523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A861">
         <v>9287</v>
       </c>
@@ -51585,7 +51579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A862">
         <v>9298</v>
       </c>
@@ -51641,7 +51635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A863">
         <v>9560</v>
       </c>
@@ -51697,7 +51691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A864" s="2">
         <v>9561</v>
       </c>
@@ -51711,7 +51705,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="865" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A865">
         <v>21919</v>
       </c>
@@ -51767,7 +51761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A866">
         <v>21928</v>
       </c>
@@ -51820,7 +51814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A867">
         <v>21934</v>
       </c>
@@ -51876,7 +51870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A868">
         <v>21949</v>
       </c>
@@ -51932,7 +51926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A869">
         <v>22101</v>
       </c>
@@ -51988,7 +51982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A870">
         <v>22102</v>
       </c>
@@ -52044,7 +52038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A871">
         <v>22201</v>
       </c>
@@ -52100,7 +52094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A872">
         <v>25001</v>
       </c>
@@ -52156,7 +52150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A873">
         <v>25002</v>
       </c>
@@ -52212,7 +52206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A874">
         <v>30010</v>
       </c>
@@ -52268,7 +52262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A875">
         <v>30020</v>
       </c>
@@ -52321,7 +52315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A876">
         <v>30030</v>
       </c>
@@ -52374,7 +52368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A877">
         <v>30040</v>
       </c>
@@ -52427,7 +52421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A878">
         <v>30050</v>
       </c>
@@ -52480,7 +52474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A879">
         <v>30060</v>
       </c>
@@ -52533,7 +52527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A880">
         <v>30070</v>
       </c>
